--- a/template.xlsx
+++ b/template.xlsx
@@ -4,24 +4,289 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825"/>
   </bookViews>
   <sheets>
-    <sheet name="画面" sheetId="1" r:id="rId1"/>
-    <sheet name="form" sheetId="2" r:id="rId2"/>
-    <sheet name="ui" sheetId="3" r:id="rId3"/>
-    <sheet name="feedback" sheetId="4" r:id="rId4"/>
-    <sheet name="nav" sheetId="5" r:id="rId5"/>
-    <sheet name="search" sheetId="6" r:id="rId6"/>
-    <sheet name="layers" sheetId="7" r:id="rId7"/>
+    <sheet name="login" sheetId="11" r:id="rId1"/>
+    <sheet name="article" sheetId="8" r:id="rId2"/>
+    <sheet name="top" sheetId="12" r:id="rId3"/>
+    <sheet name="success" sheetId="15" r:id="rId4"/>
+    <sheet name="error" sheetId="16" r:id="rId5"/>
+    <sheet name="layers" sheetId="7" r:id="rId6"/>
+    <sheet name="form" sheetId="2" r:id="rId7"/>
+    <sheet name="ui" sheetId="3" r:id="rId8"/>
+    <sheet name="feedback" sheetId="4" r:id="rId9"/>
+    <sheet name="nav" sheetId="5" r:id="rId10"/>
+    <sheet name="search" sheetId="6" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">article!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">error!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">login!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">success!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">top!$A$1:$H$36</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+  <si>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイAPP</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Copyright</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copyright © 2008-2016 KPF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipisicing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Article2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Article1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipisicing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Article3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipisicing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua. Ut enim ad minim veniam, quis nostrud exercitation ullamco laboris nisi ut aliquip ex ea commodo consequat.
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容３</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容１</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容２</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインパスワード ：</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Welcome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ１　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　&gt;&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ２　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　&gt;&gt;</t>
+  </si>
+  <si>
+    <t>ページ３　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　&gt;&gt;</t>
+  </si>
+  <si>
+    <t>ページ４　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　&gt;&gt;</t>
+  </si>
+  <si>
+    <t>ページ５　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　&gt;&gt;</t>
+  </si>
+  <si>
+    <t>ページ６　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　&gt;&gt;</t>
+  </si>
+  <si>
+    <t>ページ７　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　&gt;&gt;</t>
+  </si>
+  <si>
+    <t>ページ８　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　&gt;&gt;</t>
+  </si>
+  <si>
+    <t>ページ９　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　&gt;&gt;</t>
+  </si>
+  <si>
+    <t>入力１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラベル２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック４</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック６</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック７</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック８</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリック９</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常終了</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閉じる</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XXXX処理が完了しました。　
+（受付日時：YYYY/MM/DD HH:MM:SS）</t>
+    <rPh sb="4" eb="6">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理エラー</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ご不明な点がございましたら、下記コールセンターまでお問い合わせください。
+コールセンター
+電話番号： XXXX-XXX-XXX
+営業時間： 平日10:00～17:00　土・日・祝日を除く</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像１</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -36,16 +301,69 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -53,15 +371,353 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -77,6 +733,426 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>11908</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>130970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>11563</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>73202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6917533" y="511970"/>
+          <a:ext cx="2761905" cy="4942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666409</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>113750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2723809" cy="4400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47276</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123209</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="0"/>
+          <a:ext cx="2790476" cy="4923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685457</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>56543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2742857" cy="4857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>113943</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>170850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="0"/>
+          <a:ext cx="2857143" cy="4800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>642598</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>113786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905625" y="547688"/>
+          <a:ext cx="2714286" cy="4114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>13943</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>147025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6929437" y="476249"/>
+          <a:ext cx="2752381" cy="4885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561649</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6929438" y="392907"/>
+          <a:ext cx="2609524" cy="4657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>652122</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6905626" y="392906"/>
+          <a:ext cx="2723809" cy="4933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28229</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2771429" cy="4847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -271,7 +1347,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -694,7 +1770,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1003,211 +2079,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666409</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>113750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2723809" cy="4400000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47276</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123209</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2743200" y="0"/>
-          <a:ext cx="2790476" cy="4923809"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>685457</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>56543</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2742857" cy="4857143"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>113943</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>170850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2743200" y="0"/>
-          <a:ext cx="2857143" cy="4800000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28229</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47019</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2771429" cy="4847619"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1495,29 +2366,649 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="9"/>
+      <c r="C8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="9"/>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="9"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="8"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="8"/>
+      <c r="I11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="6"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="9"/>
+      <c r="C16" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="9"/>
+      <c r="I16" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="9"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="9"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="9"/>
+      <c r="I19" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="8"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="I28" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="17"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B27:G29"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="C10:F12"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C18:F20"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="38"/>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="39"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="39"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="40"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="39"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="40"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="39"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="40"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="I12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+      <c r="I14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="B15" s="39"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="40"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="39"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="40"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="39"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="40"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="39"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="I22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="I24" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="39"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="40"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="39"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="39"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="40"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="39"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="40"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="B5:G10"/>
+    <mergeCell ref="B14:G19"/>
+    <mergeCell ref="B24:G29"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1527,49 +3018,1210 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A5" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="47"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="46"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="47"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="52"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="47"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="47"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="47"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="50"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="47"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="52"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="47"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="52"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="46"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="47"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="52"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="44"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="46"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="49"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A32:H33"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A5:H7"/>
+    <mergeCell ref="A8:H10"/>
+    <mergeCell ref="A11:H13"/>
+    <mergeCell ref="A14:H16"/>
+    <mergeCell ref="A17:H19"/>
+    <mergeCell ref="A20:H22"/>
+    <mergeCell ref="A23:H25"/>
+    <mergeCell ref="A26:H28"/>
+    <mergeCell ref="A29:H31"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="10"/>
+      <c r="B12" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="10"/>
+      <c r="B15" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="10"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="10"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="10"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="10"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="10"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="10"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="D6:E10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B25:G27"/>
+    <mergeCell ref="B15:G20"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="10"/>
+      <c r="B12" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="10"/>
+      <c r="B15" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="10"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="10"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="10"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="10"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="10"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="10"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="10"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="D6:E10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B15:G20"/>
+    <mergeCell ref="B25:G27"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1577,11 +4229,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1593,11 +4245,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -7,31 +7,32 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="11" r:id="rId1"/>
-    <sheet name="article" sheetId="8" r:id="rId2"/>
-    <sheet name="top" sheetId="12" r:id="rId3"/>
-    <sheet name="success" sheetId="15" r:id="rId4"/>
-    <sheet name="error" sheetId="16" r:id="rId5"/>
-    <sheet name="layers" sheetId="7" r:id="rId6"/>
-    <sheet name="form" sheetId="2" r:id="rId7"/>
-    <sheet name="ui" sheetId="3" r:id="rId8"/>
-    <sheet name="feedback" sheetId="4" r:id="rId9"/>
-    <sheet name="nav" sheetId="5" r:id="rId10"/>
-    <sheet name="search" sheetId="6" r:id="rId11"/>
+    <sheet name="index" sheetId="17" r:id="rId1"/>
+    <sheet name="login" sheetId="11" r:id="rId2"/>
+    <sheet name="article" sheetId="8" r:id="rId3"/>
+    <sheet name="top" sheetId="12" r:id="rId4"/>
+    <sheet name="success" sheetId="15" r:id="rId5"/>
+    <sheet name="error" sheetId="16" r:id="rId6"/>
+    <sheet name="layers" sheetId="7" r:id="rId7"/>
+    <sheet name="form" sheetId="2" r:id="rId8"/>
+    <sheet name="ui" sheetId="3" r:id="rId9"/>
+    <sheet name="feedback" sheetId="4" r:id="rId10"/>
+    <sheet name="nav" sheetId="5" r:id="rId11"/>
+    <sheet name="search" sheetId="6" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">article!$A$1:$H$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">error!$A$1:$H$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">login!$A$1:$H$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">success!$A$1:$H$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">top!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">article!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">error!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">login!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">success!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">top!$A$1:$H$36</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>ページタイトル</t>
     <phoneticPr fontId="1"/>
@@ -281,12 +282,16 @@
     <t>内容１</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Copyright © 2008-2016 KPF</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,7 +348,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,8 +367,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -488,6 +499,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -495,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -519,6 +610,25 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -645,26 +755,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -690,29 +824,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2366,28 +2485,1200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AB43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.375" customWidth="1"/>
+    <col min="24" max="24" width="2.625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="15"/>
+    </row>
+    <row r="3" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="16"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="17"/>
+    </row>
+    <row r="4" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="16"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="17"/>
+    </row>
+    <row r="5" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="16"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="17"/>
+    </row>
+    <row r="6" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="16"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="17"/>
+    </row>
+    <row r="7" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="16"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="17"/>
+    </row>
+    <row r="8" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="16"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="17"/>
+    </row>
+    <row r="9" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="16"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="17"/>
+    </row>
+    <row r="10" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="16"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="17"/>
+    </row>
+    <row r="11" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="16"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="17"/>
+    </row>
+    <row r="12" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="17"/>
+    </row>
+    <row r="13" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="16"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="17"/>
+    </row>
+    <row r="14" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="16"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="17"/>
+    </row>
+    <row r="15" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="17"/>
+    </row>
+    <row r="16" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="16"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="17"/>
+    </row>
+    <row r="17" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="16"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="17"/>
+    </row>
+    <row r="18" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="16"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="17"/>
+    </row>
+    <row r="19" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="16"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="17"/>
+    </row>
+    <row r="20" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="16"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="17"/>
+    </row>
+    <row r="21" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="17"/>
+    </row>
+    <row r="22" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="17"/>
+    </row>
+    <row r="23" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="17"/>
+    </row>
+    <row r="24" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="17"/>
+    </row>
+    <row r="25" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="17"/>
+    </row>
+    <row r="26" spans="2:28" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="S26" s="84"/>
+      <c r="T26" s="84"/>
+      <c r="U26" s="84"/>
+      <c r="V26" s="84"/>
+      <c r="W26" s="84"/>
+      <c r="X26" s="85"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="11"/>
+      <c r="AA28" s="11"/>
+      <c r="AB28" s="11"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="11"/>
+      <c r="AA29" s="11"/>
+      <c r="AB29" s="11"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="11"/>
+      <c r="AA31" s="11"/>
+      <c r="AB31" s="11"/>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="11"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="Y33" s="11"/>
+      <c r="Z33" s="11"/>
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="11"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="11"/>
+      <c r="AA34" s="11"/>
+      <c r="AB34" s="11"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
+      <c r="AA35" s="11"/>
+      <c r="AB35" s="11"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="11"/>
+      <c r="AA36" s="11"/>
+      <c r="AB36" s="11"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="11"/>
+      <c r="AA37" s="11"/>
+      <c r="AB37" s="11"/>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="11"/>
+      <c r="AA38" s="11"/>
+      <c r="AB38" s="11"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="11"/>
+      <c r="AA39" s="11"/>
+      <c r="AB39" s="11"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="11"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
+      <c r="Y41" s="11"/>
+      <c r="Z41" s="11"/>
+      <c r="AA41" s="11"/>
+      <c r="AB41" s="11"/>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="11"/>
+      <c r="AB42" s="11"/>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B26:X26"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2396,7 +3687,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2404,7 +3695,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -2412,7 +3703,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2420,7 +3711,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -2428,7 +3719,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2436,20 +3727,20 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="9"/>
       <c r="I8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2457,34 +3748,34 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="8"/>
       <c r="I11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -2492,7 +3783,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -2500,7 +3791,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -2508,20 +3799,20 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="9"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -2529,34 +3820,34 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="28"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="9"/>
       <c r="I19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2564,7 +3855,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2572,7 +3863,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2580,36 +3871,36 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="11" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
       <c r="I28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="19"/>
-    </row>
-    <row r="30" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -2617,7 +3908,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -2625,7 +3916,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2633,17 +3924,17 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -2665,39 +3956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -2705,22 +3964,22 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2729,7 +3988,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2737,60 +3996,60 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="B5" s="36" t="s">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="45"/>
       <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="39"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="39"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="40"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="39"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="40"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="39"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="40"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-    </row>
-    <row r="11" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="46"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="47"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B7" s="46"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="47"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="46"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="47"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="46"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="47"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="50"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -2798,7 +4057,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
@@ -2811,7 +4070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -2819,60 +4078,60 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="36" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
       <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="39"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="B16" s="39"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="40"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="39"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="40"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="39"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-    </row>
-    <row r="20" spans="2:9">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="46"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="47"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="46"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="46"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="46"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -2880,7 +4139,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -2888,7 +4147,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
@@ -2901,7 +4160,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2909,60 +4168,60 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="36" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="45"/>
       <c r="I24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="39"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="40"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="39"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="40"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="39"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="40"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="39"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="40"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="41"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-    </row>
-    <row r="30" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="46"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="46"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="46"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="46"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="48"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="50"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2970,7 +4229,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2978,7 +4237,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2986,17 +4245,17 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -3016,30 +4275,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="A14" sqref="A14:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3048,7 +4307,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -3059,7 +4318,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3067,352 +4326,352 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="49"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56"/>
       <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="44" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="49"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="56"/>
       <c r="I9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="44" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="59"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="49"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="56"/>
       <c r="I12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="52"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="44" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="57"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="59"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="49"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="53"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="56"/>
       <c r="I15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="44" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="59"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="49"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="53"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="56"/>
       <c r="I18" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="50"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="44" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="57"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="47"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="49"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
       <c r="I21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="44" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="47"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="49"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
       <c r="I24" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="52"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="44" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="46"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="49"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="53"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="54"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
       <c r="I27" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="52"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="44" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="57"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="45"/>
-      <c r="G29" s="45"/>
-      <c r="H29" s="46"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="49"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="56"/>
       <c r="I30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="52"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="46"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="49"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="23" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="51"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="53"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="54"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -3439,7 +4698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -3447,22 +4706,22 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3471,7 +4730,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -3481,7 +4740,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -3491,7 +4750,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3501,24 +4760,24 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -3526,37 +4785,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -3566,22 +4825,22 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="10"/>
       <c r="I12" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3591,7 +4850,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3601,72 +4860,72 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="10"/>
       <c r="I15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="72"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="71"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="75"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="74"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3676,7 +4935,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3686,7 +4945,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3696,7 +4955,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -3706,42 +4965,42 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -3751,7 +5010,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -3761,7 +5020,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -3771,7 +5030,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -3781,7 +5040,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -3791,7 +5050,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -3801,17 +5060,17 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -3832,7 +5091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -3840,22 +5099,22 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3864,7 +5123,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -3874,7 +5133,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -3884,7 +5143,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3894,34 +5153,34 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -3929,27 +5188,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -3959,22 +5218,22 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
       <c r="H12" s="10"/>
       <c r="I12" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -3984,7 +5243,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3994,72 +5253,72 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="76"/>
       <c r="H15" s="10"/>
       <c r="I15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="79"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="79"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="79"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4069,7 +5328,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4079,7 +5338,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4089,7 +5348,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4099,42 +5358,42 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="19"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -4144,7 +5403,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -4154,7 +5413,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -4164,7 +5423,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -4174,7 +5433,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -4184,7 +5443,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -4194,17 +5453,17 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="23" t="s">
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="25"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="32"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4225,7 +5484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4233,7 +5492,7 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4241,7 +5500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4249,7 +5508,7 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4258,7 +5517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4266,23 +5525,7 @@
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
   <si>
     <t>ページタイトル</t>
     <phoneticPr fontId="1"/>
@@ -286,12 +286,20 @@
     <t>Copyright © 2008-2016 KPF</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>asdasd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>asd</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -511,26 +519,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -586,7 +574,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -623,10 +611,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,15 +814,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2488,43 +2470,89 @@
   <dimension ref="B1:AB43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+      <selection activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="1.375" customWidth="1"/>
     <col min="24" max="24" width="2.625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="15"/>
-    </row>
-    <row r="3" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="16"/>
+    <row r="1" spans="2:24" ht="14.25" thickBot="1"/>
+    <row r="2" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B2" s="13">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13">
+        <v>2</v>
+      </c>
+      <c r="D2" s="13">
+        <v>3</v>
+      </c>
+      <c r="E2" s="13">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13">
+        <v>5</v>
+      </c>
+      <c r="G2" s="13">
+        <v>6</v>
+      </c>
+      <c r="H2" s="13">
+        <v>7</v>
+      </c>
+      <c r="I2" s="13">
+        <v>8</v>
+      </c>
+      <c r="J2" s="13">
+        <v>9</v>
+      </c>
+      <c r="K2" s="13">
+        <v>10</v>
+      </c>
+      <c r="L2" s="13">
+        <v>11</v>
+      </c>
+      <c r="M2" s="13">
+        <v>12</v>
+      </c>
+      <c r="N2" s="13">
+        <v>13</v>
+      </c>
+      <c r="O2" s="13">
+        <v>14</v>
+      </c>
+      <c r="P2" s="13">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>16</v>
+      </c>
+      <c r="R2" s="13">
+        <v>17</v>
+      </c>
+      <c r="S2" s="13">
+        <v>18</v>
+      </c>
+      <c r="T2" s="13">
+        <v>19</v>
+      </c>
+      <c r="U2" s="13">
+        <v>20</v>
+      </c>
+      <c r="V2" s="13">
+        <v>21</v>
+      </c>
+      <c r="W2" s="13">
+        <v>22</v>
+      </c>
+      <c r="X2" s="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B3" s="14"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -2546,10 +2574,10 @@
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
-      <c r="X3" s="17"/>
-    </row>
-    <row r="4" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="16"/>
+      <c r="X3" s="15"/>
+    </row>
+    <row r="4" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B4" s="14"/>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -2559,7 +2587,9 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+      <c r="L4" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
       <c r="O4" s="12"/>
@@ -2571,10 +2601,10 @@
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
-      <c r="X4" s="17"/>
-    </row>
-    <row r="5" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="16"/>
+      <c r="X4" s="15"/>
+    </row>
+    <row r="5" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B5" s="14"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -2596,10 +2626,10 @@
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
-      <c r="X5" s="17"/>
-    </row>
-    <row r="6" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="16"/>
+      <c r="X5" s="15"/>
+    </row>
+    <row r="6" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B6" s="14"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2621,22 +2651,26 @@
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
-      <c r="X6" s="17"/>
-    </row>
-    <row r="7" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="16"/>
+      <c r="X6" s="15"/>
+    </row>
+    <row r="7" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B7" s="14"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
       <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="N7" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="O7" s="12"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
@@ -2646,10 +2680,10 @@
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
-      <c r="X7" s="17"/>
-    </row>
-    <row r="8" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="16"/>
+      <c r="X7" s="15"/>
+    </row>
+    <row r="8" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B8" s="14"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -2671,10 +2705,10 @@
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
-      <c r="X8" s="17"/>
-    </row>
-    <row r="9" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="16"/>
+      <c r="X8" s="15"/>
+    </row>
+    <row r="9" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B9" s="14"/>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -2689,25 +2723,31 @@
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+      <c r="Q9" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
-      <c r="X9" s="17"/>
-    </row>
-    <row r="10" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="16"/>
+      <c r="X9" s="15"/>
+    </row>
+    <row r="10" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B10" s="14"/>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
@@ -2721,10 +2761,10 @@
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
-      <c r="X10" s="17"/>
-    </row>
-    <row r="11" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="16"/>
+      <c r="X10" s="15"/>
+    </row>
+    <row r="11" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B11" s="14"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -2746,10 +2786,10 @@
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="12"/>
-      <c r="X11" s="17"/>
-    </row>
-    <row r="12" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="16"/>
+      <c r="X11" s="15"/>
+    </row>
+    <row r="12" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B12" s="14"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -2759,7 +2799,9 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
+      <c r="L12" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
       <c r="O12" s="12"/>
@@ -2771,10 +2813,10 @@
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
-      <c r="X12" s="17"/>
-    </row>
-    <row r="13" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="16"/>
+      <c r="X12" s="15"/>
+    </row>
+    <row r="13" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B13" s="14"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2796,10 +2838,10 @@
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="12"/>
-      <c r="X13" s="17"/>
-    </row>
-    <row r="14" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="16"/>
+      <c r="X13" s="15"/>
+    </row>
+    <row r="14" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B14" s="14"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -2821,10 +2863,10 @@
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="12"/>
-      <c r="X14" s="17"/>
-    </row>
-    <row r="15" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="16"/>
+      <c r="X14" s="15"/>
+    </row>
+    <row r="15" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B15" s="14"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -2832,7 +2874,9 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="J15" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
@@ -2846,10 +2890,10 @@
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="12"/>
-      <c r="X15" s="17"/>
-    </row>
-    <row r="16" spans="2:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="16"/>
+      <c r="X15" s="15"/>
+    </row>
+    <row r="16" spans="2:24" ht="20.25" customHeight="1">
+      <c r="B16" s="14"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -2871,10 +2915,10 @@
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="12"/>
-      <c r="X16" s="17"/>
-    </row>
-    <row r="17" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="16"/>
+      <c r="X16" s="15"/>
+    </row>
+    <row r="17" spans="2:28" ht="20.25" customHeight="1">
+      <c r="B17" s="14"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -2896,10 +2940,10 @@
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12"/>
-      <c r="X17" s="17"/>
-    </row>
-    <row r="18" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="16"/>
+      <c r="X17" s="15"/>
+    </row>
+    <row r="18" spans="2:28" ht="20.25" customHeight="1">
+      <c r="B18" s="14"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -2921,10 +2965,10 @@
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="12"/>
-      <c r="X18" s="17"/>
-    </row>
-    <row r="19" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="16"/>
+      <c r="X18" s="15"/>
+    </row>
+    <row r="19" spans="2:28" ht="20.25" customHeight="1">
+      <c r="B19" s="14"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -2946,10 +2990,10 @@
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
-      <c r="X19" s="17"/>
-    </row>
-    <row r="20" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="16"/>
+      <c r="X19" s="15"/>
+    </row>
+    <row r="20" spans="2:28" ht="20.25" customHeight="1">
+      <c r="B20" s="14"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -2971,10 +3015,10 @@
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
-      <c r="X20" s="17"/>
-    </row>
-    <row r="21" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="16"/>
+      <c r="X20" s="15"/>
+    </row>
+    <row r="21" spans="2:28" ht="20.25" customHeight="1">
+      <c r="B21" s="14"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -2996,10 +3040,10 @@
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="12"/>
-      <c r="X21" s="17"/>
-    </row>
-    <row r="22" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="16"/>
+      <c r="X21" s="15"/>
+    </row>
+    <row r="22" spans="2:28" ht="20.25" customHeight="1">
+      <c r="B22" s="14"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -3021,10 +3065,10 @@
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="12"/>
-      <c r="X22" s="17"/>
-    </row>
-    <row r="23" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="16"/>
+      <c r="X22" s="15"/>
+    </row>
+    <row r="23" spans="2:28" ht="20.25" customHeight="1">
+      <c r="B23" s="14"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -3046,10 +3090,10 @@
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
-      <c r="X23" s="17"/>
-    </row>
-    <row r="24" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="16"/>
+      <c r="X23" s="15"/>
+    </row>
+    <row r="24" spans="2:28" ht="20.25" customHeight="1">
+      <c r="B24" s="14"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
@@ -3071,10 +3115,10 @@
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
-      <c r="X24" s="17"/>
-    </row>
-    <row r="25" spans="2:28" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="16"/>
+      <c r="X24" s="15"/>
+    </row>
+    <row r="25" spans="2:28" ht="20.25" customHeight="1">
+      <c r="B25" s="14"/>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -3096,36 +3140,36 @@
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
       <c r="W25" s="12"/>
-      <c r="X25" s="17"/>
-    </row>
-    <row r="26" spans="2:28" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="83" t="s">
+      <c r="X25" s="15"/>
+    </row>
+    <row r="26" spans="2:28" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B26" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="84"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="84"/>
-      <c r="W26" s="84"/>
-      <c r="X26" s="85"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="18"/>
+    </row>
+    <row r="27" spans="2:28">
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -3149,7 +3193,7 @@
       <c r="V27" s="11"/>
       <c r="W27" s="11"/>
     </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:28">
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -3177,7 +3221,7 @@
       <c r="AA28" s="11"/>
       <c r="AB28" s="11"/>
     </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:28">
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -3205,7 +3249,7 @@
       <c r="AA29" s="11"/>
       <c r="AB29" s="11"/>
     </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:28">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -3233,7 +3277,7 @@
       <c r="AA30" s="11"/>
       <c r="AB30" s="11"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:28">
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -3261,7 +3305,7 @@
       <c r="AA31" s="11"/>
       <c r="AB31" s="11"/>
     </row>
-    <row r="32" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:28">
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -3289,7 +3333,7 @@
       <c r="AA32" s="11"/>
       <c r="AB32" s="11"/>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:28">
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -3317,7 +3361,7 @@
       <c r="AA33" s="11"/>
       <c r="AB33" s="11"/>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:28">
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -3345,7 +3389,7 @@
       <c r="AA34" s="11"/>
       <c r="AB34" s="11"/>
     </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:28">
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -3373,7 +3417,7 @@
       <c r="AA35" s="11"/>
       <c r="AB35" s="11"/>
     </row>
-    <row r="36" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:28">
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -3401,7 +3445,7 @@
       <c r="AA36" s="11"/>
       <c r="AB36" s="11"/>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:28">
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -3429,7 +3473,7 @@
       <c r="AA37" s="11"/>
       <c r="AB37" s="11"/>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:28">
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -3457,7 +3501,7 @@
       <c r="AA38" s="11"/>
       <c r="AB38" s="11"/>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:28">
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -3485,7 +3529,7 @@
       <c r="AA39" s="11"/>
       <c r="AB39" s="11"/>
     </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:28">
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -3513,7 +3557,7 @@
       <c r="AA40" s="11"/>
       <c r="AB40" s="11"/>
     </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:28">
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -3541,7 +3585,7 @@
       <c r="AA41" s="11"/>
       <c r="AB41" s="11"/>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:28">
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -3569,7 +3613,7 @@
       <c r="AA42" s="11"/>
       <c r="AB42" s="11"/>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:28">
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -3615,7 +3659,7 @@
       <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3631,7 +3675,7 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3647,7 +3691,7 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3663,22 +3707,22 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3687,7 +3731,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -3695,7 +3739,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3703,7 +3747,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -3711,7 +3755,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -3719,7 +3763,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -3727,20 +3771,20 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="B8" s="9"/>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="9"/>
       <c r="I8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3748,34 +3792,34 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="B10" s="9"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="B11" s="8"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="8"/>
       <c r="I11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="B12" s="6"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3783,7 +3827,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -3791,7 +3835,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -3799,20 +3843,20 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="B16" s="9"/>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="9"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3820,34 +3864,34 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9">
       <c r="B18" s="9"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9">
       <c r="B19" s="9"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="38"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="9"/>
       <c r="I19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9">
       <c r="B20" s="8"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="41"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -3855,7 +3899,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9">
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -3863,7 +3907,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -3871,36 +3915,36 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="18" t="s">
+    <row r="27" spans="2:9">
+      <c r="B27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
       <c r="I28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="24"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9">
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -3908,7 +3952,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -3916,7 +3960,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3924,17 +3968,17 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -3964,22 +4008,22 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3988,7 +4032,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -3996,60 +4040,60 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="43" t="s">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B5" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
       <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="46"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="47"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="46"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="47"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="46"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="47"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="46"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="47"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
+      <c r="B6" s="47"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="47"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="47"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="48"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="47"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="48"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="49"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4057,7 +4101,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
@@ -4070,7 +4114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -4078,60 +4122,60 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="43" t="s">
+    <row r="14" spans="1:13">
+      <c r="B14" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
       <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="46"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="47"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="46"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="46"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="47"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="46"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="47"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
+      <c r="B15" s="47"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="48"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="47"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="48"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="47"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="48"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="47"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="48"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="49"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -4139,7 +4183,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4147,7 +4191,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9">
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
@@ -4160,7 +4204,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -4168,60 +4212,60 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="43" t="s">
+    <row r="24" spans="2:9">
+      <c r="B24" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
       <c r="I24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="46"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="47"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="46"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="46"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="47"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="46"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="47"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="50"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9">
+      <c r="B25" s="47"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="48"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="47"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="48"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="47"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="48"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="47"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="48"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="49"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -4229,7 +4273,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -4237,7 +4281,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -4245,17 +4289,17 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4283,22 +4327,22 @@
       <selection activeCell="A14" sqref="A14:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4307,7 +4351,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -4318,7 +4362,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4326,352 +4370,352 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A5" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="53"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="54"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
       <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="51" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="54"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="56"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="54"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="55"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57"/>
       <c r="I9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="51" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="56"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="51" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="54"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="57"/>
       <c r="I15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="51" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="56"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="55"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="51" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="56"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="54"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="55"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="57"/>
       <c r="I21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="51" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="56"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="55"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="57"/>
       <c r="I24" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="51" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="54"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="56"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="57"/>
       <c r="I27" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="57"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="51" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="58"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="60"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="53"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="56"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="57"/>
       <c r="I30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="57"/>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="51"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="53"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="56"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="30" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="58"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="60"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="55"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="57"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4706,22 +4750,22 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4730,7 +4774,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -4740,7 +4784,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -4750,7 +4794,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4760,24 +4804,24 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4785,37 +4829,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4825,22 +4869,22 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="10"/>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="10"/>
       <c r="I12" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4850,7 +4894,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4860,72 +4904,72 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="10"/>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="69"/>
       <c r="H15" s="10"/>
       <c r="I15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="10"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="72"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="10"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="72"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="10"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="10"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="71"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="72"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="10"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="74"/>
+      <c r="B20" s="73"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4935,7 +4979,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4945,7 +4989,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4955,7 +4999,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -4965,42 +5009,42 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="10"/>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="10"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="10"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5010,7 +5054,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5020,7 +5064,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5030,7 +5074,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -5040,7 +5084,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -5050,7 +5094,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -5060,17 +5104,17 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -5099,22 +5143,22 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5123,7 +5167,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5133,7 +5177,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -5143,7 +5187,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5153,34 +5197,34 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="61"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5188,27 +5232,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5218,22 +5262,22 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="10"/>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="10"/>
       <c r="I12" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5243,7 +5287,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -5253,72 +5297,72 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="10"/>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="77"/>
       <c r="H15" s="10"/>
       <c r="I15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="10"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="79"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="80"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="10"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="79"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="80"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="10"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="79"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="80"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="10"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="79"/>
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="10"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -5328,7 +5372,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5338,7 +5382,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5348,7 +5392,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -5358,42 +5402,42 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="10"/>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="10"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="10"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5403,7 +5447,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5413,7 +5457,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5423,7 +5467,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -5433,7 +5477,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -5443,7 +5487,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -5453,17 +5497,17 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="32"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -5492,7 +5536,7 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5508,7 +5552,7 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5525,7 +5569,7 @@
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -31,8 +31,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>&lt;a&gt;input here&lt;/a&gt;</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>ページタイトル</t>
     <phoneticPr fontId="1"/>
@@ -286,20 +310,12 @@
     <t>Copyright © 2008-2016 KPF</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>asdasd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>asd</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,8 +371,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,8 +411,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -512,17 +566,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -574,7 +617,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -599,27 +642,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -814,6 +836,39 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2466,710 +2521,671 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AB43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AM10" sqref="AM10"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.375" customWidth="1"/>
-    <col min="24" max="24" width="2.625" style="11"/>
+    <col min="23" max="23" width="2.625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="13">
-        <v>2</v>
-      </c>
-      <c r="D2" s="13">
-        <v>3</v>
-      </c>
-      <c r="E2" s="13">
-        <v>4</v>
-      </c>
-      <c r="F2" s="13">
-        <v>5</v>
-      </c>
-      <c r="G2" s="13">
-        <v>6</v>
-      </c>
-      <c r="H2" s="13">
-        <v>7</v>
-      </c>
-      <c r="I2" s="13">
-        <v>8</v>
-      </c>
-      <c r="J2" s="13">
-        <v>9</v>
-      </c>
-      <c r="K2" s="13">
-        <v>10</v>
-      </c>
-      <c r="L2" s="13">
-        <v>11</v>
-      </c>
-      <c r="M2" s="13">
-        <v>12</v>
-      </c>
-      <c r="N2" s="13">
-        <v>13</v>
-      </c>
-      <c r="O2" s="13">
-        <v>14</v>
-      </c>
-      <c r="P2" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>16</v>
-      </c>
-      <c r="R2" s="13">
-        <v>17</v>
-      </c>
-      <c r="S2" s="13">
-        <v>18</v>
-      </c>
-      <c r="T2" s="13">
-        <v>19</v>
-      </c>
-      <c r="U2" s="13">
-        <v>20</v>
-      </c>
-      <c r="V2" s="13">
-        <v>21</v>
-      </c>
-      <c r="W2" s="13">
-        <v>22</v>
-      </c>
-      <c r="X2" s="13">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B3" s="14"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="15"/>
-    </row>
-    <row r="4" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B4" s="14"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="15"/>
-    </row>
-    <row r="5" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B5" s="14"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="15"/>
-    </row>
-    <row r="6" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B6" s="14"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="15"/>
-    </row>
-    <row r="7" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="15"/>
-    </row>
-    <row r="8" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="15"/>
-    </row>
-    <row r="9" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="15"/>
-    </row>
-    <row r="10" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="15"/>
-    </row>
-    <row r="11" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="15"/>
-    </row>
-    <row r="12" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B12" s="14"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="15"/>
-    </row>
-    <row r="13" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B13" s="14"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="15"/>
-    </row>
-    <row r="14" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B14" s="14"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="15"/>
-    </row>
-    <row r="15" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B15" s="14"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="15"/>
-    </row>
-    <row r="16" spans="2:24" ht="20.25" customHeight="1">
-      <c r="B16" s="14"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="15"/>
-    </row>
-    <row r="17" spans="2:28" ht="20.25" customHeight="1">
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="15"/>
-    </row>
-    <row r="18" spans="2:28" ht="20.25" customHeight="1">
-      <c r="B18" s="14"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="15"/>
-    </row>
-    <row r="19" spans="2:28" ht="20.25" customHeight="1">
-      <c r="B19" s="14"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="15"/>
-    </row>
-    <row r="20" spans="2:28" ht="20.25" customHeight="1">
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="15"/>
-    </row>
-    <row r="21" spans="2:28" ht="20.25" customHeight="1">
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="15"/>
-    </row>
-    <row r="22" spans="2:28" ht="20.25" customHeight="1">
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="15"/>
-    </row>
-    <row r="23" spans="2:28" ht="20.25" customHeight="1">
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="15"/>
-    </row>
-    <row r="24" spans="2:28" ht="20.25" customHeight="1">
-      <c r="B24" s="14"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="15"/>
-    </row>
-    <row r="25" spans="2:28" ht="20.25" customHeight="1">
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="15"/>
-    </row>
-    <row r="26" spans="2:28" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B26" s="16" t="s">
+    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="85"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+    </row>
+    <row r="2" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+    </row>
+    <row r="3" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+    </row>
+    <row r="4" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+    </row>
+    <row r="5" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+    </row>
+    <row r="6" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+    </row>
+    <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="77"/>
+      <c r="T7" s="77"/>
+      <c r="U7" s="77"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="77"/>
+    </row>
+    <row r="8" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+    </row>
+    <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+    </row>
+    <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="77"/>
+      <c r="W10" s="77"/>
+    </row>
+    <row r="11" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+    </row>
+    <row r="12" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+    </row>
+    <row r="13" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="77"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="77"/>
+      <c r="W13" s="77"/>
+    </row>
+    <row r="14" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="77"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
+      <c r="W14" s="77"/>
+    </row>
+    <row r="15" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="77"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
+      <c r="W15" s="77"/>
+    </row>
+    <row r="16" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
+      <c r="W16" s="77"/>
+    </row>
+    <row r="17" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+    </row>
+    <row r="18" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
+      <c r="W18" s="77"/>
+    </row>
+    <row r="19" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="77"/>
+      <c r="Q19" s="77"/>
+      <c r="R19" s="77"/>
+      <c r="S19" s="77"/>
+      <c r="T19" s="77"/>
+      <c r="U19" s="77"/>
+      <c r="V19" s="77"/>
+      <c r="W19" s="77"/>
+    </row>
+    <row r="20" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+    </row>
+    <row r="21" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="79"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="78"/>
+    </row>
+    <row r="22" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="79"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="78"/>
+    </row>
+    <row r="23" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="79"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="78"/>
+    </row>
+    <row r="24" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="79"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="78"/>
+    </row>
+    <row r="25" spans="1:27" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="18"/>
-    </row>
-    <row r="27" spans="2:28">
+      <c r="B25" s="81"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+      <c r="L25" s="81"/>
+      <c r="M25" s="81"/>
+      <c r="N25" s="81"/>
+      <c r="O25" s="81"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="81"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="82"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -3191,9 +3207,13 @@
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
       <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-    </row>
-    <row r="28" spans="2:28">
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -3215,13 +3235,13 @@
       <c r="T28" s="11"/>
       <c r="U28" s="11"/>
       <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
+      <c r="X28" s="11"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
       <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-    </row>
-    <row r="29" spans="2:28">
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -3243,13 +3263,13 @@
       <c r="T29" s="11"/>
       <c r="U29" s="11"/>
       <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
+      <c r="X29" s="11"/>
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
       <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-    </row>
-    <row r="30" spans="2:28">
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -3271,13 +3291,13 @@
       <c r="T30" s="11"/>
       <c r="U30" s="11"/>
       <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
+      <c r="X30" s="11"/>
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
       <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-    </row>
-    <row r="31" spans="2:28">
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -3299,13 +3319,13 @@
       <c r="T31" s="11"/>
       <c r="U31" s="11"/>
       <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
       <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-    </row>
-    <row r="32" spans="2:28">
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -3327,13 +3347,13 @@
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
       <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
       <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-    </row>
-    <row r="33" spans="2:28">
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -3355,13 +3375,13 @@
       <c r="T33" s="11"/>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-    </row>
-    <row r="34" spans="2:28">
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -3383,13 +3403,13 @@
       <c r="T34" s="11"/>
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
       <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-    </row>
-    <row r="35" spans="2:28">
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -3411,13 +3431,13 @@
       <c r="T35" s="11"/>
       <c r="U35" s="11"/>
       <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
       <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-    </row>
-    <row r="36" spans="2:28">
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -3439,13 +3459,13 @@
       <c r="T36" s="11"/>
       <c r="U36" s="11"/>
       <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
+      <c r="X36" s="11"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
       <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-    </row>
-    <row r="37" spans="2:28">
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -3467,13 +3487,13 @@
       <c r="T37" s="11"/>
       <c r="U37" s="11"/>
       <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
+      <c r="X37" s="11"/>
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
       <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-    </row>
-    <row r="38" spans="2:28">
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -3495,13 +3515,13 @@
       <c r="T38" s="11"/>
       <c r="U38" s="11"/>
       <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
+      <c r="X38" s="11"/>
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
       <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-    </row>
-    <row r="39" spans="2:28">
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
@@ -3523,13 +3543,13 @@
       <c r="T39" s="11"/>
       <c r="U39" s="11"/>
       <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
+      <c r="X39" s="11"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
       <c r="AA39" s="11"/>
-      <c r="AB39" s="11"/>
-    </row>
-    <row r="40" spans="2:28">
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -3551,13 +3571,13 @@
       <c r="T40" s="11"/>
       <c r="U40" s="11"/>
       <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
+      <c r="X40" s="11"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
       <c r="AA40" s="11"/>
-      <c r="AB40" s="11"/>
-    </row>
-    <row r="41" spans="2:28">
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
@@ -3579,13 +3599,13 @@
       <c r="T41" s="11"/>
       <c r="U41" s="11"/>
       <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
+      <c r="X41" s="11"/>
       <c r="Y41" s="11"/>
       <c r="Z41" s="11"/>
       <c r="AA41" s="11"/>
-      <c r="AB41" s="11"/>
-    </row>
-    <row r="42" spans="2:28">
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
@@ -3607,47 +3627,19 @@
       <c r="T42" s="11"/>
       <c r="U42" s="11"/>
       <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="11"/>
       <c r="AA42" s="11"/>
-      <c r="AB42" s="11"/>
-    </row>
-    <row r="43" spans="2:28">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B26:X26"/>
+    <mergeCell ref="A25:W25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3659,7 +3651,7 @@
       <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3675,7 +3667,7 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3691,7 +3683,7 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3707,22 +3699,22 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3731,7 +3723,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -3739,7 +3731,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3747,7 +3739,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -3755,7 +3747,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -3763,7 +3755,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -3771,20 +3763,20 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="9"/>
       <c r="I8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -3792,34 +3784,34 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="32"/>
       <c r="G11" s="8"/>
       <c r="I11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="42"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3827,7 +3819,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -3835,7 +3827,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -3843,20 +3835,20 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="9"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -3864,34 +3856,34 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="9"/>
       <c r="I19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -3899,7 +3891,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -3907,7 +3899,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -3915,36 +3907,36 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="19" t="s">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="22"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
       <c r="I28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -3952,7 +3944,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -3960,7 +3952,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -3968,17 +3960,17 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="31" t="s">
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4008,22 +4000,22 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4032,7 +4024,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -4040,60 +4032,60 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="B5" s="44" t="s">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="39"/>
       <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="47"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="48"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="B7" s="47"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="48"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="47"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="48"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="47"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="49"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51"/>
-    </row>
-    <row r="11" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B6" s="40"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B7" s="40"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="41"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B8" s="40"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B9" s="40"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="41"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B10" s="42"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4101,7 +4093,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
@@ -4114,7 +4106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -4122,60 +4114,60 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="44" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B14" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="46"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
       <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="47"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="48"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="B16" s="47"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="48"/>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="47"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="48"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="47"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="48"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="49"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-    </row>
-    <row r="20" spans="2:9">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B15" s="40"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="41"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B16" s="40"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="40"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="40"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -4183,7 +4175,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4191,7 +4183,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
@@ -4204,7 +4196,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -4212,60 +4204,60 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="44" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="46"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
       <c r="I24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="47"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="48"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="47"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="48"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="47"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="48"/>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="47"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="48"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="49"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-    </row>
-    <row r="30" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="40"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="41"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="40"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="41"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="40"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="41"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="40"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="41"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="42"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -4273,7 +4265,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -4281,7 +4273,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -4289,17 +4281,17 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="31" t="s">
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4327,22 +4319,22 @@
       <selection activeCell="A14" sqref="A14:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4351,7 +4343,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -4362,7 +4354,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4370,352 +4362,352 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="54"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="50"/>
       <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="52" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="54"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="57"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
       <c r="I9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="52" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="54"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="57"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="47"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="60"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="52" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="47"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="60"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="52" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="55"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="57"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="48"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="50"/>
       <c r="I18" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="60"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="52" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="51"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="55"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="47"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="48"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="52" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="53"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="54"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="55"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="57"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="47"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="48"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
       <c r="I24" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="52" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="54"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="57"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="47"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="48"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
       <c r="I27" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="58"/>
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="60"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="52" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="53"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="54"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="55"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="57"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="47"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="48"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
       <c r="I30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="58"/>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="60"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="54"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="55"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="56"/>
-      <c r="H33" s="57"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="31" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="53"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="47"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="48"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="50"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4750,22 +4742,22 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4774,7 +4766,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -4784,7 +4776,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -4794,7 +4786,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -4804,24 +4796,24 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4829,37 +4821,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -4869,22 +4861,22 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="10"/>
       <c r="I12" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -4894,7 +4886,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -4904,72 +4896,72 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="69"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="62"/>
       <c r="H15" s="10"/>
       <c r="I15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="72"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="73"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="75"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4979,7 +4971,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -4989,7 +4981,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -4999,7 +4991,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -5009,42 +5001,42 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5054,7 +5046,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5064,7 +5056,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5074,7 +5066,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -5084,7 +5076,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -5094,7 +5086,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -5104,17 +5096,17 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="31" t="s">
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -5143,22 +5135,22 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5167,7 +5159,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5177,7 +5169,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -5187,7 +5179,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5197,34 +5189,34 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="62"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="64"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="64"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5232,27 +5224,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="64"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5262,22 +5254,22 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
       <c r="H12" s="10"/>
       <c r="I12" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5287,7 +5279,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -5297,72 +5289,72 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="77"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="10"/>
       <c r="I15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="80"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="80"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="80"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="83"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="76"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -5372,7 +5364,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5382,7 +5374,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5392,7 +5384,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -5402,42 +5394,42 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5447,7 +5439,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5457,7 +5449,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5467,7 +5459,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -5477,7 +5469,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -5487,7 +5479,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -5497,17 +5489,17 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25">
-      <c r="A36" s="31" t="s">
+    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A36" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -5536,7 +5528,7 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5552,7 +5544,7 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5569,7 +5561,7 @@
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -23,6 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">article!$A$1:$H$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">error!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">index!$A$1:$W$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">login!$A$1:$H$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">success!$A$1:$H$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">top!$A$1:$H$36</definedName>
@@ -31,32 +32,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="F7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>&lt;a&gt;input here&lt;/a&gt;</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>ページタイトル</t>
     <phoneticPr fontId="1"/>
@@ -310,12 +287,20 @@
     <t>Copyright © 2008-2016 KPF</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Copyright © 2008-2016 KPF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,15 +363,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,36 +385,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -562,7 +516,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -572,7 +557,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -580,12 +565,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -594,18 +579,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -617,7 +602,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -641,7 +626,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -837,38 +860,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2521,1125 +2520,1124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="23" max="23" width="2.625" style="11"/>
+    <col min="1" max="22" width="2.625" style="13"/>
+    <col min="23" max="23" width="2.625" style="17"/>
+    <col min="24" max="16384" width="2.625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="85"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
-      <c r="W1" s="77"/>
+      <c r="A1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="20"/>
     </row>
     <row r="2" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="77"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="77"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="22"/>
     </row>
     <row r="3" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="22"/>
     </row>
     <row r="4" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="22"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="22"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="77"/>
-      <c r="U7" s="77"/>
-      <c r="V7" s="77"/>
-      <c r="W7" s="77"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="22"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="77"/>
-      <c r="W8" s="77"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="22"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="77"/>
-      <c r="W9" s="77"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="11"/>
+      <c r="W9" s="22"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="22"/>
     </row>
     <row r="11" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="83"/>
-      <c r="Q11" s="83"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="22"/>
     </row>
     <row r="12" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+      <c r="W12" s="22"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="22"/>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="22"/>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="22"/>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="22"/>
     </row>
     <row r="17" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="77"/>
-      <c r="T17" s="77"/>
-      <c r="U17" s="77"/>
-      <c r="V17" s="77"/>
-      <c r="W17" s="77"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="22"/>
     </row>
     <row r="18" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
-      <c r="V18" s="77"/>
-      <c r="W18" s="77"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="22"/>
     </row>
     <row r="19" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
-      <c r="R19" s="77"/>
-      <c r="S19" s="77"/>
-      <c r="T19" s="77"/>
-      <c r="U19" s="77"/>
-      <c r="V19" s="77"/>
-      <c r="W19" s="77"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="22"/>
     </row>
     <row r="20" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
-      <c r="R20" s="77"/>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
-      <c r="V20" s="77"/>
-      <c r="W20" s="77"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="22"/>
     </row>
     <row r="21" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="79"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
-      <c r="W21" s="78"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="22"/>
     </row>
     <row r="22" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="79"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
-      <c r="W22" s="78"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="22"/>
     </row>
     <row r="23" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="79"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="77"/>
-      <c r="S23" s="77"/>
-      <c r="T23" s="77"/>
-      <c r="U23" s="77"/>
-      <c r="V23" s="77"/>
-      <c r="W23" s="78"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="22"/>
     </row>
     <row r="24" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="79"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="77"/>
-      <c r="U24" s="77"/>
-      <c r="V24" s="77"/>
-      <c r="W24" s="78"/>
-    </row>
-    <row r="25" spans="1:27" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-      <c r="J25" s="81"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="81"/>
-      <c r="O25" s="81"/>
-      <c r="P25" s="81"/>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81"/>
-      <c r="S25" s="81"/>
-      <c r="T25" s="81"/>
-      <c r="U25" s="81"/>
-      <c r="V25" s="81"/>
-      <c r="W25" s="82"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="22"/>
+    </row>
+    <row r="25" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="89"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="90"/>
+      <c r="W25" s="91"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
-      <c r="R38" s="11"/>
-      <c r="S38" s="11"/>
-      <c r="T38" s="11"/>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="X38" s="11"/>
-      <c r="Y38" s="11"/>
-      <c r="Z38" s="11"/>
-      <c r="AA38" s="11"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+      <c r="Z39" s="17"/>
+      <c r="AA39" s="17"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="X40" s="11"/>
-      <c r="Y40" s="11"/>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="11"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="X41" s="11"/>
-      <c r="Y41" s="11"/>
-      <c r="Z41" s="11"/>
-      <c r="AA41" s="11"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="11"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+      <c r="Z42" s="17"/>
+      <c r="AA42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A25:W25"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3696,7 +3694,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3705,16 +3703,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3765,12 +3763,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="9"/>
       <c r="I8" s="3" t="s">
         <v>30</v>
@@ -3786,18 +3784,18 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="41"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="8"/>
       <c r="I11" s="3" t="s">
         <v>28</v>
@@ -3805,10 +3803,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -3837,12 +3835,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
       <c r="G16" s="9"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
@@ -3858,18 +3856,18 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="9"/>
       <c r="I19" s="3" t="s">
         <v>29</v>
@@ -3877,10 +3875,10 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -3908,33 +3906,33 @@
       <c r="G23" s="8"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="15"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
       <c r="I28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="8"/>
@@ -3961,16 +3959,16 @@
       <c r="G32" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4006,16 +4004,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4033,57 +4031,57 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
       <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="40"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="41"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="40"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="41"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="40"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="41"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="40"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="41"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
@@ -4115,57 +4113,57 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="39"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
       <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="40"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="41"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="40"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="41"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="40"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="41"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="40"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="41"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
@@ -4205,57 +4203,57 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="37" t="s">
+      <c r="B24" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
       <c r="I24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="40"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="41"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="40"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="41"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="40"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="41"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="40"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="41"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="44"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
@@ -4282,16 +4280,16 @@
       <c r="G32" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4325,16 +4323,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4363,351 +4361,351 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="47"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
       <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="65"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="47"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
       <c r="I12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="51"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="48"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="62"/>
       <c r="I15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="51"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="65"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="59"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="48"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="50"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="62"/>
       <c r="I18" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="51"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="65"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="48"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="50"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="62"/>
       <c r="I21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="51"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="65"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="62"/>
       <c r="I24" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="65"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="48"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="50"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="62"/>
       <c r="I27" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="65"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="50"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="65"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="47"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="48"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="50"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4748,16 +4746,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4800,10 +4798,10 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4812,8 +4810,8 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4825,8 +4823,8 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4835,8 +4833,8 @@
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -4845,8 +4843,8 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -4863,14 +4861,14 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="10"/>
       <c r="I12" s="3" t="s">
         <v>53</v>
@@ -4898,14 +4896,14 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="62"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="74"/>
       <c r="H15" s="10"/>
       <c r="I15" s="3" t="s">
         <v>54</v>
@@ -4913,52 +4911,52 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="77"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="65"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="68"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="80"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -5003,24 +5001,24 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>50</v>
@@ -5028,12 +5026,12 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -5097,16 +5095,16 @@
       <c r="H33" s="10"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -5141,16 +5139,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5193,10 +5191,10 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="55"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -5205,8 +5203,8 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="69"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -5215,8 +5213,8 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5228,8 +5226,8 @@
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="57"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -5238,8 +5236,8 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="59"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -5256,14 +5254,14 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
       <c r="H12" s="10"/>
       <c r="I12" s="3" t="s">
         <v>48</v>
@@ -5291,14 +5289,14 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
       <c r="H15" s="10"/>
       <c r="I15" s="3" t="s">
         <v>54</v>
@@ -5306,52 +5304,52 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="85"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="85"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="85"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="88"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -5396,24 +5394,24 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="14"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>50</v>
@@ -5421,12 +5419,12 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -5490,16 +5488,16 @@
       <c r="H33" s="10"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="38"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>

--- a/template.xlsx
+++ b/template.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t>ページタイトル</t>
     <phoneticPr fontId="1"/>
@@ -295,12 +295,158 @@
     <t>↑</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>業務完了報告書</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウコク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>１．契約番号</t>
+    <rPh sb="2" eb="4">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>２．業務名</t>
+    <rPh sb="2" eb="5">
+      <t>ギョウムメイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t xml:space="preserve">プリカ決済PF開発支援（2016/12） </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>３．業務内容</t>
+    <rPh sb="2" eb="4">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>プリカ決済PFの開発支援作業</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>４．業務委託期間</t>
+    <rPh sb="2" eb="4">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>５.実施作業内容</t>
+    <rPh sb="2" eb="4">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>６.特記事項</t>
+    <rPh sb="2" eb="4">
+      <t>トッキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>特になし</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>WBSに基づいた進捗状況の報告。</t>
+  </si>
+  <si>
+    <t>WBS登録作業、残課題対応の実施。</t>
+  </si>
+  <si>
+    <t>所　属</t>
+    <rPh sb="0" eb="1">
+      <t>ショ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゾク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>役　職</t>
+    <rPh sb="0" eb="1">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>担当課長</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カチョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>氏　名</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第二法人事業部　小売・流通担当</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>報告結果から指摘を受けた対応。</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>山本　佳昭</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,11 +503,31 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="5">
@@ -390,7 +556,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -595,6 +761,67 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashDot">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -602,7 +829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -632,21 +859,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -665,6 +877,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -860,14 +1081,95 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2521,71 +2823,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="22" width="2.625" style="13"/>
-    <col min="23" max="23" width="2.625" style="17"/>
-    <col min="24" max="16384" width="2.625" style="13"/>
+    <col min="1" max="10" width="2.625" style="87"/>
+    <col min="11" max="11" width="7.375" style="87" bestFit="1" customWidth="1"/>
+    <col min="12" max="22" width="2.625" style="87"/>
+    <col min="23" max="23" width="2.625" style="88"/>
+    <col min="24" max="16384" width="2.625" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="15"/>
     </row>
     <row r="2" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="22"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="88"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="89"/>
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="90"/>
     </row>
     <row r="3" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2607,385 +2913,409 @@
       <c r="T3" s="11"/>
       <c r="U3" s="11"/>
       <c r="V3" s="11"/>
-      <c r="W3" s="22"/>
+      <c r="W3" s="17"/>
     </row>
     <row r="4" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="22"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
+      <c r="U4" s="95"/>
+      <c r="V4" s="96"/>
+      <c r="W4" s="97"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="22"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="95"/>
+      <c r="T5" s="95"/>
+      <c r="U5" s="95"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="22"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="94" t="s">
+        <v>63</v>
+      </c>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="95"/>
+      <c r="O6" s="95"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="95"/>
+      <c r="R6" s="95"/>
+      <c r="S6" s="95"/>
+      <c r="T6" s="95"/>
+      <c r="U6" s="95"/>
+      <c r="V6" s="96"/>
+      <c r="W6" s="97"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="22"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="95"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="95"/>
+      <c r="T7" s="95"/>
+      <c r="U7" s="95"/>
+      <c r="V7" s="96"/>
+      <c r="W7" s="97"/>
     </row>
     <row r="8" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="22"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+      <c r="T8" s="99"/>
+      <c r="U8" s="99"/>
+      <c r="V8" s="100"/>
+      <c r="W8" s="102"/>
     </row>
     <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="22"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="103" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="104"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="104"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
     </row>
     <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="22"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="103" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="104"/>
+      <c r="P10" s="104"/>
+      <c r="Q10" s="104"/>
+      <c r="R10" s="104"/>
+      <c r="S10" s="104"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="104"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
     </row>
     <row r="11" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="22"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
+      <c r="S11" s="104"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="104"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
     </row>
     <row r="12" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="22"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="103"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="104"/>
+      <c r="T12" s="104"/>
+      <c r="U12" s="104"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
     </row>
     <row r="13" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="22"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="100"/>
+      <c r="W13" s="102"/>
     </row>
     <row r="14" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="22"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
     </row>
     <row r="15" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="22"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="104"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="110"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="110"/>
+      <c r="V15" s="108"/>
+      <c r="W15" s="108"/>
     </row>
     <row r="16" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="22"/>
-    </row>
-    <row r="17" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="22"/>
-    </row>
-    <row r="18" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="23"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="22"/>
-    </row>
-    <row r="19" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="23"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="104"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+      <c r="S16" s="110"/>
+      <c r="T16" s="110"/>
+      <c r="U16" s="110"/>
+      <c r="V16" s="108"/>
+      <c r="W16" s="108"/>
+    </row>
+    <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="104"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="110"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="108"/>
+    </row>
+    <row r="18" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="112"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="112"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="112"/>
+      <c r="U18" s="112"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="108"/>
+    </row>
+    <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="18"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -3007,110 +3337,122 @@
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
-      <c r="W19" s="22"/>
-    </row>
-    <row r="20" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="23"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="22"/>
-    </row>
-    <row r="21" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="23"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="22"/>
-    </row>
-    <row r="22" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="23"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="22"/>
-    </row>
-    <row r="23" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="23"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="22"/>
-    </row>
-    <row r="24" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="23"/>
+      <c r="W19" s="17"/>
+    </row>
+    <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="116"/>
+      <c r="P20" s="116"/>
+      <c r="Q20" s="116"/>
+      <c r="R20" s="116"/>
+      <c r="S20" s="116"/>
+      <c r="T20" s="116"/>
+      <c r="U20" s="116"/>
+      <c r="V20" s="116"/>
+      <c r="W20" s="114"/>
+    </row>
+    <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="18"/>
+      <c r="B21" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="91" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="R21" s="92"/>
+      <c r="S21" s="92"/>
+      <c r="T21" s="92"/>
+      <c r="U21" s="92"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="114"/>
+    </row>
+    <row r="22" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="18"/>
+      <c r="B22" s="105" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="105" t="s">
+        <v>72</v>
+      </c>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="106"/>
+      <c r="M22" s="106"/>
+      <c r="N22" s="106"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="106"/>
+      <c r="R22" s="106"/>
+      <c r="S22" s="106"/>
+      <c r="T22" s="106"/>
+      <c r="U22" s="106"/>
+      <c r="V22" s="107"/>
+      <c r="W22" s="114"/>
+    </row>
+    <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18"/>
+      <c r="B23" s="105" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="106"/>
+      <c r="M23" s="106"/>
+      <c r="N23" s="106"/>
+      <c r="O23" s="106"/>
+      <c r="P23" s="106"/>
+      <c r="Q23" s="106"/>
+      <c r="R23" s="106"/>
+      <c r="S23" s="106"/>
+      <c r="T23" s="106"/>
+      <c r="U23" s="106"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -3132,510 +3474,446 @@
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
-      <c r="W24" s="22"/>
-    </row>
-    <row r="25" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="89"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90" t="s">
+      <c r="W24" s="17"/>
+    </row>
+    <row r="25" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="90"/>
-      <c r="W25" s="91"/>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17" t="s">
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="21"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A33" s="17"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17"/>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="X34" s="17"/>
-      <c r="Y34" s="17"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="17"/>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
-      <c r="R35" s="17"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="X35" s="17"/>
-      <c r="Y35" s="17"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="17"/>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="X36" s="17"/>
-      <c r="Y36" s="17"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="X37" s="17"/>
-      <c r="Y37" s="17"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="17"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="X38" s="17"/>
-      <c r="Y38" s="17"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="17"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="X39" s="17"/>
-      <c r="Y39" s="17"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-      <c r="Q40" s="17"/>
-      <c r="R40" s="17"/>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="X40" s="17"/>
-      <c r="Y40" s="17"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="17"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
-      <c r="R41" s="17"/>
-      <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
-      <c r="U41" s="17"/>
-      <c r="V41" s="17"/>
-      <c r="X41" s="17"/>
-      <c r="Y41" s="17"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="17"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
-      <c r="R42" s="17"/>
-      <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
-      <c r="U42" s="17"/>
-      <c r="V42" s="17"/>
-      <c r="X42" s="17"/>
-      <c r="Y42" s="17"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="17"/>
+      <c r="M26" s="88"/>
+      <c r="N26" s="88"/>
+      <c r="O26" s="88"/>
+      <c r="P26" s="88"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="88"/>
+      <c r="S26" s="88"/>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="M27" s="88"/>
+      <c r="N27" s="88"/>
+      <c r="O27" s="88"/>
+      <c r="P27" s="88"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="88"/>
+      <c r="S27" s="88"/>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="88"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="88"/>
+      <c r="S28" s="88"/>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="88"/>
+      <c r="N29" s="88"/>
+      <c r="O29" s="88"/>
+      <c r="P29" s="88"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="88"/>
+      <c r="S29" s="88"/>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
+      <c r="J30" s="88"/>
+      <c r="K30" s="88"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="88"/>
+      <c r="N30" s="88"/>
+      <c r="O30" s="88"/>
+      <c r="P30" s="88"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="88"/>
+      <c r="S30" s="88"/>
+      <c r="T30" s="88"/>
+      <c r="U30" s="88"/>
+      <c r="V30" s="88"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="88"/>
+      <c r="N31" s="88"/>
+      <c r="O31" s="88"/>
+      <c r="P31" s="88"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="88"/>
+      <c r="S31" s="88"/>
+      <c r="T31" s="88"/>
+      <c r="U31" s="88"/>
+      <c r="V31" s="88"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
+      <c r="J32" s="88"/>
+      <c r="K32" s="88"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="88"/>
+      <c r="N32" s="88"/>
+      <c r="O32" s="88"/>
+      <c r="P32" s="88"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="88"/>
+      <c r="S32" s="88"/>
+      <c r="T32" s="88"/>
+      <c r="U32" s="88"/>
+      <c r="V32" s="88"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
+      <c r="J33" s="88"/>
+      <c r="K33" s="88"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="88"/>
+      <c r="N33" s="88"/>
+      <c r="O33" s="88"/>
+      <c r="P33" s="88"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="88"/>
+      <c r="S33" s="88"/>
+      <c r="T33" s="88"/>
+      <c r="U33" s="88"/>
+      <c r="V33" s="88"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="88"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
+      <c r="J34" s="88"/>
+      <c r="K34" s="88"/>
+      <c r="L34" s="88"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88"/>
+      <c r="S34" s="88"/>
+      <c r="T34" s="88"/>
+      <c r="U34" s="88"/>
+      <c r="V34" s="88"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A35" s="88"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="88"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="88"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
+      <c r="J35" s="88"/>
+      <c r="K35" s="88"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
+      <c r="S35" s="88"/>
+      <c r="T35" s="88"/>
+      <c r="U35" s="88"/>
+      <c r="V35" s="88"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A36" s="88"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="88"/>
+      <c r="H36" s="88"/>
+      <c r="I36" s="88"/>
+      <c r="J36" s="88"/>
+      <c r="K36" s="88"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="88"/>
+      <c r="N36" s="88"/>
+      <c r="O36" s="88"/>
+      <c r="P36" s="88"/>
+      <c r="Q36" s="88"/>
+      <c r="R36" s="88"/>
+      <c r="S36" s="88"/>
+      <c r="T36" s="88"/>
+      <c r="U36" s="88"/>
+      <c r="V36" s="88"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A37" s="88"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="88"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="88"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="88"/>
+      <c r="J37" s="88"/>
+      <c r="K37" s="88"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="88"/>
+      <c r="N37" s="88"/>
+      <c r="O37" s="88"/>
+      <c r="P37" s="88"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="88"/>
+      <c r="S37" s="88"/>
+      <c r="T37" s="88"/>
+      <c r="U37" s="88"/>
+      <c r="V37" s="88"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A38" s="88"/>
+      <c r="B38" s="88"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="88"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="88"/>
+      <c r="J38" s="88"/>
+      <c r="K38" s="88"/>
+      <c r="L38" s="88"/>
+      <c r="M38" s="88"/>
+      <c r="N38" s="88"/>
+      <c r="O38" s="88"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
+      <c r="S38" s="88"/>
+      <c r="T38" s="88"/>
+      <c r="U38" s="88"/>
+      <c r="V38" s="88"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A39" s="88"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="88"/>
+      <c r="D39" s="88"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+      <c r="G39" s="88"/>
+      <c r="H39" s="88"/>
+      <c r="I39" s="88"/>
+      <c r="J39" s="88"/>
+      <c r="K39" s="88"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="88"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A40" s="88"/>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="88"/>
+      <c r="J40" s="88"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
+      <c r="S40" s="88"/>
+      <c r="T40" s="88"/>
+      <c r="U40" s="88"/>
+      <c r="V40" s="88"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A41" s="88"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+      <c r="I41" s="88"/>
+      <c r="J41" s="88"/>
+      <c r="K41" s="88"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="88"/>
+      <c r="N41" s="88"/>
+      <c r="O41" s="88"/>
+      <c r="P41" s="88"/>
+      <c r="Q41" s="88"/>
+      <c r="R41" s="88"/>
+      <c r="S41" s="88"/>
+      <c r="T41" s="88"/>
+      <c r="U41" s="88"/>
+      <c r="V41" s="88"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A42" s="88"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="88"/>
+      <c r="H42" s="88"/>
+      <c r="I42" s="88"/>
+      <c r="J42" s="88"/>
+      <c r="K42" s="88"/>
+      <c r="L42" s="88"/>
+      <c r="M42" s="88"/>
+      <c r="N42" s="88"/>
+      <c r="O42" s="88"/>
+      <c r="P42" s="88"/>
+      <c r="Q42" s="88"/>
+      <c r="R42" s="88"/>
+      <c r="S42" s="88"/>
+      <c r="T42" s="88"/>
+      <c r="U42" s="88"/>
+      <c r="V42" s="88"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -3703,16 +3981,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3763,12 +4041,12 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="9"/>
       <c r="I8" s="3" t="s">
         <v>30</v>
@@ -3784,18 +4062,18 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="41"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="8"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="8"/>
       <c r="I11" s="3" t="s">
         <v>28</v>
@@ -3803,10 +4081,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -3835,12 +4113,12 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="9"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
@@ -3856,18 +4134,18 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
       <c r="G19" s="9"/>
       <c r="I19" s="3" t="s">
         <v>29</v>
@@ -3875,10 +4153,10 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="8"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.15">
@@ -3906,33 +4184,33 @@
       <c r="G23" s="8"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="29"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
       <c r="I28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="8"/>
@@ -3959,16 +4237,16 @@
       <c r="G32" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4004,16 +4282,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4031,57 +4309,57 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
       <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="52"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="53"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="52"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="53"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="52"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="53"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="52"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="53"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="54"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
@@ -4113,57 +4391,57 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
       <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="52"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="53"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="52"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="53"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="51"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="52"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="53"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="52"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="53"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="51"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="54"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
@@ -4203,57 +4481,57 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="49"/>
       <c r="I24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="52"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="53"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="51"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="52"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="53"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="51"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="52"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="53"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="51"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="52"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="53"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="56"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B30" s="4"/>
@@ -4280,16 +4558,16 @@
       <c r="G32" s="4"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4323,16 +4601,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4361,351 +4639,351 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="60"/>
       <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="65"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="57"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="60"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
       <c r="I9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="57"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="60"/>
       <c r="I15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="63"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="57"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="60"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="62"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="65"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="60"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="62"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="65"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="57"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="60"/>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="62"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
       <c r="I24" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="65"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="57"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="60"/>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="62"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="60"/>
       <c r="I27" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="63"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="65"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="57"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="60"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="62"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60"/>
       <c r="I30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="65"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="57"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="59"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="57"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="60"/>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="62"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="60"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4746,16 +5024,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4798,10 +5076,10 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -4810,8 +5088,8 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -4823,8 +5101,8 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -4833,8 +5111,8 @@
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -4843,8 +5121,8 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -4861,14 +5139,14 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="10"/>
       <c r="I12" s="3" t="s">
         <v>53</v>
@@ -4896,14 +5174,14 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="74"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="72"/>
       <c r="H15" s="10"/>
       <c r="I15" s="3" t="s">
         <v>54</v>
@@ -4911,52 +5189,52 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="75"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="75"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="78"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -5001,24 +5279,24 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>50</v>
@@ -5026,12 +5304,12 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -5095,16 +5373,16 @@
       <c r="H33" s="10"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -5139,16 +5417,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5191,10 +5469,10 @@
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="67"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -5203,8 +5481,8 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -5213,8 +5491,8 @@
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5226,8 +5504,8 @@
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
@@ -5236,8 +5514,8 @@
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
@@ -5254,14 +5532,14 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="10"/>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="10"/>
       <c r="I12" s="3" t="s">
         <v>48</v>
@@ -5289,14 +5567,14 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="80"/>
       <c r="H15" s="10"/>
       <c r="I15" s="3" t="s">
         <v>54</v>
@@ -5304,52 +5582,52 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="85"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="85"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="85"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="85"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="88"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="86"/>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
@@ -5394,24 +5672,24 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
       <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>50</v>
@@ -5419,12 +5697,12 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
@@ -5488,16 +5766,16 @@
       <c r="H33" s="10"/>
     </row>
     <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="38"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>

--- a/template.xlsx
+++ b/template.xlsx
@@ -380,10 +380,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>特になし</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>WBSに基づいた進捗状況の報告。</t>
   </si>
   <si>
@@ -441,12 +437,16 @@
     <t>山本　佳昭</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>特になし</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +524,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
@@ -829,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1170,6 +1177,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2826,13 +2836,13 @@
   <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="AD8" sqref="AD8:AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="10" width="2.625" style="87"/>
-    <col min="11" max="11" width="7.375" style="87" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.625" style="87" customWidth="1"/>
     <col min="12" max="22" width="2.625" style="87"/>
     <col min="23" max="23" width="2.625" style="88"/>
     <col min="24" max="16384" width="2.625" style="87"/>
@@ -3066,7 +3076,7 @@
       <c r="I9" s="104"/>
       <c r="J9" s="102"/>
       <c r="K9" s="103" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L9" s="104"/>
       <c r="M9" s="104"/>
@@ -3093,7 +3103,7 @@
       <c r="I10" s="104"/>
       <c r="J10" s="102"/>
       <c r="K10" s="103" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="104"/>
       <c r="M10" s="104"/>
@@ -3120,7 +3130,7 @@
       <c r="I11" s="104"/>
       <c r="J11" s="102"/>
       <c r="K11" s="103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" s="104"/>
       <c r="M11" s="104"/>
@@ -3223,8 +3233,8 @@
       <c r="H15" s="104"/>
       <c r="I15" s="104"/>
       <c r="J15" s="102"/>
-      <c r="K15" s="109" t="s">
-        <v>67</v>
+      <c r="K15" s="117" t="s">
+        <v>76</v>
       </c>
       <c r="L15" s="110"/>
       <c r="M15" s="110"/>
@@ -3367,7 +3377,7 @@
     <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="92"/>
       <c r="D21" s="92"/>
@@ -3375,7 +3385,7 @@
       <c r="F21" s="92"/>
       <c r="G21" s="93"/>
       <c r="H21" s="91" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I21" s="92"/>
       <c r="J21" s="92"/>
@@ -3396,7 +3406,7 @@
     <row r="22" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="105" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="106"/>
       <c r="D22" s="106"/>
@@ -3404,7 +3414,7 @@
       <c r="F22" s="106"/>
       <c r="G22" s="107"/>
       <c r="H22" s="105" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I22" s="106"/>
       <c r="J22" s="106"/>
@@ -3425,7 +3435,7 @@
     <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="105" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="106"/>
       <c r="D23" s="106"/>
@@ -3433,7 +3443,7 @@
       <c r="F23" s="106"/>
       <c r="G23" s="107"/>
       <c r="H23" s="105" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="106"/>
       <c r="J23" s="106"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -326,10 +326,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t xml:space="preserve">プリカ決済PF開発支援（2016/12） </t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>３．業務内容</t>
     <rPh sb="2" eb="4">
       <t>ギョウム</t>
@@ -338,10 +334,6 @@
       <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>プリカ決済PFの開発支援作業</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>４．業務委託期間</t>
@@ -426,19 +418,30 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>第二法人事業部　小売・流通担当</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>報告結果から指摘を受けた対応。</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>山本　佳昭</t>
+    <t>特になし</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>特になし</t>
+    <t xml:space="preserve">XXXXXX開発支援（2016/12） </t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>XXXXXXの開発支援作業</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>第X法人事業部　XXXXX担当</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>山本　五十六</t>
+    <rPh sb="3" eb="6">
+      <t>ゴジュウロク</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -446,7 +449,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,10 +533,100 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF00B050"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8"/>
       <name val="ＭＳ ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="9"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -563,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -772,21 +865,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -836,7 +914,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -893,6 +971,153 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1087,99 +1312,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2835,20 +2967,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8:AE8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="10" width="2.625" style="87"/>
-    <col min="11" max="11" width="2.625" style="87" customWidth="1"/>
-    <col min="12" max="22" width="2.625" style="87"/>
-    <col min="23" max="23" width="2.625" style="88"/>
-    <col min="24" max="16384" width="2.625" style="87"/>
+    <col min="1" max="10" width="2.625" style="22"/>
+    <col min="11" max="11" width="2.625" style="22" customWidth="1"/>
+    <col min="12" max="22" width="2.625" style="22"/>
+    <col min="23" max="23" width="2.625" style="23"/>
+    <col min="24" max="16384" width="2.625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="20.25" customHeight="1">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -2873,34 +3005,34 @@
       <c r="V1" s="14"/>
       <c r="W1" s="15"/>
     </row>
-    <row r="2" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:23" ht="20.25" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="88"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="90"/>
-    </row>
-    <row r="3" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="25"/>
+    </row>
+    <row r="3" spans="1:23" ht="20.25" customHeight="1">
       <c r="A3" s="16"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -2925,406 +3057,406 @@
       <c r="V3" s="11"/>
       <c r="W3" s="17"/>
     </row>
-    <row r="4" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:23" ht="20.25" customHeight="1">
       <c r="A4" s="16"/>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
-      <c r="U4" s="95"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="97"/>
-    </row>
-    <row r="5" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="31"/>
+    </row>
+    <row r="5" spans="1:23" ht="20.25" customHeight="1">
       <c r="A5" s="16"/>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="94" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="31"/>
+    </row>
+    <row r="6" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="L5" s="95"/>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="95"/>
-      <c r="T5" s="95"/>
-      <c r="U5" s="95"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="97"/>
-    </row>
-    <row r="6" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="91" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="31"/>
+    </row>
+    <row r="7" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="94" t="s">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="31"/>
+    </row>
+    <row r="8" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="96"/>
-      <c r="W6" s="97"/>
-    </row>
-    <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="91" t="s">
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="36"/>
+    </row>
+    <row r="9" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+    </row>
+    <row r="10" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="36"/>
+      <c r="W10" s="36"/>
+    </row>
+    <row r="11" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+    </row>
+    <row r="12" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+      <c r="T12" s="38"/>
+      <c r="U12" s="38"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+    </row>
+    <row r="13" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="36"/>
+    </row>
+    <row r="14" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="36"/>
+    </row>
+    <row r="15" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
-      <c r="Q7" s="95"/>
-      <c r="R7" s="95"/>
-      <c r="S7" s="95"/>
-      <c r="T7" s="95"/>
-      <c r="U7" s="95"/>
-      <c r="V7" s="96"/>
-      <c r="W7" s="97"/>
-    </row>
-    <row r="8" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="99"/>
-      <c r="S8" s="99"/>
-      <c r="T8" s="99"/>
-      <c r="U8" s="99"/>
-      <c r="V8" s="100"/>
-      <c r="W8" s="102"/>
-    </row>
-    <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="102"/>
-      <c r="W9" s="102"/>
-    </row>
-    <row r="10" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="103"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="103" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="104"/>
-      <c r="P10" s="104"/>
-      <c r="Q10" s="104"/>
-      <c r="R10" s="104"/>
-      <c r="S10" s="104"/>
-      <c r="T10" s="104"/>
-      <c r="U10" s="104"/>
-      <c r="V10" s="102"/>
-      <c r="W10" s="102"/>
-    </row>
-    <row r="11" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="103" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="104"/>
-      <c r="P11" s="104"/>
-      <c r="Q11" s="104"/>
-      <c r="R11" s="104"/>
-      <c r="S11" s="104"/>
-      <c r="T11" s="104"/>
-      <c r="U11" s="104"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="102"/>
-    </row>
-    <row r="12" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="16"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
-      <c r="S12" s="104"/>
-      <c r="T12" s="104"/>
-      <c r="U12" s="104"/>
-      <c r="V12" s="102"/>
-      <c r="W12" s="102"/>
-    </row>
-    <row r="13" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="16"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="99"/>
-      <c r="N13" s="99"/>
-      <c r="O13" s="99"/>
-      <c r="P13" s="99"/>
-      <c r="Q13" s="99"/>
-      <c r="R13" s="99"/>
-      <c r="S13" s="99"/>
-      <c r="T13" s="99"/>
-      <c r="U13" s="99"/>
-      <c r="V13" s="100"/>
-      <c r="W13" s="102"/>
-    </row>
-    <row r="14" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="104"/>
-      <c r="R14" s="104"/>
-      <c r="S14" s="104"/>
-      <c r="T14" s="104"/>
-      <c r="U14" s="104"/>
-      <c r="V14" s="102"/>
-      <c r="W14" s="102"/>
-    </row>
-    <row r="15" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="103" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="117" t="s">
-        <v>76</v>
-      </c>
-      <c r="L15" s="110"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-      <c r="S15" s="110"/>
-      <c r="T15" s="110"/>
-      <c r="U15" s="110"/>
-      <c r="V15" s="108"/>
-      <c r="W15" s="108"/>
-    </row>
-    <row r="16" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="62" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+    </row>
+    <row r="16" spans="1:23" ht="20.25" customHeight="1">
       <c r="A16" s="16"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
-      <c r="S16" s="110"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="110"/>
-      <c r="V16" s="108"/>
-      <c r="W16" s="108"/>
-    </row>
-    <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+    </row>
+    <row r="17" spans="1:23" ht="20.25" customHeight="1">
       <c r="A17" s="16"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="110"/>
-      <c r="Q17" s="110"/>
-      <c r="R17" s="110"/>
-      <c r="S17" s="110"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="110"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="108"/>
-    </row>
-    <row r="18" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+    </row>
+    <row r="18" spans="1:23" ht="20.25" customHeight="1">
       <c r="A18" s="18"/>
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="112"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="112"/>
-      <c r="V18" s="113"/>
-      <c r="W18" s="108"/>
-    </row>
-    <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="42"/>
+    </row>
+    <row r="19" spans="1:23" ht="20.25" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -3349,119 +3481,119 @@
       <c r="V19" s="12"/>
       <c r="W19" s="17"/>
     </row>
-    <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="20.25" customHeight="1">
       <c r="A20" s="18"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="116"/>
-      <c r="P20" s="116"/>
-      <c r="Q20" s="116"/>
-      <c r="R20" s="116"/>
-      <c r="S20" s="116"/>
-      <c r="T20" s="116"/>
-      <c r="U20" s="116"/>
-      <c r="V20" s="116"/>
-      <c r="W20" s="114"/>
-    </row>
-    <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="49"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="48"/>
+    </row>
+    <row r="21" spans="1:23" ht="20.25" customHeight="1">
       <c r="A21" s="18"/>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="64"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="48"/>
+    </row>
+    <row r="22" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A22" s="18"/>
+      <c r="B22" s="67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="92"/>
-      <c r="J21" s="92"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="92"/>
-      <c r="Q21" s="92"/>
-      <c r="R21" s="92"/>
-      <c r="S21" s="92"/>
-      <c r="T21" s="92"/>
-      <c r="U21" s="92"/>
-      <c r="V21" s="93"/>
-      <c r="W21" s="114"/>
-    </row>
-    <row r="22" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="105" t="s">
+      <c r="I22" s="68"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="48"/>
+    </row>
+    <row r="23" spans="1:23" ht="20.25" customHeight="1">
+      <c r="A23" s="18"/>
+      <c r="B23" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
-      <c r="L22" s="106"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="106"/>
-      <c r="O22" s="106"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="106"/>
-      <c r="R22" s="106"/>
-      <c r="S22" s="106"/>
-      <c r="T22" s="106"/>
-      <c r="U22" s="106"/>
-      <c r="V22" s="107"/>
-      <c r="W22" s="114"/>
-    </row>
-    <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
-      <c r="L23" s="106"/>
-      <c r="M23" s="106"/>
-      <c r="N23" s="106"/>
-      <c r="O23" s="106"/>
-      <c r="P23" s="106"/>
-      <c r="Q23" s="106"/>
-      <c r="R23" s="106"/>
-      <c r="S23" s="106"/>
-      <c r="T23" s="106"/>
-      <c r="U23" s="106"/>
-      <c r="V23" s="107"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="68"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="40"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="41"/>
       <c r="W23" s="17"/>
     </row>
-    <row r="24" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="20.25" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -3486,7 +3618,7 @@
       <c r="V24" s="12"/>
       <c r="W24" s="17"/>
     </row>
-    <row r="25" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="20.25" customHeight="1">
       <c r="A25" s="19"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -3513,414 +3645,414 @@
       <c r="V25" s="20"/>
       <c r="W25" s="21"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="88"/>
-      <c r="L26" s="88" t="s">
+    <row r="26" spans="1:23">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="M26" s="88"/>
-      <c r="N26" s="88"/>
-      <c r="O26" s="88"/>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="88"/>
-      <c r="O27" s="88"/>
-      <c r="P27" s="88"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="88"/>
-      <c r="S27" s="88"/>
-      <c r="T27" s="88"/>
-      <c r="U27" s="88"/>
-      <c r="V27" s="88"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
-      <c r="J28" s="88"/>
-      <c r="K28" s="88"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
-      <c r="P28" s="88"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="88"/>
-      <c r="T28" s="88"/>
-      <c r="U28" s="88"/>
-      <c r="V28" s="88"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="88"/>
-      <c r="N29" s="88"/>
-      <c r="O29" s="88"/>
-      <c r="P29" s="88"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="88"/>
-      <c r="S29" s="88"/>
-      <c r="T29" s="88"/>
-      <c r="U29" s="88"/>
-      <c r="V29" s="88"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="88"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
-      <c r="J30" s="88"/>
-      <c r="K30" s="88"/>
-      <c r="L30" s="88"/>
-      <c r="M30" s="88"/>
-      <c r="N30" s="88"/>
-      <c r="O30" s="88"/>
-      <c r="P30" s="88"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="88"/>
-      <c r="S30" s="88"/>
-      <c r="T30" s="88"/>
-      <c r="U30" s="88"/>
-      <c r="V30" s="88"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A31" s="88"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="88"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
-      <c r="J31" s="88"/>
-      <c r="K31" s="88"/>
-      <c r="L31" s="88"/>
-      <c r="M31" s="88"/>
-      <c r="N31" s="88"/>
-      <c r="O31" s="88"/>
-      <c r="P31" s="88"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="88"/>
-      <c r="S31" s="88"/>
-      <c r="T31" s="88"/>
-      <c r="U31" s="88"/>
-      <c r="V31" s="88"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A32" s="88"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
-      <c r="J32" s="88"/>
-      <c r="K32" s="88"/>
-      <c r="L32" s="88"/>
-      <c r="M32" s="88"/>
-      <c r="N32" s="88"/>
-      <c r="O32" s="88"/>
-      <c r="P32" s="88"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="88"/>
-      <c r="S32" s="88"/>
-      <c r="T32" s="88"/>
-      <c r="U32" s="88"/>
-      <c r="V32" s="88"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
-      <c r="J33" s="88"/>
-      <c r="K33" s="88"/>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
-      <c r="N33" s="88"/>
-      <c r="O33" s="88"/>
-      <c r="P33" s="88"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="88"/>
-      <c r="S33" s="88"/>
-      <c r="T33" s="88"/>
-      <c r="U33" s="88"/>
-      <c r="V33" s="88"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
-      <c r="J34" s="88"/>
-      <c r="K34" s="88"/>
-      <c r="L34" s="88"/>
-      <c r="M34" s="88"/>
-      <c r="N34" s="88"/>
-      <c r="O34" s="88"/>
-      <c r="P34" s="88"/>
-      <c r="Q34" s="88"/>
-      <c r="R34" s="88"/>
-      <c r="S34" s="88"/>
-      <c r="T34" s="88"/>
-      <c r="U34" s="88"/>
-      <c r="V34" s="88"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="88"/>
-      <c r="K35" s="88"/>
-      <c r="L35" s="88"/>
-      <c r="M35" s="88"/>
-      <c r="N35" s="88"/>
-      <c r="O35" s="88"/>
-      <c r="P35" s="88"/>
-      <c r="Q35" s="88"/>
-      <c r="R35" s="88"/>
-      <c r="S35" s="88"/>
-      <c r="T35" s="88"/>
-      <c r="U35" s="88"/>
-      <c r="V35" s="88"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
-      <c r="I36" s="88"/>
-      <c r="J36" s="88"/>
-      <c r="K36" s="88"/>
-      <c r="L36" s="88"/>
-      <c r="M36" s="88"/>
-      <c r="N36" s="88"/>
-      <c r="O36" s="88"/>
-      <c r="P36" s="88"/>
-      <c r="Q36" s="88"/>
-      <c r="R36" s="88"/>
-      <c r="S36" s="88"/>
-      <c r="T36" s="88"/>
-      <c r="U36" s="88"/>
-      <c r="V36" s="88"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A37" s="88"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="88"/>
-      <c r="K37" s="88"/>
-      <c r="L37" s="88"/>
-      <c r="M37" s="88"/>
-      <c r="N37" s="88"/>
-      <c r="O37" s="88"/>
-      <c r="P37" s="88"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="88"/>
-      <c r="S37" s="88"/>
-      <c r="T37" s="88"/>
-      <c r="U37" s="88"/>
-      <c r="V37" s="88"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="88"/>
-      <c r="S38" s="88"/>
-      <c r="T38" s="88"/>
-      <c r="U38" s="88"/>
-      <c r="V38" s="88"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A39" s="88"/>
-      <c r="B39" s="88"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="88"/>
-      <c r="E39" s="88"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
-      <c r="I39" s="88"/>
-      <c r="J39" s="88"/>
-      <c r="K39" s="88"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
-      <c r="S39" s="88"/>
-      <c r="T39" s="88"/>
-      <c r="U39" s="88"/>
-      <c r="V39" s="88"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88"/>
-      <c r="C40" s="88"/>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="88"/>
-      <c r="V40" s="88"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
-      <c r="I41" s="88"/>
-      <c r="J41" s="88"/>
-      <c r="K41" s="88"/>
-      <c r="L41" s="88"/>
-      <c r="M41" s="88"/>
-      <c r="N41" s="88"/>
-      <c r="O41" s="88"/>
-      <c r="P41" s="88"/>
-      <c r="Q41" s="88"/>
-      <c r="R41" s="88"/>
-      <c r="S41" s="88"/>
-      <c r="T41" s="88"/>
-      <c r="U41" s="88"/>
-      <c r="V41" s="88"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
-      <c r="I42" s="88"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="88"/>
-      <c r="Q42" s="88"/>
-      <c r="R42" s="88"/>
-      <c r="S42" s="88"/>
-      <c r="T42" s="88"/>
-      <c r="U42" s="88"/>
-      <c r="V42" s="88"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="23"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23"/>
+      <c r="O36" s="23"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+    </row>
+    <row r="37" spans="1:22">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="23"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+    </row>
+    <row r="38" spans="1:22">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="23"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="23"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="23"/>
+      <c r="T40" s="23"/>
+      <c r="U40" s="23"/>
+      <c r="V40" s="23"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="23"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="23"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="23"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="23"/>
+      <c r="U41" s="23"/>
+      <c r="V41" s="23"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
@@ -3937,7 +4069,7 @@
       <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3953,7 +4085,7 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3969,7 +4101,7 @@
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3985,22 +4117,22 @@
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4009,7 +4141,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -4017,7 +4149,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4025,7 +4157,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -4033,7 +4165,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4041,7 +4173,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -4049,20 +4181,20 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="B8" s="9"/>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
       <c r="G8" s="9"/>
       <c r="I8" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4070,34 +4202,34 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="B10" s="9"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="B11" s="8"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="91"/>
       <c r="G11" s="8"/>
       <c r="I11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="B12" s="6"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4105,7 +4237,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4113,7 +4245,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -4121,20 +4253,20 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="B16" s="9"/>
-      <c r="C16" s="46" t="s">
+      <c r="C16" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
       <c r="G16" s="9"/>
       <c r="I16" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:9">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -4142,34 +4274,34 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:9">
       <c r="B18" s="9"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:9">
       <c r="B19" s="9"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="91"/>
       <c r="G19" s="9"/>
       <c r="I19" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:9">
       <c r="B20" s="8"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="45"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="94"/>
       <c r="G20" s="8"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -4177,7 +4309,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9">
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -4185,7 +4317,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -4193,36 +4325,36 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="22" t="s">
+    <row r="27" spans="2:9">
+      <c r="B27" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="27"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="73"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="76"/>
       <c r="I28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9">
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="79"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -4230,7 +4362,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -4238,7 +4370,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -4246,17 +4378,17 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="85"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4286,22 +4418,22 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4310,7 +4442,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
@@ -4318,60 +4450,60 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="47" t="s">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+      <c r="B5" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
       <c r="I5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B6" s="50"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="51"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B7" s="50"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="51"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B8" s="50"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="51"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B9" s="50"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="51"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
+      <c r="B6" s="99"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="100"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="B7" s="99"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="100"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="99"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="100"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="99"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="100"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="101"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="103"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4379,7 +4511,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="B12" s="5" t="s">
         <v>5</v>
       </c>
@@ -4392,7 +4524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -4400,60 +4532,60 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B14" s="47" t="s">
+    <row r="14" spans="1:13">
+      <c r="B14" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
       <c r="I14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B15" s="50"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="50"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="51"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B17" s="50"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="51"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B18" s="50"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="51"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
+      <c r="B15" s="99"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="100"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="B16" s="99"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="100"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="99"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="100"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="99"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="100"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="101"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
+    </row>
+    <row r="20" spans="2:9">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -4461,7 +4593,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:9">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4469,7 +4601,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:9">
       <c r="B22" s="5" t="s">
         <v>8</v>
       </c>
@@ -4482,7 +4614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:9">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -4490,60 +4622,60 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B24" s="47" t="s">
+    <row r="24" spans="2:9">
+      <c r="B24" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="98"/>
       <c r="I24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B25" s="50"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="51"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B26" s="50"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="51"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B27" s="50"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="51"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B28" s="50"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="51"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:9">
+      <c r="B25" s="99"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="100"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="99"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="100"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="99"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="100"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="99"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="100"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="101"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -4551,7 +4683,7 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:9">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -4559,7 +4691,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:9">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -4567,17 +4699,17 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="85"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4605,22 +4737,22 @@
       <selection activeCell="A14" sqref="A14:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4629,7 +4761,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -4640,7 +4772,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -4648,352 +4780,352 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="55" t="s">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+      <c r="A5" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="60"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="106"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="107"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="109"/>
       <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="55" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="110"/>
+      <c r="B7" s="111"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="112"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="60"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="106"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="107"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="109"/>
       <c r="I9" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="55" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="112"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="57"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="60"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109"/>
       <c r="I12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="61"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="63"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="55" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="110"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="112"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="57"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="60"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="106"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="107"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="109"/>
       <c r="I15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" s="61"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="63"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="55" t="s">
+    <row r="16" spans="1:13">
+      <c r="A16" s="110"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="112"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="57"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="60"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="107"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="108"/>
+      <c r="H18" s="109"/>
       <c r="I18" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="61"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="55" t="s">
+    <row r="19" spans="1:9">
+      <c r="A19" s="110"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="57"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="106"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="107"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109"/>
       <c r="I21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="61"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="55" t="s">
+    <row r="22" spans="1:9">
+      <c r="A22" s="110"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="112"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="57"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="60"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="106"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="107"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109"/>
       <c r="I24" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="63"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="55" t="s">
+    <row r="25" spans="1:9">
+      <c r="A25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="112"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="57"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="58"/>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="60"/>
+      <c r="B26" s="105"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="106"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="107"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="108"/>
+      <c r="H27" s="109"/>
       <c r="I27" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="61"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="55" t="s">
+    <row r="28" spans="1:9">
+      <c r="A28" s="110"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="112"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="57"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="58"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="60"/>
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="106"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="107"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+      <c r="H30" s="109"/>
       <c r="I30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="61"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="63"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="55"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="57"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="58"/>
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="60"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="34" t="s">
+    <row r="31" spans="1:9">
+      <c r="A31" s="110"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="112"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="104"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="106"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="107"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="109"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="85"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -5028,22 +5160,22 @@
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5052,7 +5184,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5062,7 +5194,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -5072,7 +5204,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5082,24 +5214,24 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="65"/>
+      <c r="E6" s="114"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="116"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -5107,37 +5239,37 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="118"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5147,22 +5279,22 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="10"/>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
       <c r="H12" s="10"/>
       <c r="I12" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5172,7 +5304,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -5182,72 +5314,72 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="10"/>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="121"/>
       <c r="H15" s="10"/>
       <c r="I15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="10"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="75"/>
+      <c r="B16" s="122"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
+      <c r="F16" s="123"/>
+      <c r="G16" s="124"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="10"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="75"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="124"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="10"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="124"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="10"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
+      <c r="B19" s="122"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="10"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="78"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="126"/>
+      <c r="G20" s="127"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -5257,7 +5389,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5267,7 +5399,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5277,7 +5409,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -5287,42 +5419,42 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="10"/>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="10"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="10"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5332,7 +5464,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5342,7 +5474,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5352,7 +5484,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -5362,7 +5494,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -5372,7 +5504,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -5382,17 +5514,17 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="85"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -5421,22 +5553,22 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:13" ht="17.25">
+      <c r="A1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="82"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5445,7 +5577,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -5455,7 +5587,7 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -5465,7 +5597,7 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -5475,34 +5607,34 @@
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="65"/>
+      <c r="E6" s="114"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="116"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
@@ -5510,27 +5642,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="118"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
@@ -5540,22 +5672,22 @@
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12" s="10"/>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="119"/>
       <c r="H12" s="10"/>
       <c r="I12" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -5565,7 +5697,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -5575,72 +5707,72 @@
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="A15" s="10"/>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="80"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="129"/>
       <c r="H15" s="10"/>
       <c r="I15" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="A16" s="10"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="83"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="132"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9">
       <c r="A17" s="10"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="83"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="132"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9">
       <c r="A18" s="10"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
+      <c r="B18" s="130"/>
+      <c r="C18" s="131"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="132"/>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9">
       <c r="A19" s="10"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="131"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="132"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9">
       <c r="A20" s="10"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="135"/>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -5650,7 +5782,7 @@
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -5660,7 +5792,7 @@
       <c r="G22" s="10"/>
       <c r="H22" s="10"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5670,7 +5802,7 @@
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -5680,42 +5812,42 @@
       <c r="G24" s="10"/>
       <c r="H24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9">
       <c r="A25" s="10"/>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9">
       <c r="A26" s="10"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="27"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="76"/>
       <c r="H26" s="10"/>
       <c r="I26" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9">
       <c r="A27" s="10"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="10"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5725,7 +5857,7 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5735,7 +5867,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5745,7 +5877,7 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
@@ -5755,7 +5887,7 @@
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
@@ -5765,7 +5897,7 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -5775,17 +5907,17 @@
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
     </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36" s="34" t="s">
+    <row r="36" spans="1:9" ht="14.25">
+      <c r="A36" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="84"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="85"/>
       <c r="I36" s="2" t="s">
         <v>2</v>
       </c>
@@ -5814,7 +5946,7 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5830,7 +5962,7 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5847,7 +5979,7 @@
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Copyright © 2008-2016 KPF</t>
     <phoneticPr fontId="1"/>
@@ -323,6 +323,22 @@
     <t>1</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w'w</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿德</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -331,7 +347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,6 +523,21 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -678,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -935,15 +966,6 @@
     <xf numFmtId="49" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -957,6 +979,78 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3704,7 +3798,7 @@
   <dimension ref="A1:BA42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+      <selection activeCell="J8" sqref="J8:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3747,34 +3841,40 @@
       <c r="Y1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="86"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="86"/>
-      <c r="AK1" s="86"/>
-      <c r="AL1" s="87"/>
-      <c r="BA1" s="92"/>
-    </row>
-    <row r="2" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="102"/>
+      <c r="AB1" s="102"/>
+      <c r="AC1" s="102"/>
+      <c r="AD1" s="102"/>
+      <c r="AE1" s="102"/>
+      <c r="AF1" s="102"/>
+      <c r="AG1" s="102"/>
+      <c r="AH1" s="102"/>
+      <c r="AI1" s="102"/>
+      <c r="AJ1" s="102"/>
+      <c r="AK1" s="102"/>
+      <c r="AL1" s="103"/>
+      <c r="BA1" s="89"/>
+    </row>
+    <row r="2" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="B2" s="95" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="96"/>
+      <c r="D2" s="97"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="40"/>
+      <c r="F2" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="99"/>
+      <c r="H2" s="100"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="J2" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="105"/>
+      <c r="L2" s="106"/>
       <c r="M2" s="14"/>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
@@ -3789,20 +3889,20 @@
       <c r="Y2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="88"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="86"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
-      <c r="AI2" s="86"/>
-      <c r="AJ2" s="86"/>
-      <c r="AK2" s="86"/>
-      <c r="AL2" s="87"/>
-      <c r="BA2" s="92"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="102"/>
+      <c r="AB2" s="102"/>
+      <c r="AC2" s="102"/>
+      <c r="AD2" s="102"/>
+      <c r="AE2" s="102"/>
+      <c r="AF2" s="102"/>
+      <c r="AG2" s="102"/>
+      <c r="AH2" s="102"/>
+      <c r="AI2" s="102"/>
+      <c r="AJ2" s="102"/>
+      <c r="AK2" s="102"/>
+      <c r="AL2" s="103"/>
+      <c r="BA2" s="89"/>
     </row>
     <row r="3" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
@@ -3831,20 +3931,20 @@
       <c r="Y3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="86"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="86"/>
-      <c r="AJ3" s="86"/>
-      <c r="AK3" s="86"/>
-      <c r="AL3" s="87"/>
-      <c r="BA3" s="92"/>
+      <c r="Z3" s="101"/>
+      <c r="AA3" s="102"/>
+      <c r="AB3" s="102"/>
+      <c r="AC3" s="102"/>
+      <c r="AD3" s="102"/>
+      <c r="AE3" s="102"/>
+      <c r="AF3" s="102"/>
+      <c r="AG3" s="102"/>
+      <c r="AH3" s="102"/>
+      <c r="AI3" s="102"/>
+      <c r="AJ3" s="102"/>
+      <c r="AK3" s="102"/>
+      <c r="AL3" s="103"/>
+      <c r="BA3" s="89"/>
     </row>
     <row r="4" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
@@ -3870,35 +3970,35 @@
       <c r="U4" s="74"/>
       <c r="V4" s="74"/>
       <c r="W4" s="21"/>
-      <c r="Y4" s="89" t="s">
+      <c r="Y4" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="89" t="s">
+      <c r="Z4" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89" t="s">
+      <c r="AA4" s="86"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="91"/>
-      <c r="AI4" s="89" t="s">
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="90"/>
-      <c r="AL4" s="91"/>
-      <c r="AM4" s="89" t="s">
+      <c r="AJ4" s="87"/>
+      <c r="AK4" s="87"/>
+      <c r="AL4" s="88"/>
+      <c r="AM4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="91"/>
-      <c r="BA4" s="92"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="88"/>
+      <c r="BA4" s="89"/>
     </row>
     <row r="5" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
@@ -3906,16 +4006,19 @@
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
+      <c r="F5" s="28" t="str">
+        <f>Z4</f>
+        <v>name</v>
+      </c>
+      <c r="G5" s="92"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="94"/>
       <c r="P5" s="74"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="74"/>
@@ -3929,13 +4032,13 @@
       <c r="AA5" s="72"/>
       <c r="AB5" s="72"/>
       <c r="AC5" s="71"/>
-      <c r="AD5" s="88" t="s">
+      <c r="AD5" s="101" t="s">
         <v>30</v>
       </c>
-      <c r="AE5" s="86"/>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="87"/>
+      <c r="AE5" s="102"/>
+      <c r="AF5" s="102"/>
+      <c r="AG5" s="102"/>
+      <c r="AH5" s="103"/>
       <c r="AI5" s="70"/>
       <c r="AJ5" s="72"/>
       <c r="AK5" s="72"/>
@@ -3944,12 +4047,12 @@
       <c r="AN5" s="72"/>
       <c r="AO5" s="72"/>
       <c r="AP5" s="71"/>
-      <c r="AR5" s="92"/>
-      <c r="AS5" s="92"/>
-      <c r="AT5" s="92"/>
-      <c r="AU5" s="92"/>
-      <c r="AV5" s="92"/>
-      <c r="BA5" s="92"/>
+      <c r="AR5" s="89"/>
+      <c r="AS5" s="89"/>
+      <c r="AT5" s="89"/>
+      <c r="AU5" s="89"/>
+      <c r="AV5" s="89"/>
+      <c r="BA5" s="89"/>
     </row>
     <row r="6" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
@@ -3980,11 +4083,11 @@
       <c r="AA6" s="72"/>
       <c r="AB6" s="72"/>
       <c r="AC6" s="71"/>
-      <c r="AD6" s="88"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="87"/>
+      <c r="AD6" s="101"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="102"/>
+      <c r="AG6" s="102"/>
+      <c r="AH6" s="103"/>
       <c r="AI6" s="70"/>
       <c r="AJ6" s="72"/>
       <c r="AK6" s="72"/>
@@ -3993,12 +4096,12 @@
       <c r="AN6" s="72"/>
       <c r="AO6" s="72"/>
       <c r="AP6" s="71"/>
-      <c r="AR6" s="92"/>
-      <c r="AS6" s="92"/>
-      <c r="AT6" s="92"/>
-      <c r="AU6" s="92"/>
-      <c r="AV6" s="92"/>
-      <c r="BA6" s="92"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="89"/>
+      <c r="BA6" s="89"/>
     </row>
     <row r="7" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
@@ -4006,7 +4109,7 @@
       </c>
       <c r="B7" s="78"/>
       <c r="C7" s="28"/>
-      <c r="D7" s="94"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -4031,11 +4134,11 @@
       <c r="AA7" s="72"/>
       <c r="AB7" s="72"/>
       <c r="AC7" s="71"/>
-      <c r="AD7" s="88"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="87"/>
+      <c r="AD7" s="101"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="102"/>
+      <c r="AH7" s="103"/>
       <c r="AI7" s="70"/>
       <c r="AJ7" s="72"/>
       <c r="AK7" s="72"/>
@@ -4044,12 +4147,12 @@
       <c r="AN7" s="72"/>
       <c r="AO7" s="72"/>
       <c r="AP7" s="71"/>
-      <c r="AR7" s="92"/>
-      <c r="AS7" s="92"/>
-      <c r="AT7" s="92"/>
-      <c r="AU7" s="92"/>
-      <c r="AV7" s="92"/>
-      <c r="BA7" s="92"/>
+      <c r="AR7" s="89"/>
+      <c r="AS7" s="89"/>
+      <c r="AT7" s="89"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="89"/>
+      <c r="BA7" s="89"/>
     </row>
     <row r="8" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
@@ -4057,18 +4160,23 @@
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="F8" s="28" t="str">
+        <f>Y4</f>
+        <v>id</v>
+      </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
+      <c r="J8" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="108"/>
+      <c r="Q8" s="109"/>
       <c r="R8" s="28"/>
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
@@ -4080,11 +4188,11 @@
       <c r="AA8" s="72"/>
       <c r="AB8" s="72"/>
       <c r="AC8" s="71"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="87"/>
+      <c r="AD8" s="101"/>
+      <c r="AE8" s="102"/>
+      <c r="AF8" s="102"/>
+      <c r="AG8" s="102"/>
+      <c r="AH8" s="103"/>
       <c r="AI8" s="70"/>
       <c r="AJ8" s="72"/>
       <c r="AK8" s="72"/>
@@ -4093,11 +4201,11 @@
       <c r="AN8" s="72"/>
       <c r="AO8" s="72"/>
       <c r="AP8" s="71"/>
-      <c r="AR8" s="92"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="92"/>
-      <c r="AU8" s="92"/>
-      <c r="AV8" s="92"/>
+      <c r="AR8" s="89"/>
+      <c r="AS8" s="89"/>
+      <c r="AT8" s="89"/>
+      <c r="AU8" s="89"/>
+      <c r="AV8" s="89"/>
     </row>
     <row r="9" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
@@ -4109,14 +4217,14 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="112"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
@@ -4128,11 +4236,11 @@
       <c r="AA9" s="72"/>
       <c r="AB9" s="72"/>
       <c r="AC9" s="71"/>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="87"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="103"/>
       <c r="AI9" s="70"/>
       <c r="AJ9" s="72"/>
       <c r="AK9" s="72"/>
@@ -4141,11 +4249,11 @@
       <c r="AN9" s="72"/>
       <c r="AO9" s="72"/>
       <c r="AP9" s="71"/>
-      <c r="AR9" s="92"/>
-      <c r="AS9" s="92"/>
-      <c r="AT9" s="92"/>
-      <c r="AU9" s="92"/>
-      <c r="AV9" s="92"/>
+      <c r="AR9" s="89"/>
+      <c r="AS9" s="89"/>
+      <c r="AT9" s="89"/>
+      <c r="AU9" s="89"/>
+      <c r="AV9" s="89"/>
     </row>
     <row r="10" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
@@ -4157,14 +4265,14 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="111"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="111"/>
+      <c r="Q10" s="112"/>
       <c r="R10" s="28"/>
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
@@ -4176,11 +4284,11 @@
       <c r="AA10" s="72"/>
       <c r="AB10" s="72"/>
       <c r="AC10" s="71"/>
-      <c r="AD10" s="88"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="87"/>
+      <c r="AD10" s="101"/>
+      <c r="AE10" s="102"/>
+      <c r="AF10" s="102"/>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="103"/>
       <c r="AI10" s="70"/>
       <c r="AJ10" s="72"/>
       <c r="AK10" s="72"/>
@@ -4189,11 +4297,11 @@
       <c r="AN10" s="72"/>
       <c r="AO10" s="72"/>
       <c r="AP10" s="71"/>
-      <c r="AR10" s="92"/>
-      <c r="AS10" s="92"/>
-      <c r="AT10" s="92"/>
-      <c r="AU10" s="92"/>
-      <c r="AV10" s="92"/>
+      <c r="AR10" s="89"/>
+      <c r="AS10" s="89"/>
+      <c r="AT10" s="89"/>
+      <c r="AU10" s="89"/>
+      <c r="AV10" s="89"/>
     </row>
     <row r="11" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
@@ -4205,14 +4313,14 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="81"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="112"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
@@ -4224,11 +4332,11 @@
       <c r="AA11" s="72"/>
       <c r="AB11" s="72"/>
       <c r="AC11" s="71"/>
-      <c r="AD11" s="88"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="87"/>
+      <c r="AD11" s="101"/>
+      <c r="AE11" s="102"/>
+      <c r="AF11" s="102"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="103"/>
       <c r="AI11" s="70"/>
       <c r="AJ11" s="72"/>
       <c r="AK11" s="72"/>
@@ -4237,11 +4345,11 @@
       <c r="AN11" s="72"/>
       <c r="AO11" s="72"/>
       <c r="AP11" s="71"/>
-      <c r="AR11" s="92"/>
-      <c r="AS11" s="92"/>
-      <c r="AT11" s="92"/>
-      <c r="AU11" s="92"/>
-      <c r="AV11" s="92"/>
+      <c r="AR11" s="89"/>
+      <c r="AS11" s="89"/>
+      <c r="AT11" s="89"/>
+      <c r="AU11" s="89"/>
+      <c r="AV11" s="89"/>
     </row>
     <row r="12" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
@@ -4253,14 +4361,14 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
+      <c r="P12" s="114"/>
+      <c r="Q12" s="115"/>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
@@ -5006,9 +5114,7 @@
       <c r="V42" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="AD8:AH8"/>
-    <mergeCell ref="AD9:AH9"/>
+  <mergeCells count="14">
     <mergeCell ref="AD10:AH10"/>
     <mergeCell ref="AD11:AH11"/>
     <mergeCell ref="Z1:AL1"/>
@@ -5017,6 +5123,12 @@
     <mergeCell ref="AD5:AH5"/>
     <mergeCell ref="AD6:AH6"/>
     <mergeCell ref="AD7:AH7"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="AD8:AH8"/>
+    <mergeCell ref="AD9:AH9"/>
+    <mergeCell ref="J8:Q12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5053,37 +5165,37 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="90" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="90" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="90" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="90" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="93" t="s">
+      <c r="A6" s="90" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="93" t="s">
+      <c r="A7" s="90" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="93" t="s">
+      <c r="A8" s="90" t="s">
         <v>35</v>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Copyright © 2008-2016 KPF</t>
     <phoneticPr fontId="1"/>
@@ -277,9 +277,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>submit</t>
-  </si>
-  <si>
     <t>checkbox</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -324,10 +321,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sss</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>w'w</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -337,6 +330,18 @@
   </si>
   <si>
     <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>submit</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -532,7 +537,7 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -553,7 +558,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -702,6 +707,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -709,7 +727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -969,62 +987,23 @@
     <xf numFmtId="49" fontId="23" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1051,6 +1030,56 @@
     </xf>
     <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3795,26 +3824,26 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BA42"/>
+  <dimension ref="A1:AN42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8:Q12"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="2.625" style="12"/>
-    <col min="4" max="4" width="2.625" style="12" customWidth="1"/>
-    <col min="5" max="10" width="2.625" style="12"/>
-    <col min="11" max="11" width="2.625" style="12" customWidth="1"/>
-    <col min="12" max="22" width="2.625" style="12"/>
-    <col min="23" max="23" width="2.625" style="13"/>
+    <col min="1" max="22" width="2.5" style="12" customWidth="1"/>
+    <col min="23" max="23" width="2.5" style="13" customWidth="1"/>
     <col min="24" max="24" width="2.625" style="12"/>
-    <col min="25" max="25" width="7.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="2.625" style="12"/>
+    <col min="25" max="25" width="8" style="12" customWidth="1"/>
+    <col min="26" max="26" width="9.125" style="12" customWidth="1"/>
+    <col min="27" max="27" width="7.875" style="12" customWidth="1"/>
+    <col min="28" max="28" width="9.125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="9.25" style="12" customWidth="1"/>
+    <col min="30" max="16384" width="2.625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3828,7 +3857,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="N1" s="119"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -3841,42 +3870,33 @@
       <c r="Y1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="102"/>
-      <c r="AA1" s="102"/>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="102"/>
-      <c r="AD1" s="102"/>
-      <c r="AE1" s="102"/>
-      <c r="AF1" s="102"/>
-      <c r="AG1" s="102"/>
-      <c r="AH1" s="102"/>
-      <c r="AI1" s="102"/>
-      <c r="AJ1" s="102"/>
-      <c r="AK1" s="102"/>
-      <c r="AL1" s="103"/>
-      <c r="BA1" s="89"/>
-    </row>
-    <row r="2" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="64"/>
+      <c r="AN1" s="87"/>
+    </row>
+    <row r="2" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="99"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="105"/>
-      <c r="L2" s="106"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
       <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="N2" s="15"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
@@ -3889,36 +3909,27 @@
       <c r="Y2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="102"/>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="102"/>
-      <c r="AD2" s="102"/>
-      <c r="AE2" s="102"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="102"/>
-      <c r="AH2" s="102"/>
-      <c r="AI2" s="102"/>
-      <c r="AJ2" s="102"/>
-      <c r="AK2" s="102"/>
-      <c r="AL2" s="103"/>
-      <c r="BA2" s="89"/>
-    </row>
-    <row r="3" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="93"/>
+      <c r="AN2" s="87"/>
+    </row>
+    <row r="3" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="120"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="122"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -3931,22 +3942,13 @@
       <c r="Y3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="102"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="102"/>
-      <c r="AD3" s="102"/>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102"/>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102"/>
-      <c r="AK3" s="102"/>
-      <c r="AL3" s="103"/>
-      <c r="BA3" s="89"/>
-    </row>
-    <row r="4" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="116"/>
+      <c r="AC3" s="38"/>
+      <c r="AN3" s="87"/>
+    </row>
+    <row r="4" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="73"/>
       <c r="C4" s="28"/>
@@ -3976,49 +3978,36 @@
       <c r="Z4" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="86" t="s">
+      <c r="AA4" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="88"/>
-      <c r="AI4" s="86" t="s">
+      <c r="AB4" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="88"/>
-      <c r="AM4" s="86" t="s">
-        <v>39</v>
+      <c r="AC4" s="113" t="s">
+        <v>38</v>
       </c>
       <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="88"/>
-      <c r="BA4" s="89"/>
-    </row>
-    <row r="5" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="75"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28" t="str">
+      <c r="E5" s="107"/>
+      <c r="F5" s="107" t="str">
         <f>Z4</f>
         <v>name</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="93"/>
-      <c r="K5" s="93"/>
-      <c r="L5" s="93"/>
-      <c r="M5" s="93"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="94"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="91"/>
       <c r="P5" s="74"/>
       <c r="Q5" s="74"/>
       <c r="R5" s="74"/>
@@ -4027,34 +4016,21 @@
       <c r="U5" s="74"/>
       <c r="V5" s="74"/>
       <c r="W5" s="21"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE5" s="102"/>
-      <c r="AF5" s="102"/>
-      <c r="AG5" s="102"/>
-      <c r="AH5" s="103"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="71"/>
-      <c r="AM5" s="70"/>
-      <c r="AN5" s="72"/>
-      <c r="AO5" s="72"/>
-      <c r="AP5" s="71"/>
-      <c r="AR5" s="89"/>
-      <c r="AS5" s="89"/>
-      <c r="AT5" s="89"/>
-      <c r="AU5" s="89"/>
-      <c r="AV5" s="89"/>
-      <c r="BA5" s="89"/>
-    </row>
-    <row r="6" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y5" s="92"/>
+      <c r="Z5" s="92"/>
+      <c r="AA5" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB5" s="92"/>
+      <c r="AC5" s="61"/>
+      <c r="AE5" s="87"/>
+      <c r="AF5" s="87"/>
+      <c r="AG5" s="87"/>
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="87"/>
+      <c r="AN5" s="87"/>
+    </row>
+    <row r="6" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="75"/>
       <c r="C6" s="28"/>
@@ -4078,38 +4054,25 @@
       <c r="U6" s="74"/>
       <c r="V6" s="74"/>
       <c r="W6" s="21"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="101"/>
-      <c r="AE6" s="102"/>
-      <c r="AF6" s="102"/>
-      <c r="AG6" s="102"/>
-      <c r="AH6" s="103"/>
-      <c r="AI6" s="70"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="71"/>
-      <c r="AM6" s="70"/>
-      <c r="AN6" s="72"/>
-      <c r="AO6" s="72"/>
-      <c r="AP6" s="71"/>
-      <c r="AR6" s="89"/>
-      <c r="AS6" s="89"/>
-      <c r="AT6" s="89"/>
-      <c r="AU6" s="89"/>
-      <c r="AV6" s="89"/>
-      <c r="BA6" s="89"/>
-    </row>
-    <row r="7" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y6" s="92"/>
+      <c r="Z6" s="92"/>
+      <c r="AA6" s="112"/>
+      <c r="AB6" s="92"/>
+      <c r="AC6" s="61"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="87"/>
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AN6" s="87"/>
+    </row>
+    <row r="7" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="78"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="91"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="89"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -4127,37 +4090,24 @@
       <c r="S7" s="74"/>
       <c r="T7" s="74"/>
       <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
+      <c r="V7" s="20"/>
       <c r="W7" s="21"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="101"/>
-      <c r="AE7" s="102"/>
-      <c r="AF7" s="102"/>
-      <c r="AG7" s="102"/>
-      <c r="AH7" s="103"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="71"/>
-      <c r="AM7" s="70"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="71"/>
-      <c r="AR7" s="89"/>
-      <c r="AS7" s="89"/>
-      <c r="AT7" s="89"/>
-      <c r="AU7" s="89"/>
-      <c r="AV7" s="89"/>
-      <c r="BA7" s="89"/>
-    </row>
-    <row r="8" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y7" s="92"/>
+      <c r="Z7" s="92"/>
+      <c r="AA7" s="112"/>
+      <c r="AB7" s="92"/>
+      <c r="AC7" s="61"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AN7" s="87"/>
+    </row>
+    <row r="8" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="79"/>
-      <c r="C8" s="28"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28" t="str">
@@ -4167,219 +4117,167 @@
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="107" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="108"/>
-      <c r="Q8" s="109"/>
+      <c r="J8" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="95"/>
+      <c r="L8" s="95"/>
+      <c r="M8" s="95"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="95"/>
+      <c r="P8" s="95"/>
+      <c r="Q8" s="96"/>
       <c r="R8" s="28"/>
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
+      <c r="V8" s="17"/>
       <c r="W8" s="26"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="101"/>
-      <c r="AE8" s="102"/>
-      <c r="AF8" s="102"/>
-      <c r="AG8" s="102"/>
-      <c r="AH8" s="103"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="70"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="71"/>
-      <c r="AR8" s="89"/>
-      <c r="AS8" s="89"/>
-      <c r="AT8" s="89"/>
-      <c r="AU8" s="89"/>
-      <c r="AV8" s="89"/>
-    </row>
-    <row r="9" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y8" s="92"/>
+      <c r="Z8" s="92"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="92"/>
+      <c r="AC8" s="61"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+    </row>
+    <row r="9" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
-      <c r="Q9" s="112"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="99"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
+      <c r="V9" s="17"/>
       <c r="W9" s="26"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="71"/>
-      <c r="AM9" s="70"/>
-      <c r="AN9" s="72"/>
-      <c r="AO9" s="72"/>
-      <c r="AP9" s="71"/>
-      <c r="AR9" s="89"/>
-      <c r="AS9" s="89"/>
-      <c r="AT9" s="89"/>
-      <c r="AU9" s="89"/>
-      <c r="AV9" s="89"/>
-    </row>
-    <row r="10" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="112"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="61"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+    </row>
+    <row r="10" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="C10" s="117"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="111"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="111"/>
-      <c r="Q10" s="112"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="99"/>
       <c r="R10" s="28"/>
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
       <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
+      <c r="V10" s="17"/>
       <c r="W10" s="26"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="101"/>
-      <c r="AE10" s="102"/>
-      <c r="AF10" s="102"/>
-      <c r="AG10" s="102"/>
-      <c r="AH10" s="103"/>
-      <c r="AI10" s="70"/>
-      <c r="AJ10" s="72"/>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="71"/>
-      <c r="AM10" s="70"/>
-      <c r="AN10" s="72"/>
-      <c r="AO10" s="72"/>
-      <c r="AP10" s="71"/>
-      <c r="AR10" s="89"/>
-      <c r="AS10" s="89"/>
-      <c r="AT10" s="89"/>
-      <c r="AU10" s="89"/>
-      <c r="AV10" s="89"/>
-    </row>
-    <row r="11" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="112"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="61"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+    </row>
+    <row r="11" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="C11" s="117"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="112"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="98"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="99"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
       <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
+      <c r="V11" s="17"/>
       <c r="W11" s="26"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="72"/>
-      <c r="AB11" s="72"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="101"/>
-      <c r="AE11" s="102"/>
-      <c r="AF11" s="102"/>
-      <c r="AG11" s="102"/>
-      <c r="AH11" s="103"/>
-      <c r="AI11" s="70"/>
-      <c r="AJ11" s="72"/>
-      <c r="AK11" s="72"/>
-      <c r="AL11" s="71"/>
-      <c r="AM11" s="70"/>
-      <c r="AN11" s="72"/>
-      <c r="AO11" s="72"/>
-      <c r="AP11" s="71"/>
-      <c r="AR11" s="89"/>
-      <c r="AS11" s="89"/>
-      <c r="AT11" s="89"/>
-      <c r="AU11" s="89"/>
-      <c r="AV11" s="89"/>
-    </row>
-    <row r="12" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y11" s="92"/>
+      <c r="Z11" s="92"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="92"/>
+      <c r="AC11" s="61"/>
+      <c r="AE11" s="87"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+    </row>
+    <row r="12" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="C12" s="117"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="115"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="101"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="101"/>
+      <c r="P12" s="101"/>
+      <c r="Q12" s="102"/>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
       <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
+      <c r="V12" s="17"/>
       <c r="W12" s="26"/>
     </row>
-    <row r="13" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
+      <c r="C13" s="117"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -4398,35 +4296,35 @@
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
+      <c r="V13" s="17"/>
       <c r="W13" s="26"/>
     </row>
-    <row r="14" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="118"/>
+      <c r="K14" s="118"/>
+      <c r="L14" s="118"/>
+      <c r="M14" s="118"/>
+      <c r="N14" s="118"/>
+      <c r="O14" s="118"/>
+      <c r="P14" s="118"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="107"/>
       <c r="W14" s="26"/>
     </row>
-    <row r="15" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="75"/>
       <c r="C15" s="50"/>
@@ -4451,7 +4349,7 @@
       <c r="V15" s="34"/>
       <c r="W15" s="32"/>
     </row>
-    <row r="16" spans="1:53" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -4475,9 +4373,8 @@
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
       <c r="W16" s="32"/>
-      <c r="AG16" s="69"/>
-    </row>
-    <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -4502,7 +4399,7 @@
       <c r="V17" s="34"/>
       <c r="W17" s="32"/>
     </row>
-    <row r="18" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -4527,7 +4424,7 @@
       <c r="V18" s="34"/>
       <c r="W18" s="32"/>
     </row>
-    <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4552,8 +4449,10 @@
       <c r="V19" s="2"/>
       <c r="W19" s="7"/>
     </row>
-    <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8"/>
+    <row r="20" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -4577,7 +4476,7 @@
       <c r="V20" s="13"/>
       <c r="W20" s="38"/>
     </row>
-    <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="83"/>
       <c r="C21" s="84"/>
@@ -4602,7 +4501,7 @@
       <c r="V21" s="28"/>
       <c r="W21" s="38"/>
     </row>
-    <row r="22" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="83"/>
       <c r="C22" s="84"/>
@@ -4627,7 +4526,7 @@
       <c r="V22" s="28"/>
       <c r="W22" s="38"/>
     </row>
-    <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="83"/>
       <c r="C23" s="84"/>
@@ -4652,7 +4551,7 @@
       <c r="V23" s="28"/>
       <c r="W23" s="7"/>
     </row>
-    <row r="24" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -4677,32 +4576,32 @@
       <c r="V24" s="2"/>
       <c r="W24" s="7"/>
     </row>
-    <row r="25" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10" t="s">
+    <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="11"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="104"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="104"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="104"/>
+      <c r="V25" s="104"/>
+      <c r="W25" s="106"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
@@ -5114,20 +5013,11 @@
       <c r="V42" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="AD10:AH10"/>
-    <mergeCell ref="AD11:AH11"/>
-    <mergeCell ref="Z1:AL1"/>
-    <mergeCell ref="Z2:AL2"/>
-    <mergeCell ref="Z3:AL3"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="AD6:AH6"/>
-    <mergeCell ref="AD7:AH7"/>
+  <mergeCells count="5">
+    <mergeCell ref="A25:W25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="AD8:AH8"/>
-    <mergeCell ref="AD9:AH9"/>
     <mergeCell ref="J8:Q12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -5140,7 +5030,7 @@
           <x14:formula1>
             <xm:f>data!$A$2:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>AD5:AH11</xm:sqref>
+          <xm:sqref>AA5:AA11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5161,57 +5051,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="88" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="88" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="88" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="88" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="90" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="88" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="90" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="88" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="90" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="88" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="90" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="61" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Copyright © 2008-2016 KPF</t>
     <phoneticPr fontId="1"/>
@@ -317,31 +317,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>w'w</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>阿德</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sss</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>submit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>submit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発信</t>
+    <rPh sb="0" eb="2">
+      <t>ハッシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://api.9jialu.com/profile/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -352,7 +359,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +550,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -721,13 +736,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1004,56 +1020,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
@@ -1081,8 +1052,56 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
@@ -1390,7 +1409,7 @@
   <dimension ref="A1:AL42"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AK20" sqref="AK20"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3826,8 +3845,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AN16" sqref="AN16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3857,7 +3876,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="119"/>
+      <c r="N1" s="104"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -3870,31 +3889,25 @@
       <c r="Y1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
+      <c r="Z1" s="123"/>
+      <c r="AA1" s="99"/>
+      <c r="AB1" s="99"/>
       <c r="AC1" s="64"/>
       <c r="AN1" s="87"/>
     </row>
     <row r="2" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="110" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="14"/>
@@ -3909,27 +3922,29 @@
       <c r="Y2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="112"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
+      <c r="Z2" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
       <c r="AC2" s="93"/>
       <c r="AN2" s="87"/>
     </row>
     <row r="3" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="120"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="122"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="107"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -3942,9 +3957,11 @@
       <c r="Y3" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="116"/>
-      <c r="AB3" s="116"/>
+      <c r="Z3" s="100" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA3" s="101"/>
+      <c r="AB3" s="101"/>
       <c r="AC3" s="38"/>
       <c r="AN3" s="87"/>
     </row>
@@ -3984,7 +4001,7 @@
       <c r="AB4" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="AC4" s="113" t="s">
+      <c r="AC4" s="98" t="s">
         <v>38</v>
       </c>
       <c r="AN4" s="87"/>
@@ -3994,12 +4011,12 @@
       <c r="B5" s="75"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107" t="str">
-        <f>Z4</f>
-        <v>name</v>
-      </c>
-      <c r="G5" s="108"/>
+      <c r="E5" s="94" t="str">
+        <f>Y6</f>
+        <v>file</v>
+      </c>
+      <c r="F5" s="94"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="90"/>
       <c r="I5" s="90"/>
       <c r="J5" s="90"/>
@@ -4016,12 +4033,18 @@
       <c r="U5" s="74"/>
       <c r="V5" s="74"/>
       <c r="W5" s="21"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
+      <c r="Y5" s="92" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="92" t="s">
+        <v>42</v>
+      </c>
       <c r="AA5" s="88" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB5" s="92"/>
+        <v>41</v>
+      </c>
+      <c r="AB5" s="92" t="s">
+        <v>43</v>
+      </c>
       <c r="AC5" s="61"/>
       <c r="AE5" s="87"/>
       <c r="AF5" s="87"/>
@@ -4054,10 +4077,18 @@
       <c r="U6" s="74"/>
       <c r="V6" s="74"/>
       <c r="W6" s="21"/>
-      <c r="Y6" s="92"/>
-      <c r="Z6" s="92"/>
-      <c r="AA6" s="112"/>
-      <c r="AB6" s="92"/>
+      <c r="Y6" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="92" t="s">
+        <v>47</v>
+      </c>
       <c r="AC6" s="61"/>
       <c r="AE6" s="87"/>
       <c r="AF6" s="87"/>
@@ -4067,11 +4098,9 @@
       <c r="AN6" s="87"/>
     </row>
     <row r="7" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="A7" s="6"/>
       <c r="B7" s="78"/>
-      <c r="C7" s="117"/>
+      <c r="C7" s="102"/>
       <c r="D7" s="89"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -4094,7 +4123,7 @@
       <c r="W7" s="21"/>
       <c r="Y7" s="92"/>
       <c r="Z7" s="92"/>
-      <c r="AA7" s="112"/>
+      <c r="AA7" s="97"/>
       <c r="AB7" s="92"/>
       <c r="AC7" s="61"/>
       <c r="AE7" s="87"/>
@@ -4107,26 +4136,22 @@
     <row r="8" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="79"/>
-      <c r="C8" s="117"/>
+      <c r="C8" s="102"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
-      <c r="F8" s="28" t="str">
-        <f>Y4</f>
-        <v>id</v>
-      </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="95"/>
-      <c r="Q8" s="96"/>
+      <c r="J8" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="116"/>
       <c r="R8" s="28"/>
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
@@ -4135,7 +4160,7 @@
       <c r="W8" s="26"/>
       <c r="Y8" s="92"/>
       <c r="Z8" s="92"/>
-      <c r="AA8" s="112"/>
+      <c r="AA8" s="97"/>
       <c r="AB8" s="92"/>
       <c r="AC8" s="61"/>
       <c r="AE8" s="87"/>
@@ -4147,21 +4172,21 @@
     <row r="9" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="117"/>
+      <c r="C9" s="102"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
-      <c r="P9" s="98"/>
-      <c r="Q9" s="99"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="118"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="118"/>
+      <c r="O9" s="118"/>
+      <c r="P9" s="118"/>
+      <c r="Q9" s="119"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
@@ -4170,7 +4195,7 @@
       <c r="W9" s="26"/>
       <c r="Y9" s="92"/>
       <c r="Z9" s="92"/>
-      <c r="AA9" s="112"/>
+      <c r="AA9" s="97"/>
       <c r="AB9" s="92"/>
       <c r="AC9" s="61"/>
       <c r="AE9" s="87"/>
@@ -4182,21 +4207,21 @@
     <row r="10" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="117"/>
+      <c r="C10" s="102"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="99"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="118"/>
+      <c r="M10" s="118"/>
+      <c r="N10" s="118"/>
+      <c r="O10" s="118"/>
+      <c r="P10" s="118"/>
+      <c r="Q10" s="119"/>
       <c r="R10" s="28"/>
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
@@ -4205,7 +4230,7 @@
       <c r="W10" s="26"/>
       <c r="Y10" s="92"/>
       <c r="Z10" s="92"/>
-      <c r="AA10" s="112"/>
+      <c r="AA10" s="97"/>
       <c r="AB10" s="92"/>
       <c r="AC10" s="61"/>
       <c r="AE10" s="87"/>
@@ -4217,21 +4242,21 @@
     <row r="11" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="117"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
-      <c r="P11" s="98"/>
-      <c r="Q11" s="99"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="118"/>
+      <c r="N11" s="118"/>
+      <c r="O11" s="118"/>
+      <c r="P11" s="118"/>
+      <c r="Q11" s="119"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
@@ -4240,7 +4265,7 @@
       <c r="W11" s="26"/>
       <c r="Y11" s="92"/>
       <c r="Z11" s="92"/>
-      <c r="AA11" s="112"/>
+      <c r="AA11" s="97"/>
       <c r="AB11" s="92"/>
       <c r="AC11" s="61"/>
       <c r="AE11" s="87"/>
@@ -4252,21 +4277,21 @@
     <row r="12" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="28"/>
-      <c r="C12" s="117"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="101"/>
-      <c r="L12" s="101"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="101"/>
-      <c r="O12" s="101"/>
-      <c r="P12" s="101"/>
-      <c r="Q12" s="102"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="122"/>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
@@ -4277,7 +4302,7 @@
     <row r="13" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="117"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
       <c r="F13" s="28"/>
@@ -4296,32 +4321,32 @@
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
       <c r="U13" s="28"/>
-      <c r="V13" s="17"/>
+      <c r="V13" s="24"/>
       <c r="W13" s="26"/>
     </row>
     <row r="14" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="118"/>
-      <c r="P14" s="118"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="107"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="103"/>
+      <c r="T14" s="103"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="31"/>
       <c r="W14" s="26"/>
     </row>
     <row r="15" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4377,7 +4402,10 @@
     <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
+      <c r="C17" s="28" t="str">
+        <f>Y5</f>
+        <v>submit</v>
+      </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28"/>
@@ -4450,9 +4478,7 @@
       <c r="W19" s="7"/>
     </row>
     <row r="20" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>44</v>
-      </c>
+      <c r="A20" s="8"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -4577,31 +4603,31 @@
       <c r="W24" s="7"/>
     </row>
     <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="105" t="s">
+      <c r="A25" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="104"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="104"/>
-      <c r="P25" s="104"/>
-      <c r="Q25" s="104"/>
-      <c r="R25" s="104"/>
-      <c r="S25" s="104"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="104"/>
-      <c r="V25" s="104"/>
-      <c r="W25" s="106"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="109"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="109"/>
+      <c r="R25" s="109"/>
+      <c r="S25" s="109"/>
+      <c r="T25" s="109"/>
+      <c r="U25" s="109"/>
+      <c r="V25" s="109"/>
+      <c r="W25" s="110"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
@@ -5021,8 +5047,11 @@
     <mergeCell ref="J8:Q12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="Z2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -5044,7 +5073,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Copyright © 2008-2016 KPF</t>
     <phoneticPr fontId="1"/>
@@ -281,10 +281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>checkbox</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>radio</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -350,6 +346,49 @@
   <si>
     <t>ファイル</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>in1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>in2</t>
+  </si>
+  <si>
+    <t>in3</t>
+  </si>
+  <si>
+    <t>in4</t>
+  </si>
+  <si>
+    <t>in5</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>button</t>
   </si>
 </sst>
 </file>
@@ -743,7 +782,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1052,6 +1091,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1097,8 +1138,9 @@
     <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
@@ -3845,8 +3887,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AN16" sqref="AN16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3889,7 +3931,7 @@
       <c r="Y1" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="123"/>
+      <c r="Z1" s="108"/>
       <c r="AA1" s="99"/>
       <c r="AB1" s="99"/>
       <c r="AC1" s="64"/>
@@ -3897,17 +3939,17 @@
     </row>
     <row r="2" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="111"/>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="14"/>
@@ -3922,8 +3964,8 @@
       <c r="Y2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="124" t="s">
-        <v>45</v>
+      <c r="Z2" s="109" t="s">
+        <v>44</v>
       </c>
       <c r="AA2" s="96"/>
       <c r="AB2" s="96"/>
@@ -3958,7 +4000,7 @@
         <v>27</v>
       </c>
       <c r="Z3" s="100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA3" s="101"/>
       <c r="AB3" s="101"/>
@@ -4002,7 +4044,7 @@
         <v>25</v>
       </c>
       <c r="AC4" s="98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AN4" s="87"/>
     </row>
@@ -4034,18 +4076,20 @@
       <c r="V5" s="74"/>
       <c r="W5" s="21"/>
       <c r="Y5" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="92" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA5" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="Z5" s="92" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA5" s="88" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB5" s="92" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC5" s="61"/>
+      <c r="AC5" s="61" t="s">
+        <v>47</v>
+      </c>
       <c r="AE5" s="87"/>
       <c r="AF5" s="87"/>
       <c r="AG5" s="87"/>
@@ -4078,16 +4122,16 @@
       <c r="V6" s="74"/>
       <c r="W6" s="21"/>
       <c r="Y6" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA6" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="92" t="s">
         <v>46</v>
-      </c>
-      <c r="Z6" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA6" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB6" s="92" t="s">
-        <v>47</v>
       </c>
       <c r="AC6" s="61"/>
       <c r="AE6" s="87"/>
@@ -4121,10 +4165,18 @@
       <c r="U7" s="74"/>
       <c r="V7" s="20"/>
       <c r="W7" s="21"/>
-      <c r="Y7" s="92"/>
-      <c r="Z7" s="92"/>
-      <c r="AA7" s="97"/>
-      <c r="AB7" s="92"/>
+      <c r="Y7" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB7" s="92" t="s">
+        <v>51</v>
+      </c>
       <c r="AC7" s="61"/>
       <c r="AE7" s="87"/>
       <c r="AF7" s="87"/>
@@ -4142,25 +4194,31 @@
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="114" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="116"/>
+      <c r="J8" s="116" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118"/>
       <c r="R8" s="28"/>
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
       <c r="V8" s="17"/>
       <c r="W8" s="26"/>
-      <c r="Y8" s="92"/>
-      <c r="Z8" s="92"/>
-      <c r="AA8" s="97"/>
+      <c r="Y8" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z8" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA8" s="97" t="s">
+        <v>56</v>
+      </c>
       <c r="AB8" s="92"/>
       <c r="AC8" s="61"/>
       <c r="AE8" s="87"/>
@@ -4179,23 +4237,29 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="118"/>
-      <c r="L9" s="118"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="118"/>
-      <c r="O9" s="118"/>
-      <c r="P9" s="118"/>
-      <c r="Q9" s="119"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="121"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
       <c r="V9" s="17"/>
       <c r="W9" s="26"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="97"/>
+      <c r="Y9" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z9" s="92" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA9" s="97" t="s">
+        <v>57</v>
+      </c>
       <c r="AB9" s="92"/>
       <c r="AC9" s="61"/>
       <c r="AE9" s="87"/>
@@ -4214,23 +4278,29 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="118"/>
-      <c r="L10" s="118"/>
-      <c r="M10" s="118"/>
-      <c r="N10" s="118"/>
-      <c r="O10" s="118"/>
-      <c r="P10" s="118"/>
-      <c r="Q10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="121"/>
       <c r="R10" s="28"/>
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
       <c r="U10" s="28"/>
       <c r="V10" s="17"/>
       <c r="W10" s="26"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="97"/>
+      <c r="Y10" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z10" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA10" s="97" t="s">
+        <v>58</v>
+      </c>
       <c r="AB10" s="92"/>
       <c r="AC10" s="61"/>
       <c r="AE10" s="87"/>
@@ -4249,23 +4319,29 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="118"/>
-      <c r="L11" s="118"/>
-      <c r="M11" s="118"/>
-      <c r="N11" s="118"/>
-      <c r="O11" s="118"/>
-      <c r="P11" s="118"/>
-      <c r="Q11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="121"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
       <c r="U11" s="28"/>
       <c r="V11" s="17"/>
       <c r="W11" s="26"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="97"/>
+      <c r="Y11" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z11" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA11" s="97" t="s">
+        <v>59</v>
+      </c>
       <c r="AB11" s="92"/>
       <c r="AC11" s="61"/>
       <c r="AE11" s="87"/>
@@ -4284,14 +4360,14 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
-      <c r="O12" s="121"/>
-      <c r="P12" s="121"/>
-      <c r="Q12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
+      <c r="M12" s="123"/>
+      <c r="N12" s="123"/>
+      <c r="O12" s="123"/>
+      <c r="P12" s="123"/>
+      <c r="Q12" s="124"/>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
@@ -4401,30 +4477,30 @@
     </row>
     <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28" t="str">
+      <c r="B17" s="125" t="str">
         <f>Y5</f>
         <v>submit</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="34"/>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="125"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="125"/>
+      <c r="Q17" s="125"/>
+      <c r="R17" s="125"/>
+      <c r="S17" s="125"/>
+      <c r="T17" s="125"/>
+      <c r="U17" s="125"/>
+      <c r="V17" s="125"/>
       <c r="W17" s="32"/>
     </row>
     <row r="18" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4455,7 +4531,10 @@
     <row r="19" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="C19" s="2" t="str">
+        <f>Y7</f>
+        <v>in1</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -4480,7 +4559,6 @@
     <row r="20" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -4490,7 +4568,6 @@
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" s="13"/>
@@ -4505,7 +4582,10 @@
     <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
+      <c r="C21" s="2" t="str">
+        <f t="shared" ref="C20:C24" si="0">Y9</f>
+        <v>in3</v>
+      </c>
       <c r="D21" s="84"/>
       <c r="E21" s="84"/>
       <c r="F21" s="84"/>
@@ -4515,7 +4595,10 @@
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="M21" s="2" t="str">
+        <f>Y8</f>
+        <v>in2</v>
+      </c>
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
       <c r="P21" s="28"/>
@@ -4530,7 +4613,10 @@
     <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
+      <c r="C22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>in4</v>
+      </c>
       <c r="D22" s="84"/>
       <c r="E22" s="84"/>
       <c r="F22" s="84"/>
@@ -4555,7 +4641,10 @@
     <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
+      <c r="C23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>in5</v>
+      </c>
       <c r="D23" s="84"/>
       <c r="E23" s="84"/>
       <c r="F23" s="84"/>
@@ -4603,31 +4692,31 @@
       <c r="W24" s="7"/>
     </row>
     <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="108" t="s">
+      <c r="A25" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="109"/>
-      <c r="V25" s="109"/>
-      <c r="W25" s="110"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="111"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="112"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
@@ -5039,12 +5128,13 @@
       <c r="V42" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A25:W25"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="J8:Q12"/>
+    <mergeCell ref="B17:V17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -5073,14 +5163,14 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
@@ -5100,37 +5190,37 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -84,8 +84,130 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作成者</author>
+  </authors>
+  <commentList>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">作成者:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">作成者:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">作成者:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">作成者:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">作成者:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">作成者:
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">作成者:
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
   <si>
     <t>Copyright © 2008-2016 KPF</t>
     <phoneticPr fontId="1"/>
@@ -245,10 +367,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>action</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -352,9 +470,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>in1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -385,10 +500,19 @@
     <t>checkbox</t>
   </si>
   <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>radio</t>
-  </si>
-  <si>
-    <t>button</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25.5*1.88</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -782,7 +906,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -967,37 +1091,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1448,22 +1542,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AL42"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="2.625" style="12"/>
-    <col min="11" max="11" width="2.625" style="12" customWidth="1"/>
-    <col min="12" max="22" width="2.625" style="12"/>
-    <col min="23" max="23" width="2.625" style="13"/>
-    <col min="24" max="16384" width="2.625" style="12"/>
+    <col min="1" max="22" width="2.5" style="12" customWidth="1"/>
+    <col min="23" max="23" width="2.5" style="13" customWidth="1"/>
+    <col min="24" max="24" width="2.625" style="12"/>
+    <col min="25" max="25" width="8" style="12" customWidth="1"/>
+    <col min="26" max="26" width="9.125" style="12" customWidth="1"/>
+    <col min="27" max="27" width="7.875" style="12" customWidth="1"/>
+    <col min="28" max="28" width="9.125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="9.25" style="12" customWidth="1"/>
+    <col min="30" max="16384" width="2.625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1487,24 +1585,18 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="5"/>
-      <c r="Y1" s="62" t="s">
+      <c r="Y1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="64"/>
-    </row>
-    <row r="2" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="62"/>
+      <c r="AE1" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1530,24 +1622,17 @@
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
       <c r="W2" s="15"/>
-      <c r="Y2" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="38"/>
-    </row>
-    <row r="3" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y2" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="83"/>
+    </row>
+    <row r="3" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1571,22 +1656,17 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="7"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="68"/>
-    </row>
-    <row r="4" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y3" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="38"/>
+    </row>
+    <row r="4" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="41" t="s">
         <v>3</v>
@@ -1612,30 +1692,23 @@
       <c r="U4" s="19"/>
       <c r="V4" s="20"/>
       <c r="W4" s="21"/>
-      <c r="Y4" s="70" t="s">
+      <c r="Y4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="70" t="s">
+      <c r="AB4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="71"/>
-    </row>
-    <row r="5" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC4" s="88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="46" t="s">
         <v>4</v>
@@ -1663,22 +1736,23 @@
       <c r="U5" s="19"/>
       <c r="V5" s="20"/>
       <c r="W5" s="21"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="71"/>
-    </row>
-    <row r="6" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y5" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" s="61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="46" t="s">
         <v>5</v>
@@ -1706,22 +1780,21 @@
       <c r="U6" s="19"/>
       <c r="V6" s="20"/>
       <c r="W6" s="21"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="70"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="71"/>
-    </row>
-    <row r="7" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y6" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB6" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="61"/>
+    </row>
+    <row r="7" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="45" t="s">
         <v>6</v>
@@ -1747,22 +1820,21 @@
       <c r="U7" s="19"/>
       <c r="V7" s="20"/>
       <c r="W7" s="21"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="71"/>
-    </row>
-    <row r="8" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y7" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB7" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" s="61"/>
+    </row>
+    <row r="8" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="48" t="s">
         <v>7</v>
@@ -1788,22 +1860,19 @@
       <c r="U8" s="23"/>
       <c r="V8" s="24"/>
       <c r="W8" s="26"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="71"/>
-    </row>
-    <row r="9" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y8" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z8" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="61"/>
+    </row>
+    <row r="9" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="27"/>
       <c r="C9" s="28"/>
@@ -1829,22 +1898,19 @@
       <c r="U9" s="28"/>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="71"/>
-    </row>
-    <row r="10" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y9" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z9" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="61"/>
+    </row>
+    <row r="10" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="27"/>
       <c r="C10" s="28"/>
@@ -1870,8 +1936,19 @@
       <c r="U10" s="28"/>
       <c r="V10" s="26"/>
       <c r="W10" s="26"/>
-    </row>
-    <row r="11" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y10" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z10" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA10" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="61"/>
+    </row>
+    <row r="11" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="27"/>
       <c r="C11" s="28"/>
@@ -1897,8 +1974,19 @@
       <c r="U11" s="28"/>
       <c r="V11" s="26"/>
       <c r="W11" s="26"/>
-    </row>
-    <row r="12" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y11" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z11" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA11" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="61"/>
+    </row>
+    <row r="12" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28"/>
@@ -1923,7 +2011,7 @@
       <c r="V12" s="26"/>
       <c r="W12" s="26"/>
     </row>
-    <row r="13" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
@@ -1948,7 +2036,7 @@
       <c r="V13" s="24"/>
       <c r="W13" s="26"/>
     </row>
-    <row r="14" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="27"/>
       <c r="C14" s="28"/>
@@ -1973,7 +2061,7 @@
       <c r="V14" s="26"/>
       <c r="W14" s="26"/>
     </row>
-    <row r="15" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="49" t="s">
         <v>8</v>
@@ -2002,7 +2090,7 @@
       <c r="V15" s="32"/>
       <c r="W15" s="32"/>
     </row>
-    <row r="16" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="27"/>
       <c r="C16" s="28"/>
@@ -2026,9 +2114,8 @@
       <c r="U16" s="34"/>
       <c r="V16" s="32"/>
       <c r="W16" s="32"/>
-      <c r="AG16" s="69"/>
-    </row>
-    <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="27"/>
       <c r="C17" s="28"/>
@@ -2053,7 +2140,7 @@
       <c r="V17" s="32"/>
       <c r="W17" s="32"/>
     </row>
-    <row r="18" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="29"/>
       <c r="C18" s="30"/>
@@ -2078,7 +2165,7 @@
       <c r="V18" s="37"/>
       <c r="W18" s="32"/>
     </row>
-    <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2103,7 +2190,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="7"/>
     </row>
-    <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
@@ -2128,7 +2215,7 @@
       <c r="V20" s="39"/>
       <c r="W20" s="38"/>
     </row>
-    <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="44" t="s">
         <v>11</v>
@@ -2157,7 +2244,7 @@
       <c r="V21" s="17"/>
       <c r="W21" s="38"/>
     </row>
-    <row r="22" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="57" t="s">
         <v>12</v>
@@ -2186,7 +2273,7 @@
       <c r="V22" s="31"/>
       <c r="W22" s="38"/>
     </row>
-    <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="57" t="s">
         <v>14</v>
@@ -2213,7 +2300,7 @@
       <c r="V23" s="31"/>
       <c r="W23" s="7"/>
     </row>
-    <row r="24" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2238,7 +2325,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="7"/>
     </row>
-    <row r="25" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2676,31 +2763,50 @@
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
+  <hyperlinks>
+    <hyperlink ref="Z2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>data!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA5:AA11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:AL42"/>
+  <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="O12" sqref="O12:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="2.625" style="12"/>
-    <col min="11" max="11" width="2.625" style="12" customWidth="1"/>
-    <col min="12" max="22" width="2.625" style="12"/>
-    <col min="23" max="23" width="2.625" style="13"/>
-    <col min="24" max="16384" width="2.625" style="12"/>
+    <col min="1" max="22" width="2.5" style="12" customWidth="1"/>
+    <col min="23" max="23" width="2.5" style="13" customWidth="1"/>
+    <col min="24" max="24" width="2.625" style="12"/>
+    <col min="25" max="25" width="8" style="12" customWidth="1"/>
+    <col min="26" max="26" width="9.125" style="12" customWidth="1"/>
+    <col min="27" max="27" width="7.875" style="12" customWidth="1"/>
+    <col min="28" max="28" width="9.125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="9.25" style="12" customWidth="1"/>
+    <col min="30" max="16384" width="2.625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -2724,24 +2830,18 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="5"/>
-      <c r="Y1" s="62" t="s">
+      <c r="Y1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="64"/>
-    </row>
-    <row r="2" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="62"/>
+      <c r="AE1" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2765,24 +2865,17 @@
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
       <c r="W2" s="15"/>
-      <c r="Y2" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="13"/>
-      <c r="AB2" s="13"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
-      <c r="AJ2" s="13"/>
-      <c r="AK2" s="13"/>
-      <c r="AL2" s="38"/>
-    </row>
-    <row r="3" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y2" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="83"/>
+    </row>
+    <row r="3" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2806,24 +2899,19 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="7"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="68"/>
-    </row>
-    <row r="4" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y3" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="38"/>
+    </row>
+    <row r="4" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="73"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -2832,45 +2920,38 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
       <c r="W4" s="21"/>
-      <c r="Y4" s="70" t="s">
+      <c r="Y4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="70" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="70" t="s">
+      <c r="AB4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="71"/>
-    </row>
-    <row r="5" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AC4" s="88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="75"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
@@ -2879,37 +2960,38 @@
       <c r="H5" s="28"/>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="21"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72"/>
-      <c r="AH5" s="71"/>
-      <c r="AI5" s="70"/>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="71"/>
-    </row>
-    <row r="6" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y5" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z5" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC5" s="61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="75"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -2918,37 +3000,36 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
       <c r="W6" s="21"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="71"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="70"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
-      <c r="AG6" s="72"/>
-      <c r="AH6" s="71"/>
-      <c r="AI6" s="70"/>
-      <c r="AJ6" s="72"/>
-      <c r="AK6" s="72"/>
-      <c r="AL6" s="71"/>
-    </row>
-    <row r="7" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y6" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z6" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA6" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB6" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="61"/>
+    </row>
+    <row r="7" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="78"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
@@ -2957,37 +3038,36 @@
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
-      <c r="V7" s="74"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
       <c r="W7" s="21"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="71"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="71"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="71"/>
-    </row>
-    <row r="8" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y7" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB7" s="82" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" s="61"/>
+    </row>
+    <row r="8" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="79"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -2996,7 +3076,7 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="80"/>
+      <c r="K8" s="70"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
@@ -3009,22 +3089,19 @@
       <c r="U8" s="28"/>
       <c r="V8" s="28"/>
       <c r="W8" s="26"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="71"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="71"/>
-    </row>
-    <row r="9" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y8" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z8" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="61"/>
+    </row>
+    <row r="9" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -3035,7 +3112,7 @@
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="81"/>
+      <c r="K9" s="71"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -3048,22 +3125,19 @@
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
       <c r="W9" s="26"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="71"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="71"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="71"/>
-    </row>
-    <row r="10" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y9" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z9" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB9" s="82"/>
+      <c r="AC9" s="61"/>
+    </row>
+    <row r="10" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -3074,7 +3148,7 @@
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
-      <c r="K10" s="81"/>
+      <c r="K10" s="71"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
       <c r="N10" s="28"/>
@@ -3087,8 +3161,19 @@
       <c r="U10" s="28"/>
       <c r="V10" s="28"/>
       <c r="W10" s="26"/>
-    </row>
-    <row r="11" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y10" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z10" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA10" s="87" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="61"/>
+    </row>
+    <row r="11" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
@@ -3099,7 +3184,7 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="81"/>
+      <c r="K11" s="71"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
       <c r="N11" s="28"/>
@@ -3112,8 +3197,19 @@
       <c r="U11" s="28"/>
       <c r="V11" s="28"/>
       <c r="W11" s="26"/>
-    </row>
-    <row r="12" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y11" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z11" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA11" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" s="82"/>
+      <c r="AC11" s="61"/>
+    </row>
+    <row r="12" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
@@ -3138,7 +3234,7 @@
       <c r="V12" s="28"/>
       <c r="W12" s="26"/>
     </row>
-    <row r="13" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
@@ -3163,7 +3259,7 @@
       <c r="V13" s="28"/>
       <c r="W13" s="26"/>
     </row>
-    <row r="14" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
@@ -3188,9 +3284,9 @@
       <c r="V14" s="28"/>
       <c r="W14" s="26"/>
     </row>
-    <row r="15" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="75"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
@@ -3199,7 +3295,7 @@
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
-      <c r="K15" s="82"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
       <c r="N15" s="34"/>
@@ -3213,7 +3309,7 @@
       <c r="V15" s="34"/>
       <c r="W15" s="32"/>
     </row>
-    <row r="16" spans="1:38" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -3237,9 +3333,8 @@
       <c r="U16" s="34"/>
       <c r="V16" s="34"/>
       <c r="W16" s="32"/>
-      <c r="AG16" s="69"/>
-    </row>
-    <row r="17" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -3264,7 +3359,7 @@
       <c r="V17" s="34"/>
       <c r="W17" s="32"/>
     </row>
-    <row r="18" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
@@ -3289,7 +3384,7 @@
       <c r="V18" s="34"/>
       <c r="W18" s="32"/>
     </row>
-    <row r="19" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -3314,7 +3409,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="7"/>
     </row>
-    <row r="20" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -3339,16 +3434,16 @@
       <c r="V20" s="13"/>
       <c r="W20" s="38"/>
     </row>
-    <row r="21" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
@@ -3364,16 +3459,16 @@
       <c r="V21" s="28"/>
       <c r="W21" s="38"/>
     </row>
-    <row r="22" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
@@ -3389,16 +3484,16 @@
       <c r="V22" s="28"/>
       <c r="W22" s="38"/>
     </row>
-    <row r="23" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
@@ -3414,7 +3509,7 @@
       <c r="V23" s="28"/>
       <c r="W23" s="7"/>
     </row>
-    <row r="24" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3439,7 +3534,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="7"/>
     </row>
-    <row r="25" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3877,18 +3972,33 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="Z2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>data!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA5:AA11</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3918,7 +4028,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="104"/>
+      <c r="N1" s="94"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -3928,28 +4038,31 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="5"/>
-      <c r="Y1" s="85" t="s">
+      <c r="Y1" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="108"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="64"/>
-      <c r="AN1" s="87"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="62"/>
+      <c r="AE1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN1" s="77"/>
     </row>
     <row r="2" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="14"/>
@@ -3961,32 +4074,32 @@
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
       <c r="W2" s="15"/>
-      <c r="Y2" s="85" t="s">
+      <c r="Y2" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="96"/>
-      <c r="AC2" s="93"/>
-      <c r="AN2" s="87"/>
+      <c r="Z2" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="83"/>
+      <c r="AN2" s="77"/>
     </row>
     <row r="3" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="105"/>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106"/>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106"/>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="107"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -3996,20 +4109,20 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="7"/>
-      <c r="Y3" s="85" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" s="100" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
+      <c r="Y3" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
       <c r="AC3" s="38"/>
-      <c r="AN3" s="87"/>
+      <c r="AN3" s="77"/>
     </row>
     <row r="4" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
-      <c r="B4" s="73"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
@@ -4018,88 +4131,88 @@
       <c r="H4" s="28"/>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
-      <c r="Q4" s="74"/>
-      <c r="R4" s="74"/>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
-      <c r="V4" s="74"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
       <c r="W4" s="21"/>
-      <c r="Y4" s="86" t="s">
+      <c r="Y4" s="76" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z4" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA4" s="86" t="s">
+      <c r="AB4" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="AB4" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC4" s="98" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN4" s="87"/>
+      <c r="AC4" s="88" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN4" s="77"/>
     </row>
     <row r="5" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
-      <c r="B5" s="75"/>
+      <c r="B5" s="65"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="94" t="str">
+      <c r="E5" s="84" t="str">
         <f>Y6</f>
         <v>file</v>
       </c>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80"/>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
       <c r="W5" s="21"/>
-      <c r="Y5" s="92" t="s">
+      <c r="Y5" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB5" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="Z5" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA5" s="88" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB5" s="92" t="s">
-        <v>42</v>
-      </c>
       <c r="AC5" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AN5" s="87"/>
+        <v>46</v>
+      </c>
+      <c r="AE5" s="77"/>
+      <c r="AF5" s="77"/>
+      <c r="AG5" s="77"/>
+      <c r="AH5" s="77"/>
+      <c r="AI5" s="77"/>
+      <c r="AN5" s="77"/>
     </row>
     <row r="6" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
-      <c r="B6" s="75"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
       <c r="E6" s="28"/>
@@ -4108,266 +4221,266 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="74"/>
-      <c r="V6" s="74"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
       <c r="W6" s="21"/>
-      <c r="Y6" s="92" t="s">
+      <c r="Y6" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z6" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB6" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="Z6" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA6" s="97" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB6" s="92" t="s">
-        <v>46</v>
-      </c>
       <c r="AC6" s="61"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="87"/>
-      <c r="AH6" s="87"/>
-      <c r="AI6" s="87"/>
-      <c r="AN6" s="87"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
+      <c r="AN6" s="77"/>
     </row>
     <row r="7" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="102"/>
-      <c r="D7" s="89"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="28"/>
       <c r="J7" s="28"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
-      <c r="T7" s="74"/>
-      <c r="U7" s="74"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
       <c r="V7" s="20"/>
       <c r="W7" s="21"/>
-      <c r="Y7" s="92" t="s">
+      <c r="Y7" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA7" s="87" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB7" s="82" t="s">
         <v>49</v>
       </c>
-      <c r="Z7" s="92" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA7" s="97" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB7" s="92" t="s">
-        <v>51</v>
-      </c>
       <c r="AC7" s="61"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="87"/>
-      <c r="AN7" s="87"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="77"/>
+      <c r="AG7" s="77"/>
+      <c r="AH7" s="77"/>
+      <c r="AI7" s="77"/>
+      <c r="AN7" s="77"/>
     </row>
     <row r="8" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="102"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="92"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="116" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="118"/>
+      <c r="J8" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108"/>
       <c r="R8" s="28"/>
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
       <c r="V8" s="17"/>
       <c r="W8" s="26"/>
-      <c r="Y8" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z8" s="92" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA8" s="97" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB8" s="92"/>
+      <c r="Y8" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z8" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA8" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB8" s="82"/>
       <c r="AC8" s="61"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="77"/>
+      <c r="AI8" s="77"/>
     </row>
     <row r="9" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="102"/>
+      <c r="C9" s="92"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="119"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="121"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="110"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="111"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
       <c r="V9" s="17"/>
       <c r="W9" s="26"/>
-      <c r="Y9" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z9" s="92" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA9" s="97" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB9" s="92"/>
+      <c r="Y9" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z9" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB9" s="82"/>
       <c r="AC9" s="61"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
+      <c r="AE9" s="77"/>
+      <c r="AF9" s="77"/>
+      <c r="AG9" s="77"/>
+      <c r="AH9" s="77"/>
+      <c r="AI9" s="77"/>
     </row>
     <row r="10" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="102"/>
+      <c r="C10" s="92"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="121"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="110"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="110"/>
+      <c r="N10" s="110"/>
+      <c r="O10" s="110"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="111"/>
       <c r="R10" s="28"/>
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
       <c r="U10" s="28"/>
       <c r="V10" s="17"/>
       <c r="W10" s="26"/>
-      <c r="Y10" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z10" s="92" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA10" s="97" t="s">
+      <c r="Y10" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z10" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA10" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="AB10" s="92"/>
+      <c r="AB10" s="82"/>
       <c r="AC10" s="61"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
+      <c r="AE10" s="77"/>
+      <c r="AF10" s="77"/>
+      <c r="AG10" s="77"/>
+      <c r="AH10" s="77"/>
+      <c r="AI10" s="77"/>
     </row>
     <row r="11" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="102"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="121"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="110"/>
+      <c r="L11" s="110"/>
+      <c r="M11" s="110"/>
+      <c r="N11" s="110"/>
+      <c r="O11" s="110"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="111"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
       <c r="U11" s="28"/>
       <c r="V11" s="17"/>
       <c r="W11" s="26"/>
-      <c r="Y11" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z11" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA11" s="97" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB11" s="92"/>
+      <c r="Y11" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z11" s="82" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA11" s="87" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB11" s="82"/>
       <c r="AC11" s="61"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="87"/>
+      <c r="AE11" s="77"/>
+      <c r="AF11" s="77"/>
+      <c r="AG11" s="77"/>
+      <c r="AH11" s="77"/>
+      <c r="AI11" s="77"/>
     </row>
     <row r="12" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="28"/>
-      <c r="C12" s="102"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
-      <c r="M12" s="123"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="124"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="114"/>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
@@ -4405,29 +4518,29 @@
       <c r="B14" s="28"/>
       <c r="C14" s="29"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="103"/>
-      <c r="M14" s="103"/>
-      <c r="N14" s="103"/>
-      <c r="O14" s="103"/>
-      <c r="P14" s="103"/>
-      <c r="Q14" s="103"/>
-      <c r="R14" s="103"/>
-      <c r="S14" s="103"/>
-      <c r="T14" s="103"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="93"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
       <c r="U14" s="29"/>
       <c r="V14" s="31"/>
       <c r="W14" s="26"/>
     </row>
     <row r="15" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
-      <c r="B15" s="75"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
       <c r="E15" s="50"/>
@@ -4436,7 +4549,7 @@
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
-      <c r="K15" s="82"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
       <c r="N15" s="34"/>
@@ -4477,30 +4590,30 @@
     </row>
     <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="125" t="str">
+      <c r="B17" s="115" t="str">
         <f>Y5</f>
         <v>submit</v>
       </c>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="125"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="125"/>
-      <c r="H17" s="125"/>
-      <c r="I17" s="125"/>
-      <c r="J17" s="125"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="125"/>
-      <c r="T17" s="125"/>
-      <c r="U17" s="125"/>
-      <c r="V17" s="125"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="115"/>
+      <c r="P17" s="115"/>
+      <c r="Q17" s="115"/>
+      <c r="R17" s="115"/>
+      <c r="S17" s="115"/>
+      <c r="T17" s="115"/>
+      <c r="U17" s="115"/>
+      <c r="V17" s="115"/>
       <c r="W17" s="32"/>
     </row>
     <row r="18" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4581,17 +4694,17 @@
     </row>
     <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="83"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="2" t="str">
-        <f t="shared" ref="C20:C24" si="0">Y9</f>
+        <f t="shared" ref="C21:C23" si="0">Y9</f>
         <v>in3</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
@@ -4612,17 +4725,17 @@
     </row>
     <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
-      <c r="B22" s="83"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>in4</v>
       </c>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
@@ -4640,17 +4753,17 @@
     </row>
     <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
-      <c r="B23" s="83"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>in5</v>
       </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
@@ -4692,31 +4805,31 @@
       <c r="W24" s="7"/>
     </row>
     <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="111"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="111"/>
-      <c r="N25" s="111"/>
-      <c r="O25" s="111"/>
-      <c r="P25" s="111"/>
-      <c r="Q25" s="111"/>
-      <c r="R25" s="111"/>
-      <c r="S25" s="111"/>
-      <c r="T25" s="111"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="111"/>
-      <c r="W25" s="112"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
+      <c r="O25" s="101"/>
+      <c r="P25" s="101"/>
+      <c r="Q25" s="101"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="101"/>
+      <c r="T25" s="101"/>
+      <c r="U25" s="101"/>
+      <c r="V25" s="101"/>
+      <c r="W25" s="102"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
@@ -5142,6 +5255,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -5170,57 +5284,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="78" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="78" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="88" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="78" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="88" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="88" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="78" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="88" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="78" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="88" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
   <si>
     <t>Copyright © 2008-2016 KPF</t>
     <phoneticPr fontId="1"/>
@@ -512,6 +512,10 @@
   </si>
   <si>
     <t>25.5*1.88</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://localhost:9000/profile/</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3998,7 +4002,7 @@
   <dimension ref="A1:AN42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="Z3" sqref="Z3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4078,7 +4082,7 @@
         <v>20</v>
       </c>
       <c r="Z2" s="99" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="AA2" s="86"/>
       <c r="AB2" s="86"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="17" r:id="rId1"/>
@@ -207,11 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="61">
-  <si>
-    <t>Copyright © 2008-2016 KPF</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
   <si>
     <t>↑</t>
     <phoneticPr fontId="1"/>
@@ -518,6 +514,140 @@
     <t>http://localhost:9000/profile/</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>技　術　者　経　歴　書</t>
+  </si>
+  <si>
+    <t>フリガナ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>氏　　名</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>最 寄 駅</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>現 住 所</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> EB　タロウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EB　太郎</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京都</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八丁堀</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>●</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Copyright © 2008-2016 EB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>在日年数</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>未婚</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>2008-5-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>生年月日</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>婚姻状況</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>基本情報技術者
+（2005年1月取得）
+日本語能力試験1級
+（2005年2月取得）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日本語能力試験一級
+業務会話流暢
+日常会話読み書き可</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　structs経験者
+　リーダ経験あり</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>性 　別</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>本 　籍</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>資 　格</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>備 　考</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>日 本 語
+英    語</t>
+    <rPh sb="7" eb="8">
+      <t>エイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -526,7 +656,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,8 +855,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,8 +915,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -902,6 +1084,290 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -910,7 +1376,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1105,9 +1571,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1238,6 +1701,249 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1548,8 +2254,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1589,15 +2295,15 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="5"/>
-      <c r="Y1" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
+      <c r="Y1" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
       <c r="AC1" s="62"/>
       <c r="AE1" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1609,7 +2315,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="14"/>
       <c r="H2" s="40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="13"/>
       <c r="J2" s="14"/>
@@ -1626,15 +2332,15 @@
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
       <c r="W2" s="15"/>
-      <c r="Y2" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="83"/>
+      <c r="Y2" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
@@ -1660,20 +2366,20 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="7"/>
-      <c r="Y3" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
+      <c r="Y3" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
       <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="41" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
@@ -1696,26 +2402,26 @@
       <c r="U4" s="19"/>
       <c r="V4" s="20"/>
       <c r="W4" s="21"/>
-      <c r="Y4" s="76" t="s">
+      <c r="Y4" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="76" t="s">
+      <c r="AB4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AB4" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC4" s="88" t="s">
-        <v>36</v>
+      <c r="AC4" s="87" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
@@ -1726,7 +2432,7 @@
       <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
@@ -1740,26 +2446,26 @@
       <c r="U5" s="19"/>
       <c r="V5" s="20"/>
       <c r="W5" s="21"/>
-      <c r="Y5" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z5" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA5" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB5" s="82" t="s">
-        <v>41</v>
+      <c r="Y5" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" s="81" t="s">
+        <v>40</v>
       </c>
       <c r="AC5" s="61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
@@ -1770,7 +2476,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
       <c r="K6" s="43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -1784,24 +2490,24 @@
       <c r="U6" s="19"/>
       <c r="V6" s="20"/>
       <c r="W6" s="21"/>
-      <c r="Y6" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z6" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA6" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB6" s="82" t="s">
-        <v>45</v>
+      <c r="Y6" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="81" t="s">
+        <v>44</v>
       </c>
       <c r="AC6" s="61"/>
     </row>
     <row r="7" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
@@ -1824,24 +2530,24 @@
       <c r="U7" s="19"/>
       <c r="V7" s="20"/>
       <c r="W7" s="21"/>
-      <c r="Y7" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z7" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA7" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB7" s="82" t="s">
-        <v>49</v>
+      <c r="Y7" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" s="81" t="s">
+        <v>48</v>
       </c>
       <c r="AC7" s="61"/>
     </row>
     <row r="8" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -1864,16 +2570,16 @@
       <c r="U8" s="23"/>
       <c r="V8" s="24"/>
       <c r="W8" s="26"/>
-      <c r="Y8" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z8" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA8" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB8" s="82"/>
+      <c r="Y8" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB8" s="81"/>
       <c r="AC8" s="61"/>
     </row>
     <row r="9" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1888,7 +2594,7 @@
       <c r="I9" s="28"/>
       <c r="J9" s="26"/>
       <c r="K9" s="47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
@@ -1902,16 +2608,16 @@
       <c r="U9" s="28"/>
       <c r="V9" s="26"/>
       <c r="W9" s="26"/>
-      <c r="Y9" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z9" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA9" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB9" s="82"/>
+      <c r="Y9" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB9" s="81"/>
       <c r="AC9" s="61"/>
     </row>
     <row r="10" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1926,7 +2632,7 @@
       <c r="I10" s="28"/>
       <c r="J10" s="26"/>
       <c r="K10" s="47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
@@ -1940,16 +2646,16 @@
       <c r="U10" s="28"/>
       <c r="V10" s="26"/>
       <c r="W10" s="26"/>
-      <c r="Y10" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z10" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA10" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB10" s="82"/>
+      <c r="Y10" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z10" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB10" s="81"/>
       <c r="AC10" s="61"/>
     </row>
     <row r="11" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1964,7 +2670,7 @@
       <c r="I11" s="28"/>
       <c r="J11" s="26"/>
       <c r="K11" s="47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
@@ -1978,16 +2684,16 @@
       <c r="U11" s="28"/>
       <c r="V11" s="26"/>
       <c r="W11" s="26"/>
-      <c r="Y11" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z11" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA11" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB11" s="82"/>
+      <c r="Y11" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB11" s="81"/>
       <c r="AC11" s="61"/>
     </row>
     <row r="12" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2068,7 +2774,7 @@
     <row r="15" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
@@ -2079,7 +2785,7 @@
       <c r="I15" s="50"/>
       <c r="J15" s="51"/>
       <c r="K15" s="52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
@@ -2222,7 +2928,7 @@
     <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
       <c r="B21" s="44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="54"/>
       <c r="D21" s="54"/>
@@ -2230,7 +2936,7 @@
       <c r="F21" s="54"/>
       <c r="G21" s="55"/>
       <c r="H21" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="16"/>
@@ -2251,7 +2957,7 @@
     <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
       <c r="B22" s="57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="58"/>
       <c r="D22" s="58"/>
@@ -2259,7 +2965,7 @@
       <c r="F22" s="58"/>
       <c r="G22" s="59"/>
       <c r="H22" s="60" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I22" s="58"/>
       <c r="J22" s="30"/>
@@ -2280,7 +2986,7 @@
     <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="58"/>
       <c r="D23" s="58"/>
@@ -2338,7 +3044,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -2369,7 +3075,7 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
@@ -2793,8 +3499,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12:O13"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2811,230 +3517,280 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="5"/>
-      <c r="Y1" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
+      <c r="A1" s="115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="117"/>
+      <c r="Y1" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
       <c r="AC1" s="62"/>
       <c r="AE1" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="15"/>
-      <c r="Y2" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="83"/>
+      <c r="A2" s="122" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="123"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="136" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="122" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="123"/>
+      <c r="J2" s="124"/>
+      <c r="K2" s="168" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="169"/>
+      <c r="M2" s="170"/>
+      <c r="N2" s="171" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" s="142"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="172" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="173"/>
+      <c r="V2" s="173"/>
+      <c r="W2" s="174"/>
+      <c r="Y2" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="7"/>
-      <c r="Y3" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
+      <c r="A3" s="118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="119"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="139" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="150" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="151"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="156" t="s">
+        <v>78</v>
+      </c>
+      <c r="L3" s="157"/>
+      <c r="M3" s="158"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="154"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="175"/>
+      <c r="R3" s="176"/>
+      <c r="S3" s="176"/>
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="177"/>
+      <c r="Y3" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
       <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="21"/>
-      <c r="Y4" s="76" t="s">
+      <c r="A4" s="118" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="119"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="150" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" s="151"/>
+      <c r="P4" s="152"/>
+      <c r="Q4" s="178" t="s">
+        <v>81</v>
+      </c>
+      <c r="R4" s="179"/>
+      <c r="S4" s="179"/>
+      <c r="T4" s="179"/>
+      <c r="U4" s="179"/>
+      <c r="V4" s="179"/>
+      <c r="W4" s="180"/>
+      <c r="Y4" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="76" t="s">
+      <c r="AB4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AB4" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC4" s="88" t="s">
-        <v>36</v>
+      <c r="AC4" s="87" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="21"/>
-      <c r="Y5" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z5" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA5" s="78" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB5" s="82" t="s">
-        <v>41</v>
+      <c r="A5" s="118" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="139" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" s="119"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="162" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="163"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="154"/>
+      <c r="P5" s="155"/>
+      <c r="Q5" s="175"/>
+      <c r="R5" s="176"/>
+      <c r="S5" s="176"/>
+      <c r="T5" s="176"/>
+      <c r="U5" s="176"/>
+      <c r="V5" s="176"/>
+      <c r="W5" s="177"/>
+      <c r="Y5" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" s="81" t="s">
+        <v>40</v>
       </c>
       <c r="AC5" s="61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="21"/>
-      <c r="Y6" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z6" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA6" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB6" s="82" t="s">
-        <v>45</v>
+      <c r="A6" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="145"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="144" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="145"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="165" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="166"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="144" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" s="145"/>
+      <c r="P6" s="147"/>
+      <c r="Q6" s="181" t="s">
+        <v>83</v>
+      </c>
+      <c r="R6" s="182"/>
+      <c r="S6" s="182"/>
+      <c r="T6" s="182"/>
+      <c r="U6" s="182"/>
+      <c r="V6" s="182"/>
+      <c r="W6" s="183"/>
+      <c r="Y6" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z6" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" s="86" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB6" s="81" t="s">
+        <v>44</v>
       </c>
       <c r="AC6" s="61"/>
     </row>
     <row r="7" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="28"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -3055,24 +3811,24 @@
       <c r="U7" s="64"/>
       <c r="V7" s="64"/>
       <c r="W7" s="21"/>
-      <c r="Y7" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z7" s="82" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA7" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB7" s="82" t="s">
-        <v>49</v>
+      <c r="Y7" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" s="81" t="s">
+        <v>48</v>
       </c>
       <c r="AC7" s="61"/>
     </row>
     <row r="8" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="135"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -3080,7 +3836,7 @@
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="70"/>
+      <c r="K8" s="69"/>
       <c r="L8" s="28"/>
       <c r="M8" s="28"/>
       <c r="N8" s="28"/>
@@ -3093,22 +3849,22 @@
       <c r="U8" s="28"/>
       <c r="V8" s="28"/>
       <c r="W8" s="26"/>
-      <c r="Y8" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z8" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA8" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB8" s="82"/>
+      <c r="Y8" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB8" s="81"/>
       <c r="AC8" s="61"/>
     </row>
     <row r="9" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -3116,7 +3872,7 @@
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
       <c r="J9" s="28"/>
-      <c r="K9" s="71"/>
+      <c r="K9" s="70"/>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
@@ -3129,16 +3885,16 @@
       <c r="U9" s="28"/>
       <c r="V9" s="28"/>
       <c r="W9" s="26"/>
-      <c r="Y9" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z9" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA9" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB9" s="82"/>
+      <c r="Y9" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB9" s="81"/>
       <c r="AC9" s="61"/>
     </row>
     <row r="10" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3146,13 +3902,23 @@
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="E10" s="130" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="131" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="131" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="131" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="126" t="s">
+        <v>70</v>
+      </c>
       <c r="J10" s="28"/>
-      <c r="K10" s="71"/>
+      <c r="K10" s="70"/>
       <c r="L10" s="28"/>
       <c r="M10" s="28"/>
       <c r="N10" s="28"/>
@@ -3165,16 +3931,16 @@
       <c r="U10" s="28"/>
       <c r="V10" s="28"/>
       <c r="W10" s="26"/>
-      <c r="Y10" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z10" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA10" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB10" s="82"/>
+      <c r="Y10" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z10" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB10" s="81"/>
       <c r="AC10" s="61"/>
     </row>
     <row r="11" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3182,13 +3948,13 @@
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="71"/>
+      <c r="K11" s="70"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
       <c r="N11" s="28"/>
@@ -3201,16 +3967,16 @@
       <c r="U11" s="28"/>
       <c r="V11" s="28"/>
       <c r="W11" s="26"/>
-      <c r="Y11" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z11" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA11" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB11" s="82"/>
+      <c r="Y11" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB11" s="81"/>
       <c r="AC11" s="61"/>
     </row>
     <row r="12" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3218,11 +3984,11 @@
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="127"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -3243,11 +4009,11 @@
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="129"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
@@ -3299,7 +4065,7 @@
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="71"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
       <c r="N15" s="34"/>
@@ -3440,14 +4206,14 @@
     </row>
     <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
@@ -3465,14 +4231,14 @@
     </row>
     <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
@@ -3490,14 +4256,14 @@
     </row>
     <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
@@ -3547,7 +4313,7 @@
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10" t="s">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -3578,7 +4344,7 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
@@ -3975,7 +4741,41 @@
       <c r="V42" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
+  <mergeCells count="32">
+    <mergeCell ref="Q2:W3"/>
+    <mergeCell ref="Q4:W5"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N2:P3"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
   <hyperlinks>
     <hyperlink ref="Z2" r:id="rId1"/>
   </hyperlinks>
@@ -4001,8 +4801,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4032,7 +4832,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="94"/>
+      <c r="N1" s="93"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -4042,31 +4842,31 @@
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="5"/>
-      <c r="Y1" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="89"/>
-      <c r="AB1" s="89"/>
+      <c r="Y1" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
       <c r="AC1" s="62"/>
       <c r="AE1" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN1" s="77"/>
+        <v>58</v>
+      </c>
+      <c r="AN1" s="76"/>
     </row>
     <row r="2" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="14"/>
@@ -4078,32 +4878,32 @@
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
       <c r="W2" s="15"/>
-      <c r="Y2" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z2" s="99" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="83"/>
-      <c r="AN2" s="77"/>
+      <c r="Y2" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="82"/>
+      <c r="AN2" s="76"/>
     </row>
     <row r="3" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="96"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -4113,16 +4913,16 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="7"/>
-      <c r="Y3" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z3" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="91"/>
-      <c r="AB3" s="91"/>
+      <c r="Y3" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
       <c r="AC3" s="38"/>
-      <c r="AN3" s="77"/>
+      <c r="AN3" s="76"/>
     </row>
     <row r="4" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
@@ -4148,42 +4948,42 @@
       <c r="U4" s="64"/>
       <c r="V4" s="64"/>
       <c r="W4" s="21"/>
-      <c r="Y4" s="76" t="s">
+      <c r="Y4" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="Z4" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA4" s="76" t="s">
+      <c r="AB4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="AB4" s="76" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC4" s="88" t="s">
-        <v>36</v>
-      </c>
-      <c r="AN4" s="77"/>
+      <c r="AC4" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN4" s="76"/>
     </row>
     <row r="5" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="65"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="84" t="str">
+      <c r="E5" s="83" t="str">
         <f>Y6</f>
         <v>file</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="80"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="81"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="80"/>
       <c r="P5" s="64"/>
       <c r="Q5" s="64"/>
       <c r="R5" s="64"/>
@@ -4192,27 +4992,27 @@
       <c r="U5" s="64"/>
       <c r="V5" s="64"/>
       <c r="W5" s="21"/>
-      <c r="Y5" s="82" t="s">
+      <c r="Y5" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="78" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB5" s="82" t="s">
-        <v>41</v>
-      </c>
       <c r="AC5" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE5" s="77"/>
-      <c r="AF5" s="77"/>
-      <c r="AG5" s="77"/>
-      <c r="AH5" s="77"/>
-      <c r="AI5" s="77"/>
-      <c r="AN5" s="77"/>
+        <v>45</v>
+      </c>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="76"/>
+      <c r="AI5" s="76"/>
+      <c r="AN5" s="76"/>
     </row>
     <row r="6" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
@@ -4225,7 +5025,7 @@
       <c r="H6" s="28"/>
       <c r="I6" s="28"/>
       <c r="J6" s="28"/>
-      <c r="K6" s="67"/>
+      <c r="K6" s="66"/>
       <c r="L6" s="64"/>
       <c r="M6" s="64"/>
       <c r="N6" s="64"/>
@@ -4238,31 +5038,31 @@
       <c r="U6" s="64"/>
       <c r="V6" s="64"/>
       <c r="W6" s="21"/>
-      <c r="Y6" s="82" t="s">
+      <c r="Y6" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="Z6" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA6" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB6" s="82" t="s">
-        <v>45</v>
-      </c>
       <c r="AC6" s="61"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
-      <c r="AN6" s="77"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AN6" s="76"/>
     </row>
     <row r="7" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="79"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
@@ -4282,209 +5082,209 @@
       <c r="U7" s="64"/>
       <c r="V7" s="20"/>
       <c r="W7" s="21"/>
-      <c r="Y7" s="82" t="s">
+      <c r="Y7" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="Z7" s="82" t="s">
+      <c r="AA7" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="AA7" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB7" s="82" t="s">
-        <v>49</v>
-      </c>
       <c r="AC7" s="61"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="77"/>
-      <c r="AG7" s="77"/>
-      <c r="AH7" s="77"/>
-      <c r="AI7" s="77"/>
-      <c r="AN7" s="77"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="76"/>
+      <c r="AN7" s="76"/>
     </row>
     <row r="8" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="92"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108"/>
+      <c r="J8" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="107"/>
       <c r="R8" s="28"/>
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
       <c r="V8" s="17"/>
       <c r="W8" s="26"/>
-      <c r="Y8" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z8" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA8" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="AB8" s="82"/>
+      <c r="Y8" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB8" s="81"/>
       <c r="AC8" s="61"/>
-      <c r="AE8" s="77"/>
-      <c r="AF8" s="77"/>
-      <c r="AG8" s="77"/>
-      <c r="AH8" s="77"/>
-      <c r="AI8" s="77"/>
+      <c r="AE8" s="76"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="76"/>
     </row>
     <row r="9" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="92"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="110"/>
-      <c r="P9" s="110"/>
-      <c r="Q9" s="111"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="109"/>
+      <c r="M9" s="109"/>
+      <c r="N9" s="109"/>
+      <c r="O9" s="109"/>
+      <c r="P9" s="109"/>
+      <c r="Q9" s="110"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
       <c r="V9" s="17"/>
       <c r="W9" s="26"/>
-      <c r="Y9" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z9" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA9" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB9" s="82"/>
+      <c r="Y9" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB9" s="81"/>
       <c r="AC9" s="61"/>
-      <c r="AE9" s="77"/>
-      <c r="AF9" s="77"/>
-      <c r="AG9" s="77"/>
-      <c r="AH9" s="77"/>
-      <c r="AI9" s="77"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
     </row>
     <row r="10" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="92"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="28"/>
       <c r="E10" s="28"/>
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="110"/>
-      <c r="L10" s="110"/>
-      <c r="M10" s="110"/>
-      <c r="N10" s="110"/>
-      <c r="O10" s="110"/>
-      <c r="P10" s="110"/>
-      <c r="Q10" s="111"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="109"/>
+      <c r="P10" s="109"/>
+      <c r="Q10" s="110"/>
       <c r="R10" s="28"/>
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
       <c r="U10" s="28"/>
       <c r="V10" s="17"/>
       <c r="W10" s="26"/>
-      <c r="Y10" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z10" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA10" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB10" s="82"/>
+      <c r="Y10" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z10" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB10" s="81"/>
       <c r="AC10" s="61"/>
-      <c r="AE10" s="77"/>
-      <c r="AF10" s="77"/>
-      <c r="AG10" s="77"/>
-      <c r="AH10" s="77"/>
-      <c r="AI10" s="77"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
     </row>
     <row r="11" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="92"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="28"/>
       <c r="E11" s="28"/>
       <c r="F11" s="28"/>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
-      <c r="O11" s="110"/>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="111"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="109"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="110"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
       <c r="U11" s="28"/>
       <c r="V11" s="17"/>
       <c r="W11" s="26"/>
-      <c r="Y11" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z11" s="82" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA11" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="AB11" s="82"/>
+      <c r="Y11" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB11" s="81"/>
       <c r="AC11" s="61"/>
-      <c r="AE11" s="77"/>
-      <c r="AF11" s="77"/>
-      <c r="AG11" s="77"/>
-      <c r="AH11" s="77"/>
-      <c r="AI11" s="77"/>
+      <c r="AE11" s="76"/>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="76"/>
+      <c r="AI11" s="76"/>
     </row>
     <row r="12" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="28"/>
-      <c r="C12" s="92"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="114"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+      <c r="N12" s="112"/>
+      <c r="O12" s="112"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="113"/>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
@@ -4522,22 +5322,22 @@
       <c r="B14" s="28"/>
       <c r="C14" s="29"/>
       <c r="D14" s="31"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="93"/>
-      <c r="L14" s="93"/>
-      <c r="M14" s="93"/>
-      <c r="N14" s="93"/>
-      <c r="O14" s="93"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="93"/>
-      <c r="S14" s="93"/>
-      <c r="T14" s="93"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="92"/>
+      <c r="Q14" s="92"/>
+      <c r="R14" s="92"/>
+      <c r="S14" s="92"/>
+      <c r="T14" s="92"/>
       <c r="U14" s="29"/>
       <c r="V14" s="31"/>
       <c r="W14" s="26"/>
@@ -4553,7 +5353,7 @@
       <c r="H15" s="50"/>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="71"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
       <c r="N15" s="34"/>
@@ -4594,30 +5394,30 @@
     </row>
     <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="115" t="str">
+      <c r="B17" s="114" t="str">
         <f>Y5</f>
         <v>submit</v>
       </c>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="115"/>
+      <c r="C17" s="114"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="114"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="114"/>
+      <c r="Q17" s="114"/>
+      <c r="R17" s="114"/>
+      <c r="S17" s="114"/>
+      <c r="T17" s="114"/>
+      <c r="U17" s="114"/>
+      <c r="V17" s="114"/>
       <c r="W17" s="32"/>
     </row>
     <row r="18" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -4698,17 +5498,17 @@
     </row>
     <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8"/>
-      <c r="B21" s="73"/>
+      <c r="B21" s="72"/>
       <c r="C21" s="2" t="str">
         <f t="shared" ref="C21:C23" si="0">Y9</f>
         <v>in3</v>
       </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
       <c r="J21" s="28"/>
       <c r="K21" s="28"/>
       <c r="L21" s="28"/>
@@ -4729,17 +5529,17 @@
     </row>
     <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8"/>
-      <c r="B22" s="73"/>
+      <c r="B22" s="72"/>
       <c r="C22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>in4</v>
       </c>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
       <c r="L22" s="28"/>
@@ -4757,17 +5557,17 @@
     </row>
     <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
-      <c r="B23" s="73"/>
+      <c r="B23" s="72"/>
       <c r="C23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>in5</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
       <c r="L23" s="28"/>
@@ -4809,31 +5609,31 @@
       <c r="W24" s="7"/>
     </row>
     <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="100" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="101"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="101"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="101"/>
-      <c r="P25" s="101"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="102"/>
+      <c r="A25" s="99" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100"/>
+      <c r="W25" s="101"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
@@ -4848,7 +5648,7 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="13"/>
@@ -5288,57 +6088,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="77" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="78" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="77" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="78" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="77" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="78" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="78" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="77" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="78" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="77" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="78" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,13 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="17" r:id="rId1"/>
-    <sheet name="login" sheetId="19" r:id="rId2"/>
+    <sheet name="profile" sheetId="19" r:id="rId2"/>
     <sheet name="template" sheetId="20" r:id="rId3"/>
     <sheet name="data" sheetId="21" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">index!$A$1:$W$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">login!$A$1:$W$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">profile!$A$1:$W$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">template!$A$1:$W$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -1654,62 +1654,164 @@
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1723,227 +1825,125 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3500,7 +3500,7 @@
   <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:P3"/>
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3517,31 +3517,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="115" t="s">
+      <c r="A1" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
-      <c r="S1" s="116"/>
-      <c r="T1" s="116"/>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116"/>
-      <c r="W1" s="117"/>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="166"/>
+      <c r="O1" s="166"/>
+      <c r="P1" s="166"/>
+      <c r="Q1" s="166"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="166"/>
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="167"/>
       <c r="Y1" s="74" t="s">
         <v>20</v>
       </c>
@@ -3554,41 +3554,41 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="136" t="s">
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="122" t="s">
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="123"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="168" t="s">
+      <c r="I2" s="142"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="169"/>
-      <c r="M2" s="170"/>
-      <c r="N2" s="171" t="s">
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="142"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="172" t="s">
+      <c r="O2" s="127"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="173"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="173"/>
-      <c r="U2" s="173"/>
-      <c r="V2" s="173"/>
-      <c r="W2" s="174"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="101"/>
       <c r="Y2" s="74" t="s">
         <v>19</v>
       </c>
@@ -3600,37 +3600,37 @@
       <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="139" t="s">
+      <c r="B3" s="145"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="153" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="150" t="s">
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="I3" s="151"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="156" t="s">
+      <c r="I3" s="133"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="157"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="154"/>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="176"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="176"/>
-      <c r="U3" s="176"/>
-      <c r="V3" s="176"/>
-      <c r="W3" s="177"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="104"/>
       <c r="Y3" s="74" t="s">
         <v>25</v>
       </c>
@@ -3642,37 +3642,37 @@
       <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="119"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="139" t="s">
+      <c r="B4" s="145"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="155"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="150" t="s">
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="155"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="119"/>
+      <c r="N4" s="132" t="s">
         <v>86</v>
       </c>
-      <c r="O4" s="151"/>
-      <c r="P4" s="152"/>
-      <c r="Q4" s="178" t="s">
+      <c r="O4" s="133"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="R4" s="179"/>
-      <c r="S4" s="179"/>
-      <c r="T4" s="179"/>
-      <c r="U4" s="179"/>
-      <c r="V4" s="179"/>
-      <c r="W4" s="180"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
       <c r="Y4" s="75" t="s">
         <v>21</v>
       </c>
@@ -3690,37 +3690,37 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="120"/>
-      <c r="D5" s="139" t="s">
+      <c r="B5" s="145"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="153" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="118" t="s">
+      <c r="E5" s="154"/>
+      <c r="F5" s="154"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="144" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="162" t="s">
+      <c r="I5" s="145"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="163"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="154"/>
-      <c r="P5" s="155"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="176"/>
-      <c r="S5" s="176"/>
-      <c r="T5" s="176"/>
-      <c r="U5" s="176"/>
-      <c r="V5" s="176"/>
-      <c r="W5" s="177"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="104"/>
       <c r="Y5" s="81" t="s">
         <v>31</v>
       </c>
@@ -3738,41 +3738,41 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="148" t="s">
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="162" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="144" t="s">
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="145"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="165" t="s">
+      <c r="I6" s="136"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="166"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="144" t="s">
+      <c r="L6" s="124"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="145"/>
-      <c r="P6" s="147"/>
-      <c r="Q6" s="181" t="s">
+      <c r="O6" s="136"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="182"/>
-      <c r="S6" s="182"/>
-      <c r="T6" s="182"/>
-      <c r="U6" s="182"/>
-      <c r="V6" s="182"/>
-      <c r="W6" s="183"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="110"/>
       <c r="Y6" s="81" t="s">
         <v>34</v>
       </c>
@@ -3788,9 +3788,9 @@
       <c r="AC6" s="61"/>
     </row>
     <row r="7" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="134"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -3826,9 +3826,9 @@
       <c r="AC7" s="61"/>
     </row>
     <row r="8" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="135"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
+      <c r="A8" s="149"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -3862,9 +3862,9 @@
       <c r="AC8" s="61"/>
     </row>
     <row r="9" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="134"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -3902,19 +3902,19 @@
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="130" t="s">
+      <c r="E10" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="131" t="s">
+      <c r="F10" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="131" t="s">
+      <c r="G10" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="131" t="s">
+      <c r="H10" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="126" t="s">
+      <c r="I10" s="138" t="s">
         <v>70</v>
       </c>
       <c r="J10" s="28"/>
@@ -3948,11 +3948,11 @@
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="125"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="127"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="139"/>
       <c r="J11" s="28"/>
       <c r="K11" s="70"/>
       <c r="L11" s="28"/>
@@ -3984,11 +3984,11 @@
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="127"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="139"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -4009,11 +4009,11 @@
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="129"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="140"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
@@ -4742,6 +4742,28 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
     <mergeCell ref="Q2:W3"/>
     <mergeCell ref="Q4:W5"/>
     <mergeCell ref="Q6:W6"/>
@@ -4752,28 +4774,6 @@
     <mergeCell ref="N2:P3"/>
     <mergeCell ref="N4:P5"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -4856,17 +4856,17 @@
     </row>
     <row r="2" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
       <c r="O2" s="14"/>
@@ -5111,16 +5111,16 @@
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
-      <c r="J8" s="105" t="s">
+      <c r="J8" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="107"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="175"/>
+      <c r="M8" s="175"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="176"/>
       <c r="R8" s="28"/>
       <c r="S8" s="28"/>
       <c r="T8" s="28"/>
@@ -5154,14 +5154,14 @@
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
-      <c r="J9" s="108"/>
-      <c r="K9" s="109"/>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="110"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="178"/>
+      <c r="L9" s="178"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="178"/>
+      <c r="O9" s="178"/>
+      <c r="P9" s="178"/>
+      <c r="Q9" s="179"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
@@ -5195,14 +5195,14 @@
       <c r="G10" s="28"/>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="109"/>
-      <c r="P10" s="109"/>
-      <c r="Q10" s="110"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="178"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="178"/>
+      <c r="O10" s="178"/>
+      <c r="P10" s="178"/>
+      <c r="Q10" s="179"/>
       <c r="R10" s="28"/>
       <c r="S10" s="28"/>
       <c r="T10" s="28"/>
@@ -5236,14 +5236,14 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="109"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="110"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="178"/>
+      <c r="M11" s="178"/>
+      <c r="N11" s="178"/>
+      <c r="O11" s="178"/>
+      <c r="P11" s="178"/>
+      <c r="Q11" s="179"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
@@ -5277,14 +5277,14 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
-      <c r="Q12" s="113"/>
+      <c r="J12" s="180"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="181"/>
+      <c r="Q12" s="182"/>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
@@ -5394,30 +5394,30 @@
     </row>
     <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
-      <c r="B17" s="114" t="str">
+      <c r="B17" s="183" t="str">
         <f>Y5</f>
         <v>submit</v>
       </c>
-      <c r="C17" s="114"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="114"/>
-      <c r="S17" s="114"/>
-      <c r="T17" s="114"/>
-      <c r="U17" s="114"/>
-      <c r="V17" s="114"/>
+      <c r="C17" s="183"/>
+      <c r="D17" s="183"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="183"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="183"/>
+      <c r="J17" s="183"/>
+      <c r="K17" s="183"/>
+      <c r="L17" s="183"/>
+      <c r="M17" s="183"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="183"/>
+      <c r="P17" s="183"/>
+      <c r="Q17" s="183"/>
+      <c r="R17" s="183"/>
+      <c r="S17" s="183"/>
+      <c r="T17" s="183"/>
+      <c r="U17" s="183"/>
+      <c r="V17" s="183"/>
       <c r="W17" s="32"/>
     </row>
     <row r="18" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -5609,31 +5609,31 @@
       <c r="W24" s="7"/>
     </row>
     <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="100"/>
-      <c r="M25" s="100"/>
-      <c r="N25" s="100"/>
-      <c r="O25" s="100"/>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="100"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="100"/>
-      <c r="T25" s="100"/>
-      <c r="U25" s="100"/>
-      <c r="V25" s="100"/>
-      <c r="W25" s="101"/>
+      <c r="B25" s="169"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="169"/>
+      <c r="L25" s="169"/>
+      <c r="M25" s="169"/>
+      <c r="N25" s="169"/>
+      <c r="O25" s="169"/>
+      <c r="P25" s="169"/>
+      <c r="Q25" s="169"/>
+      <c r="R25" s="169"/>
+      <c r="S25" s="169"/>
+      <c r="T25" s="169"/>
+      <c r="U25" s="169"/>
+      <c r="V25" s="169"/>
+      <c r="W25" s="170"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="90">
   <si>
     <t>↑</t>
     <phoneticPr fontId="1"/>
@@ -646,6 +646,10 @@
     <rPh sb="12" eb="13">
       <t>ゴ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>testtest</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1376,7 +1380,7 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1654,6 +1658,150 @@
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1753,150 +1901,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1944,6 +1948,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3500,7 +3510,7 @@
   <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3517,31 +3527,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="166"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="166"/>
-      <c r="G1" s="166"/>
-      <c r="H1" s="166"/>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="K1" s="166"/>
-      <c r="L1" s="166"/>
-      <c r="M1" s="166"/>
-      <c r="N1" s="166"/>
-      <c r="O1" s="166"/>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="166"/>
-      <c r="S1" s="166"/>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="167"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="101"/>
       <c r="Y1" s="74" t="s">
         <v>20</v>
       </c>
@@ -3554,41 +3564,41 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="150" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="141" t="s">
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="142"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="111" t="s">
+      <c r="I2" s="115"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="150" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="126" t="s">
+      <c r="L2" s="151"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="127"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="99" t="s">
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="100"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="100"/>
-      <c r="U2" s="100"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="140"/>
       <c r="Y2" s="74" t="s">
         <v>19</v>
       </c>
@@ -3600,37 +3610,37 @@
       <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="153" t="s">
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="123" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="154"/>
-      <c r="F3" s="154"/>
-      <c r="G3" s="155"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="125"/>
       <c r="H3" s="132" t="s">
         <v>85</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="134"/>
-      <c r="K3" s="114" t="s">
+      <c r="K3" s="153" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="115"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="130"/>
-      <c r="P3" s="131"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="103"/>
-      <c r="S3" s="103"/>
-      <c r="T3" s="103"/>
-      <c r="U3" s="103"/>
-      <c r="V3" s="103"/>
-      <c r="W3" s="104"/>
+      <c r="L3" s="154"/>
+      <c r="M3" s="155"/>
+      <c r="N3" s="135"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="143"/>
       <c r="Y3" s="74" t="s">
         <v>25</v>
       </c>
@@ -3642,37 +3652,37 @@
       <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="153" t="s">
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="123" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="155"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="117"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="119"/>
+      <c r="E4" s="124"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="157"/>
+      <c r="M4" s="158"/>
       <c r="N4" s="132" t="s">
         <v>86</v>
       </c>
       <c r="O4" s="133"/>
       <c r="P4" s="134"/>
-      <c r="Q4" s="105" t="s">
+      <c r="Q4" s="144" t="s">
         <v>81</v>
       </c>
-      <c r="R4" s="106"/>
-      <c r="S4" s="106"/>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="107"/>
+      <c r="R4" s="145"/>
+      <c r="S4" s="145"/>
+      <c r="T4" s="145"/>
+      <c r="U4" s="145"/>
+      <c r="V4" s="145"/>
+      <c r="W4" s="146"/>
       <c r="Y4" s="75" t="s">
         <v>21</v>
       </c>
@@ -3690,37 +3700,37 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="102" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="153" t="s">
+      <c r="B5" s="103"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="154"/>
-      <c r="F5" s="154"/>
-      <c r="G5" s="155"/>
-      <c r="H5" s="144" t="s">
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="102" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146"/>
-      <c r="K5" s="120" t="s">
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="121"/>
-      <c r="M5" s="122"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="102"/>
-      <c r="R5" s="103"/>
-      <c r="S5" s="103"/>
-      <c r="T5" s="103"/>
-      <c r="U5" s="103"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="104"/>
+      <c r="L5" s="160"/>
+      <c r="M5" s="161"/>
+      <c r="N5" s="135"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="141"/>
+      <c r="R5" s="142"/>
+      <c r="S5" s="142"/>
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="143"/>
       <c r="Y5" s="81" t="s">
         <v>31</v>
       </c>
@@ -3738,41 +3748,41 @@
       </c>
     </row>
     <row r="6" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="135" t="s">
+      <c r="A6" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="136"/>
-      <c r="C6" s="137"/>
-      <c r="D6" s="162" t="s">
+      <c r="B6" s="127"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="111" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="135" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="136"/>
-      <c r="J6" s="137"/>
-      <c r="K6" s="123" t="s">
+      <c r="I6" s="127"/>
+      <c r="J6" s="128"/>
+      <c r="K6" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="124"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="135" t="s">
+      <c r="L6" s="163"/>
+      <c r="M6" s="164"/>
+      <c r="N6" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="136"/>
-      <c r="P6" s="137"/>
-      <c r="Q6" s="108" t="s">
+      <c r="O6" s="127"/>
+      <c r="P6" s="128"/>
+      <c r="Q6" s="147" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="110"/>
+      <c r="R6" s="148"/>
+      <c r="S6" s="148"/>
+      <c r="T6" s="148"/>
+      <c r="U6" s="148"/>
+      <c r="V6" s="148"/>
+      <c r="W6" s="149"/>
       <c r="Y6" s="81" t="s">
         <v>34</v>
       </c>
@@ -3788,9 +3798,9 @@
       <c r="AC6" s="61"/>
     </row>
     <row r="7" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="147"/>
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -3826,9 +3836,9 @@
       <c r="AC7" s="61"/>
     </row>
     <row r="8" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="149"/>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -3862,9 +3872,9 @@
       <c r="AC8" s="61"/>
     </row>
     <row r="9" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="147"/>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -3902,19 +3912,19 @@
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="156" t="s">
+      <c r="E10" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="159" t="s">
+      <c r="F10" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="159" t="s">
+      <c r="G10" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="159" t="s">
+      <c r="H10" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="138" t="s">
+      <c r="I10" s="129" t="s">
         <v>70</v>
       </c>
       <c r="J10" s="28"/>
@@ -3948,11 +3958,11 @@
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="139"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="130"/>
       <c r="J11" s="28"/>
       <c r="K11" s="70"/>
       <c r="L11" s="28"/>
@@ -3976,7 +3986,9 @@
       <c r="AA11" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="AB11" s="81"/>
+      <c r="AB11" s="81" t="s">
+        <v>89</v>
+      </c>
       <c r="AC11" s="61"/>
     </row>
     <row r="12" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3984,11 +3996,11 @@
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="139"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="130"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -4009,11 +4021,11 @@
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="158"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="140"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="131"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
@@ -4133,20 +4145,23 @@
       <c r="A18" s="8"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
+      <c r="D18" s="91" t="str">
+        <f>Y11</f>
+        <v>in5</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="184"/>
+      <c r="O18" s="184"/>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="185"/>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
@@ -4742,6 +4757,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="Q2:W3"/>
+    <mergeCell ref="Q4:W5"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N2:P3"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="E10:E13"/>
@@ -4758,22 +4789,6 @@
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="Q2:W3"/>
-    <mergeCell ref="Q4:W5"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N2:P3"/>
-    <mergeCell ref="N4:P5"/>
-    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>

--- a/template.xlsx
+++ b/template.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="17" r:id="rId1"/>
     <sheet name="profile" sheetId="19" r:id="rId2"/>
-    <sheet name="template" sheetId="20" r:id="rId3"/>
-    <sheet name="data" sheetId="21" r:id="rId4"/>
+    <sheet name="home" sheetId="22" r:id="rId3"/>
+    <sheet name="template" sheetId="20" r:id="rId4"/>
+    <sheet name="data" sheetId="21" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">home!$A$1:$W$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">index!$A$1:$W$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">profile!$A$1:$W$25</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">template!$A$1:$W$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">template!$A$1:$W$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -207,7 +209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="106">
   <si>
     <t>↑</t>
     <phoneticPr fontId="1"/>
@@ -652,6 +654,83 @@
     <t>testtest</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>My履歴書</t>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社イー・ビジネス</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>in6</t>
+  </si>
+  <si>
+    <t>in7</t>
+  </si>
+  <si>
+    <t>in8</t>
+  </si>
+  <si>
+    <t>in9</t>
+  </si>
+  <si>
+    <t>W21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>履 歴 書 定 義 書</t>
+    <rPh sb="6" eb="7">
+      <t>サダム</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タダシ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>便利な履歴書</t>
+  </si>
+  <si>
+    <t>onclick</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>redirect('home')</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>redirect('profile')</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -660,7 +739,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,8 +984,30 @@
       <charset val="128"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,8 +1026,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="39">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1372,15 +1479,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1658,14 +1799,140 @@
     </xf>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1679,6 +1946,39 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -1712,18 +2012,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1754,153 +2042,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1949,17 +2090,102 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="40" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準_ファンクション・マッピング・リスト テンプレート" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2265,7 +2491,7 @@
   <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3509,8 +3735,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3523,35 +3749,36 @@
     <col min="27" max="27" width="7.875" style="12" customWidth="1"/>
     <col min="28" max="28" width="9.125" style="12" customWidth="1"/>
     <col min="29" max="29" width="9.25" style="12" customWidth="1"/>
-    <col min="30" max="16384" width="2.625" style="12"/>
+    <col min="30" max="30" width="10.125" style="12" customWidth="1"/>
+    <col min="31" max="16384" width="2.625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="100"/>
-      <c r="J1" s="100"/>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-      <c r="M1" s="100"/>
-      <c r="N1" s="100"/>
-      <c r="O1" s="100"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="101"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="149"/>
       <c r="Y1" s="74" t="s">
         <v>20</v>
       </c>
@@ -3564,41 +3791,41 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="144" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="120" t="s">
+      <c r="B2" s="145"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="162" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="114" t="s">
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="164"/>
+      <c r="H2" s="144" t="s">
         <v>84</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="150" t="s">
+      <c r="I2" s="145"/>
+      <c r="J2" s="146"/>
+      <c r="K2" s="111" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="151"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="165" t="s">
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="138" t="s">
+      <c r="O2" s="127"/>
+      <c r="P2" s="128"/>
+      <c r="Q2" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
-      <c r="T2" s="139"/>
-      <c r="U2" s="139"/>
-      <c r="V2" s="139"/>
-      <c r="W2" s="140"/>
+      <c r="R2" s="100"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="100"/>
+      <c r="U2" s="100"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="101"/>
       <c r="Y2" s="74" t="s">
         <v>19</v>
       </c>
@@ -3610,37 +3837,37 @@
       <c r="AC2" s="82"/>
     </row>
     <row r="3" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="138" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="123" t="s">
+      <c r="B3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="125"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
       <c r="H3" s="132" t="s">
         <v>85</v>
       </c>
       <c r="I3" s="133"/>
       <c r="J3" s="134"/>
-      <c r="K3" s="153" t="s">
+      <c r="K3" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="154"/>
-      <c r="M3" s="155"/>
-      <c r="N3" s="135"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="143"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="102"/>
+      <c r="R3" s="103"/>
+      <c r="S3" s="103"/>
+      <c r="T3" s="103"/>
+      <c r="U3" s="103"/>
+      <c r="V3" s="103"/>
+      <c r="W3" s="104"/>
       <c r="Y3" s="74" t="s">
         <v>25</v>
       </c>
@@ -3652,37 +3879,37 @@
       <c r="AC3" s="38"/>
     </row>
     <row r="4" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="103"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="123" t="s">
+      <c r="B4" s="139"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="156"/>
-      <c r="L4" s="157"/>
-      <c r="M4" s="158"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="119"/>
       <c r="N4" s="132" t="s">
         <v>86</v>
       </c>
       <c r="O4" s="133"/>
       <c r="P4" s="134"/>
-      <c r="Q4" s="144" t="s">
+      <c r="Q4" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="R4" s="145"/>
-      <c r="S4" s="145"/>
-      <c r="T4" s="145"/>
-      <c r="U4" s="145"/>
-      <c r="V4" s="145"/>
-      <c r="W4" s="146"/>
+      <c r="R4" s="106"/>
+      <c r="S4" s="106"/>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="107"/>
       <c r="Y4" s="75" t="s">
         <v>21</v>
       </c>
@@ -3698,39 +3925,42 @@
       <c r="AC4" s="87" t="s">
         <v>35</v>
       </c>
+      <c r="AD4" s="87" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="123" t="s">
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="102" t="s">
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="159" t="s">
+      <c r="I5" s="139"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="120" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="160"/>
-      <c r="M5" s="161"/>
-      <c r="N5" s="135"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="137"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="142"/>
-      <c r="S5" s="142"/>
-      <c r="T5" s="142"/>
-      <c r="U5" s="142"/>
-      <c r="V5" s="142"/>
-      <c r="W5" s="143"/>
+      <c r="L5" s="121"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="102"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="103"/>
+      <c r="T5" s="103"/>
+      <c r="U5" s="103"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="104"/>
       <c r="Y5" s="81" t="s">
         <v>31</v>
       </c>
@@ -3746,43 +3976,44 @@
       <c r="AC5" s="61" t="s">
         <v>45</v>
       </c>
+      <c r="AD5" s="61"/>
     </row>
     <row r="6" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="128"/>
-      <c r="D6" s="111" t="s">
+      <c r="B6" s="136"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="156" t="s">
         <v>69</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="126" t="s">
+      <c r="E6" s="157"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="158"/>
+      <c r="H6" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="I6" s="127"/>
-      <c r="J6" s="128"/>
-      <c r="K6" s="162" t="s">
+      <c r="I6" s="136"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="163"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="126" t="s">
+      <c r="L6" s="124"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="O6" s="127"/>
-      <c r="P6" s="128"/>
-      <c r="Q6" s="147" t="s">
+      <c r="O6" s="136"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="R6" s="148"/>
-      <c r="S6" s="148"/>
-      <c r="T6" s="148"/>
-      <c r="U6" s="148"/>
-      <c r="V6" s="148"/>
-      <c r="W6" s="149"/>
+      <c r="R6" s="109"/>
+      <c r="S6" s="109"/>
+      <c r="T6" s="109"/>
+      <c r="U6" s="109"/>
+      <c r="V6" s="109"/>
+      <c r="W6" s="110"/>
       <c r="Y6" s="81" t="s">
         <v>34</v>
       </c>
@@ -3796,11 +4027,12 @@
         <v>44</v>
       </c>
       <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
     </row>
     <row r="7" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="117"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
+      <c r="A7" s="159"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
       <c r="D7" s="28"/>
       <c r="E7" s="28"/>
       <c r="F7" s="28"/>
@@ -3834,11 +4066,12 @@
         <v>48</v>
       </c>
       <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
     </row>
     <row r="8" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="119"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
@@ -3870,11 +4103,12 @@
       </c>
       <c r="AB8" s="81"/>
       <c r="AC8" s="61"/>
+      <c r="AD8" s="61"/>
     </row>
     <row r="9" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="117"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
+      <c r="A9" s="159"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
@@ -3906,25 +4140,26 @@
       </c>
       <c r="AB9" s="81"/>
       <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
     </row>
     <row r="10" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
       <c r="D10" s="28"/>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="150" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="108" t="s">
+      <c r="F10" s="153" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="153" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="I10" s="129" t="s">
+      <c r="I10" s="141" t="s">
         <v>70</v>
       </c>
       <c r="J10" s="28"/>
@@ -3952,17 +4187,18 @@
       </c>
       <c r="AB10" s="81"/>
       <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
     </row>
     <row r="11" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="130"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="142"/>
       <c r="J11" s="28"/>
       <c r="K11" s="70"/>
       <c r="L11" s="28"/>
@@ -3989,18 +4225,23 @@
       <c r="AB11" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="AC11" s="61"/>
+      <c r="AC11" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD11" s="61" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="1:31" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="28"/>
       <c r="C12" s="28"/>
       <c r="D12" s="28"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="130"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="142"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
       <c r="L12" s="28"/>
@@ -4021,11 +4262,11 @@
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="131"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="143"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
       <c r="L13" s="28"/>
@@ -4071,18 +4312,21 @@
       <c r="B15" s="65"/>
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
+      <c r="E15" s="212" t="str">
+        <f>Y11</f>
+        <v>in5</v>
+      </c>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
+      <c r="K15" s="213"/>
+      <c r="L15" s="213"/>
+      <c r="M15" s="213"/>
+      <c r="N15" s="213"/>
+      <c r="O15" s="213"/>
+      <c r="P15" s="213"/>
       <c r="Q15" s="34"/>
       <c r="R15" s="34"/>
       <c r="S15" s="34"/>
@@ -4145,23 +4389,20 @@
       <c r="A18" s="8"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="91" t="str">
-        <f>Y11</f>
-        <v>in5</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="184"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="184"/>
-      <c r="N18" s="184"/>
-      <c r="O18" s="184"/>
-      <c r="P18" s="184"/>
-      <c r="Q18" s="185"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
       <c r="R18" s="34"/>
       <c r="S18" s="34"/>
       <c r="T18" s="34"/>
@@ -4756,23 +4997,8 @@
       <c r="V42" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="Q2:W3"/>
-    <mergeCell ref="Q4:W5"/>
-    <mergeCell ref="Q6:W6"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="K3:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N2:P3"/>
-    <mergeCell ref="N4:P5"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
+  <mergeCells count="33">
+    <mergeCell ref="E15:P15"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="E10:E13"/>
@@ -4789,6 +5015,22 @@
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="Q2:W3"/>
+    <mergeCell ref="Q4:W5"/>
+    <mergeCell ref="Q6:W6"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N2:P3"/>
+    <mergeCell ref="N4:P5"/>
+    <mergeCell ref="N6:P6"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -4798,7 +5040,7 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>data!$A$2:$A$11</xm:f>
@@ -4812,11 +5054,1384 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AK13" sqref="AK13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="22" width="2.5" style="12" customWidth="1"/>
+    <col min="23" max="23" width="2.5" style="13" customWidth="1"/>
+    <col min="24" max="24" width="2.625" style="12"/>
+    <col min="25" max="25" width="8" style="12" customWidth="1"/>
+    <col min="26" max="26" width="9.125" style="12" customWidth="1"/>
+    <col min="27" max="27" width="7.875" style="12" customWidth="1"/>
+    <col min="28" max="28" width="9.125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="9.25" style="12" customWidth="1"/>
+    <col min="30" max="30" width="10.25" style="12" customWidth="1"/>
+    <col min="31" max="16384" width="2.625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="192"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="5"/>
+      <c r="Y1" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="62"/>
+      <c r="AE1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN1" s="76"/>
+    </row>
+    <row r="2" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="189"/>
+      <c r="G2" s="189"/>
+      <c r="H2" s="189"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="190"/>
+      <c r="K2" s="190"/>
+      <c r="L2" s="190"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="15"/>
+      <c r="Y2" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="82"/>
+      <c r="AN2" s="76"/>
+    </row>
+    <row r="3" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="7"/>
+      <c r="Y3" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="38"/>
+      <c r="AN3" s="76"/>
+    </row>
+    <row r="4" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="21"/>
+      <c r="Y4" s="75" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="75" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC4" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="AN4" s="76"/>
+    </row>
+    <row r="5" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="21"/>
+      <c r="Y5" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="77" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="76"/>
+      <c r="AF5" s="76"/>
+      <c r="AG5" s="76"/>
+      <c r="AH5" s="76"/>
+      <c r="AI5" s="76"/>
+      <c r="AN5" s="76"/>
+    </row>
+    <row r="6" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="207" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="207"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="207"/>
+      <c r="J6" s="207"/>
+      <c r="K6" s="207"/>
+      <c r="L6" s="207"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="207"/>
+      <c r="Q6" s="207"/>
+      <c r="R6" s="207"/>
+      <c r="S6" s="207"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="21"/>
+      <c r="Y6" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="76"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AN6" s="76"/>
+    </row>
+    <row r="7" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="210" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="210"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="210"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="210"/>
+      <c r="O7" s="210"/>
+      <c r="P7" s="210"/>
+      <c r="Q7" s="210"/>
+      <c r="R7" s="210"/>
+      <c r="S7" s="210"/>
+      <c r="T7" s="210"/>
+      <c r="U7" s="210"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="21"/>
+      <c r="Y7" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z7" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA7" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB7" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="76"/>
+      <c r="AF7" s="76"/>
+      <c r="AG7" s="76"/>
+      <c r="AH7" s="76"/>
+      <c r="AI7" s="76"/>
+      <c r="AN7" s="76"/>
+    </row>
+    <row r="8" spans="1:40" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="200"/>
+      <c r="B8" s="201"/>
+      <c r="C8" s="202"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="202"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="202"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="202"/>
+      <c r="J8" s="205"/>
+      <c r="K8" s="205"/>
+      <c r="L8" s="205"/>
+      <c r="M8" s="205"/>
+      <c r="N8" s="205"/>
+      <c r="O8" s="205"/>
+      <c r="P8" s="205"/>
+      <c r="Q8" s="205"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="202"/>
+      <c r="T8" s="202"/>
+      <c r="U8" s="202"/>
+      <c r="V8" s="202"/>
+      <c r="W8" s="206"/>
+      <c r="Y8" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" s="81" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB8" s="81"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="76"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="76"/>
+    </row>
+    <row r="9" spans="1:40" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="195"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="191"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="191"/>
+      <c r="Q9" s="191"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28"/>
+      <c r="W9" s="26"/>
+      <c r="Y9" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="81" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB9" s="81"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
+    </row>
+    <row r="10" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="211" t="str">
+        <f>Y11</f>
+        <v>in5</v>
+      </c>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="211"/>
+      <c r="P10" s="211"/>
+      <c r="Q10" s="211"/>
+      <c r="R10" s="211"/>
+      <c r="S10" s="211"/>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="28"/>
+      <c r="W10" s="26"/>
+      <c r="Y10" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z10" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" s="86" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB10" s="81"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+    </row>
+    <row r="11" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="191"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="191"/>
+      <c r="Q11" s="191"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="26"/>
+      <c r="Y11" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA11" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB11" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC11" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD11" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE11" s="76"/>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="76"/>
+      <c r="AI11" s="76"/>
+    </row>
+    <row r="12" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="195"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="211" t="str">
+        <f>Y12</f>
+        <v>in6</v>
+      </c>
+      <c r="H12" s="211"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="211"/>
+      <c r="N12" s="211"/>
+      <c r="O12" s="211"/>
+      <c r="P12" s="211"/>
+      <c r="Q12" s="211"/>
+      <c r="R12" s="211"/>
+      <c r="S12" s="211"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="26"/>
+      <c r="Y12" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z12" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA12" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB12" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC12" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD12" s="61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="195"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="26"/>
+      <c r="Y13" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z13" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA13" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB13" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC13" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD13" s="61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="195"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="211" t="str">
+        <f>Y13</f>
+        <v>in7</v>
+      </c>
+      <c r="H14" s="211"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="211"/>
+      <c r="L14" s="211"/>
+      <c r="M14" s="211"/>
+      <c r="N14" s="211"/>
+      <c r="O14" s="211"/>
+      <c r="P14" s="211"/>
+      <c r="Q14" s="211"/>
+      <c r="R14" s="211"/>
+      <c r="S14" s="211"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="26"/>
+      <c r="Y14" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z14" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA14" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB14" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC14" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="32"/>
+      <c r="Y15" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z15" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA15" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB15" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC15" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD15" s="61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="195"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="211" t="str">
+        <f>Y14</f>
+        <v>in8</v>
+      </c>
+      <c r="H16" s="211"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="211"/>
+      <c r="K16" s="211"/>
+      <c r="L16" s="211"/>
+      <c r="M16" s="211"/>
+      <c r="N16" s="211"/>
+      <c r="O16" s="211"/>
+      <c r="P16" s="211"/>
+      <c r="Q16" s="211"/>
+      <c r="R16" s="211"/>
+      <c r="S16" s="211"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="32"/>
+    </row>
+    <row r="17" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
+      <c r="R17" s="28"/>
+      <c r="S17" s="28"/>
+      <c r="T17" s="28"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="28"/>
+      <c r="W17" s="32"/>
+    </row>
+    <row r="18" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="211" t="str">
+        <f>Y15</f>
+        <v>in9</v>
+      </c>
+      <c r="H18" s="211"/>
+      <c r="I18" s="211"/>
+      <c r="J18" s="211"/>
+      <c r="K18" s="211"/>
+      <c r="L18" s="211"/>
+      <c r="M18" s="211"/>
+      <c r="N18" s="211"/>
+      <c r="O18" s="211"/>
+      <c r="P18" s="211"/>
+      <c r="Q18" s="211"/>
+      <c r="R18" s="211"/>
+      <c r="S18" s="211"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="32"/>
+    </row>
+    <row r="19" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="7"/>
+    </row>
+    <row r="20" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="198"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="38"/>
+    </row>
+    <row r="21" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="199"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="38"/>
+    </row>
+    <row r="22" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="28"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="28"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="38"/>
+    </row>
+    <row r="23" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="199"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="208" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="208"/>
+      <c r="H23" s="208"/>
+      <c r="I23" s="208"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="208"/>
+      <c r="L23" s="208"/>
+      <c r="M23" s="208"/>
+      <c r="N23" s="208"/>
+      <c r="O23" s="208"/>
+      <c r="P23" s="208"/>
+      <c r="Q23" s="208"/>
+      <c r="R23" s="208"/>
+      <c r="S23" s="208"/>
+      <c r="T23" s="209"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="7"/>
+    </row>
+    <row r="24" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="194"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="7"/>
+    </row>
+    <row r="25" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="185" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="186"/>
+      <c r="C25" s="186"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="186"/>
+      <c r="J25" s="186"/>
+      <c r="K25" s="186"/>
+      <c r="L25" s="186"/>
+      <c r="M25" s="186"/>
+      <c r="N25" s="186"/>
+      <c r="O25" s="186"/>
+      <c r="P25" s="186"/>
+      <c r="Q25" s="186"/>
+      <c r="R25" s="186"/>
+      <c r="S25" s="186"/>
+      <c r="T25" s="186"/>
+      <c r="U25" s="186"/>
+      <c r="V25" s="186"/>
+      <c r="W25" s="187"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13"/>
+      <c r="O36" s="13"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="F6" name="タイトル1"/>
+    <protectedRange sqref="F23" name="会社名"/>
+  </protectedRanges>
+  <mergeCells count="9">
+    <mergeCell ref="G18:S18"/>
+    <mergeCell ref="G10:S10"/>
+    <mergeCell ref="G12:S12"/>
+    <mergeCell ref="G14:S14"/>
+    <mergeCell ref="G16:S16"/>
+    <mergeCell ref="A25:W25"/>
+    <mergeCell ref="F6:S6"/>
+    <mergeCell ref="F23:S23"/>
+    <mergeCell ref="F7:U7"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="Z2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>data!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>AA5:AA15</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AN42"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
@@ -6090,7 +7705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:A11"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1887,7 +1887,7 @@
   <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5049,7 +5049,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="22" r:id="rId1"/>
@@ -2399,7 +2399,7 @@
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+      <selection activeCell="AA20" sqref="AA20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4016,8 +4016,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5905,7 +5905,7 @@
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7537,8 +7537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12:AA27"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="22" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="sale" sheetId="27" r:id="rId4"/>
     <sheet name="map" sheetId="24" r:id="rId5"/>
     <sheet name="_data" sheetId="21" r:id="rId6"/>
+    <sheet name="_css" sheetId="28" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">home!$A$1:$T$35</definedName>
@@ -603,7 +604,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="417">
   <si>
     <t>action</t>
     <phoneticPr fontId="5"/>
@@ -848,14 +849,6 @@
   <si>
     <t>onclick</t>
     <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>redirect('home')</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>redirect('profile')</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>XXXXXXX</t>
@@ -949,14 +942,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>redirect('project')</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>redirect('profile')</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MyProject</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -973,14 +958,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>redirect('map')</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>redirect('sale')</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>edit</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -1033,6 +1010,999 @@
   <si>
     <t>{ user.displayName }</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{redirect('home')}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{redirect('profile')}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{edit}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>{redirect('project')}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{redirect('sale')}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{redirect('map')}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@CHARSET "UTF-8";</t>
+  </si>
+  <si>
+    <t>font-family: 'メイリオ', Meiryo, 'ＭＳ Ｐゴシック', sans-serif;</t>
+  </si>
+  <si>
+    <t>height: 1rem;</t>
+  </si>
+  <si>
+    <t>position: absolute;</t>
+  </si>
+  <si>
+    <t>width: 2rem;</t>
+  </si>
+  <si>
+    <t>width: 3rem;</t>
+  </si>
+  <si>
+    <t>width: 5rem;</t>
+  </si>
+  <si>
+    <t>width: 6rem;</t>
+  </si>
+  <si>
+    <t>width: 7rem;</t>
+  </si>
+  <si>
+    <t>width: 8rem;</t>
+  </si>
+  <si>
+    <t>width: 9rem;</t>
+  </si>
+  <si>
+    <t>width: 10rem;</t>
+  </si>
+  <si>
+    <t>width: 11rem;</t>
+  </si>
+  <si>
+    <t>width: 12rem;</t>
+  </si>
+  <si>
+    <t>width: 13rem;</t>
+  </si>
+  <si>
+    <t>width: 14rem;</t>
+  </si>
+  <si>
+    <t>width: 15rem;</t>
+  </si>
+  <si>
+    <t>width: 16rem;</t>
+  </si>
+  <si>
+    <t>width: 17rem;</t>
+  </si>
+  <si>
+    <t>width: 18rem;</t>
+  </si>
+  <si>
+    <t>width: 19rem;</t>
+  </si>
+  <si>
+    <t>width: 20rem;</t>
+  </si>
+  <si>
+    <t>width: 21rem;</t>
+  </si>
+  <si>
+    <t>width: 22rem;</t>
+  </si>
+  <si>
+    <t>width: 23rem;</t>
+  </si>
+  <si>
+    <t>height: 2rem;</t>
+  </si>
+  <si>
+    <t>height: 3rem;</t>
+  </si>
+  <si>
+    <t>height: 4rem;</t>
+  </si>
+  <si>
+    <t>height: 6rem;</t>
+  </si>
+  <si>
+    <t>height: 7rem;</t>
+  </si>
+  <si>
+    <t>height: 8rem;</t>
+  </si>
+  <si>
+    <t>height: 9rem;</t>
+  </si>
+  <si>
+    <t>height: 10rem;</t>
+  </si>
+  <si>
+    <t>height: 11rem;</t>
+  </si>
+  <si>
+    <t>height: 12rem;</t>
+  </si>
+  <si>
+    <t>height: 13rem;</t>
+  </si>
+  <si>
+    <t>height: 14rem;</t>
+  </si>
+  <si>
+    <t>height: 15rem;</t>
+  </si>
+  <si>
+    <t>display: -webkit-flex;</t>
+  </si>
+  <si>
+    <t>-webkit-justify-content: flex-start;</t>
+  </si>
+  <si>
+    <t>justify-content: flex-start;</t>
+  </si>
+  <si>
+    <t>display: flex;</t>
+  </si>
+  <si>
+    <t>-webkit-justify-content: center;</t>
+  </si>
+  <si>
+    <t>justify-content: center;</t>
+  </si>
+  <si>
+    <t>-webkit-justify-content: flex-end;</t>
+  </si>
+  <si>
+    <t>justify-content: flex-end;</t>
+  </si>
+  <si>
+    <t>-webkit-align-items: flex-start;</t>
+  </si>
+  <si>
+    <t>-webkit-align-items: center;</t>
+  </si>
+  <si>
+    <t>align-items: center;</t>
+  </si>
+  <si>
+    <t>-webkit-align-items: flex-end;</t>
+  </si>
+  <si>
+    <t>align-items: flex-end;</t>
+  </si>
+  <si>
+    <t>z-index: 10;</t>
+  </si>
+  <si>
+    <t>border-top: 1px dashed #5F6F7E;</t>
+  </si>
+  <si>
+    <t>border-top: 1px solid #5F6F7E;</t>
+  </si>
+  <si>
+    <t>border-top: 3px double #5F6F7E;</t>
+  </si>
+  <si>
+    <t>border-bottom: 1px dotted #5F6F7E;</t>
+  </si>
+  <si>
+    <t>border-bottom: 1px dashed #5F6F7E;</t>
+  </si>
+  <si>
+    <t>border-bottom: 1px solid #5F6F7E;</t>
+  </si>
+  <si>
+    <t>border-bottom: 3px double #5F6F7E;</t>
+  </si>
+  <si>
+    <t>border-left: 1px dotted #5F6F7E;</t>
+  </si>
+  <si>
+    <t>border-left: 1px dashed #5F6F7E;</t>
+  </si>
+  <si>
+    <t>border-left: 1px solid #5F6F7E;</t>
+  </si>
+  <si>
+    <t>border-left: 3px double #5F6F7E;</t>
+  </si>
+  <si>
+    <t>border-right: 1px dotted #5F6F7E;</t>
+  </si>
+  <si>
+    <t>border-right: 1px dashed #5F6F7E;</t>
+  </si>
+  <si>
+    <t>border-right: 1px solid #5F6F7E;</t>
+  </si>
+  <si>
+    <t>border-right: 3px double #5F6F7E;</t>
+  </si>
+  <si>
+    <t>top: 0rem;</t>
+  </si>
+  <si>
+    <t>top: 1rem;</t>
+  </si>
+  <si>
+    <t>top: 3rem;</t>
+  </si>
+  <si>
+    <t>top: 4rem;</t>
+  </si>
+  <si>
+    <t>top: 5rem;</t>
+  </si>
+  <si>
+    <t>top: 6rem;</t>
+  </si>
+  <si>
+    <t>top: 7rem;</t>
+  </si>
+  <si>
+    <t>top: 8rem;</t>
+  </si>
+  <si>
+    <t>top: 9rem;</t>
+  </si>
+  <si>
+    <t>top: 10rem;</t>
+  </si>
+  <si>
+    <t>top: 11rem;</t>
+  </si>
+  <si>
+    <t>top: 12rem;</t>
+  </si>
+  <si>
+    <t>top: 13rem;</t>
+  </si>
+  <si>
+    <t>top: 14rem;</t>
+  </si>
+  <si>
+    <t>top: 15rem;</t>
+  </si>
+  <si>
+    <t>top: 16rem;</t>
+  </si>
+  <si>
+    <t>top: 17rem;</t>
+  </si>
+  <si>
+    <t>top: 18rem;</t>
+  </si>
+  <si>
+    <t>top: 19rem;</t>
+  </si>
+  <si>
+    <t>top: 20rem;</t>
+  </si>
+  <si>
+    <t>top: 21rem;</t>
+  </si>
+  <si>
+    <t>top: 22rem;</t>
+  </si>
+  <si>
+    <t>top: 23rem;</t>
+  </si>
+  <si>
+    <t>top: 24rem;</t>
+  </si>
+  <si>
+    <t>top: 25rem;</t>
+  </si>
+  <si>
+    <t>top: 26rem;</t>
+  </si>
+  <si>
+    <t>top: 27rem;</t>
+  </si>
+  <si>
+    <t>top: 28rem;</t>
+  </si>
+  <si>
+    <t>top: 29rem;</t>
+  </si>
+  <si>
+    <t>top: 30rem;</t>
+  </si>
+  <si>
+    <t>top: 31rem;</t>
+  </si>
+  <si>
+    <t>top: 32rem;</t>
+  </si>
+  <si>
+    <t>top: 33rem;</t>
+  </si>
+  <si>
+    <t>top: 34rem;</t>
+  </si>
+  <si>
+    <t>left: 0rem;</t>
+  </si>
+  <si>
+    <t>left: 1rem;</t>
+  </si>
+  <si>
+    <t>left: 2rem;</t>
+  </si>
+  <si>
+    <t>left: 3rem;</t>
+  </si>
+  <si>
+    <t>left: 4rem;</t>
+  </si>
+  <si>
+    <t>left: 5rem;</t>
+  </si>
+  <si>
+    <t>left: 6rem;</t>
+  </si>
+  <si>
+    <t>left: 7rem;</t>
+  </si>
+  <si>
+    <t>left: 8rem;</t>
+  </si>
+  <si>
+    <t>left: 9rem;</t>
+  </si>
+  <si>
+    <t>left: 10rem;</t>
+  </si>
+  <si>
+    <t>left: 11rem;</t>
+  </si>
+  <si>
+    <t>left: 12rem;</t>
+  </si>
+  <si>
+    <t>left: 13rem;</t>
+  </si>
+  <si>
+    <t>left: 14rem;</t>
+  </si>
+  <si>
+    <t>left: 15rem;</t>
+  </si>
+  <si>
+    <t>left: 16rem;</t>
+  </si>
+  <si>
+    <t>left: 17rem;</t>
+  </si>
+  <si>
+    <t>left: 18rem;</t>
+  </si>
+  <si>
+    <t>white-space: nowrap;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>line-height: 1rem;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pre</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>display: inline;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>height: 1rem;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input:focus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outline: none !important;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>border: 2px solid #3a4782;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>box-shadow: 0 0 10px #719ECE;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>position: absolute;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width: 1rem;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>z-index: -1;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.W1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width: 1rem;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.W2</t>
+  </si>
+  <si>
+    <t>.W3</t>
+  </si>
+  <si>
+    <t>.W4</t>
+  </si>
+  <si>
+    <t>.W5</t>
+  </si>
+  <si>
+    <t>.W6</t>
+  </si>
+  <si>
+    <t>.W7</t>
+  </si>
+  <si>
+    <t>.W8</t>
+  </si>
+  <si>
+    <t>.W9</t>
+  </si>
+  <si>
+    <t>.W10</t>
+  </si>
+  <si>
+    <t>.W11</t>
+  </si>
+  <si>
+    <t>.W12</t>
+  </si>
+  <si>
+    <t>.W13</t>
+  </si>
+  <si>
+    <t>.W14</t>
+  </si>
+  <si>
+    <t>.W15</t>
+  </si>
+  <si>
+    <t>.W16</t>
+  </si>
+  <si>
+    <t>.W17</t>
+  </si>
+  <si>
+    <t>.W18</t>
+  </si>
+  <si>
+    <t>.W19</t>
+  </si>
+  <si>
+    <t>.W20</t>
+  </si>
+  <si>
+    <t>.W21</t>
+  </si>
+  <si>
+    <t>.W22</t>
+  </si>
+  <si>
+    <t>.W23</t>
+  </si>
+  <si>
+    <t>.H1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.H2</t>
+  </si>
+  <si>
+    <t>.H3</t>
+  </si>
+  <si>
+    <t>.H4</t>
+  </si>
+  <si>
+    <t>.H5</t>
+  </si>
+  <si>
+    <t>.H6</t>
+  </si>
+  <si>
+    <t>.H7</t>
+  </si>
+  <si>
+    <t>.H8</t>
+  </si>
+  <si>
+    <t>.H9</t>
+  </si>
+  <si>
+    <t>.H10</t>
+  </si>
+  <si>
+    <t>.H11</t>
+  </si>
+  <si>
+    <t>.H12</t>
+  </si>
+  <si>
+    <t>.H13</t>
+  </si>
+  <si>
+    <t>.H14</t>
+  </si>
+  <si>
+    <t>.H15</t>
+  </si>
+  <si>
+    <t>.H16</t>
+  </si>
+  <si>
+    <t>height: 16rem;</t>
+  </si>
+  <si>
+    <t>.H17</t>
+  </si>
+  <si>
+    <t>height: 17rem;</t>
+  </si>
+  <si>
+    <t>.H18</t>
+  </si>
+  <si>
+    <t>height: 18rem;</t>
+  </si>
+  <si>
+    <t>.H19</t>
+  </si>
+  <si>
+    <t>height: 19rem;</t>
+  </si>
+  <si>
+    <t>.H20</t>
+  </si>
+  <si>
+    <t>height: 20rem;</t>
+  </si>
+  <si>
+    <t>.H21</t>
+  </si>
+  <si>
+    <t>height: 21rem;</t>
+  </si>
+  <si>
+    <t>.H22</t>
+  </si>
+  <si>
+    <t>height: 22rem;</t>
+  </si>
+  <si>
+    <t>.H23</t>
+  </si>
+  <si>
+    <t>height: 23rem;</t>
+  </si>
+  <si>
+    <t>.H24</t>
+  </si>
+  <si>
+    <t>height: 24rem;</t>
+  </si>
+  <si>
+    <t>.H25</t>
+  </si>
+  <si>
+    <t>height: 25rem;</t>
+  </si>
+  <si>
+    <t>.H26</t>
+  </si>
+  <si>
+    <t>height: 26rem;</t>
+  </si>
+  <si>
+    <t>.H27</t>
+  </si>
+  <si>
+    <t>height: 27rem;</t>
+  </si>
+  <si>
+    <t>.H28</t>
+  </si>
+  <si>
+    <t>height: 28rem;</t>
+  </si>
+  <si>
+    <t>.H29</t>
+  </si>
+  <si>
+    <t>height: 29rem;</t>
+  </si>
+  <si>
+    <t>.H30</t>
+  </si>
+  <si>
+    <t>height: 30rem;</t>
+  </si>
+  <si>
+    <t>.H31</t>
+  </si>
+  <si>
+    <t>height: 31rem;</t>
+  </si>
+  <si>
+    <t>.H32</t>
+  </si>
+  <si>
+    <t>height: 32rem;</t>
+  </si>
+  <si>
+    <t>.H33</t>
+  </si>
+  <si>
+    <t>height: 33rem;</t>
+  </si>
+  <si>
+    <t>.H34</t>
+  </si>
+  <si>
+    <t>height: 34rem;</t>
+  </si>
+  <si>
+    <t>.TA1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.TA2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.TA3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.VA0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.VA1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.VA2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.IB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.BT1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.BT2</t>
+  </si>
+  <si>
+    <t>.BT3</t>
+  </si>
+  <si>
+    <t>.BT4</t>
+  </si>
+  <si>
+    <t>.BB1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.BB2</t>
+  </si>
+  <si>
+    <t>.BB3</t>
+  </si>
+  <si>
+    <t>.BB4</t>
+  </si>
+  <si>
+    <t>.BL1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.BL2</t>
+  </si>
+  <si>
+    <t>.BL3</t>
+  </si>
+  <si>
+    <t>.BL4</t>
+  </si>
+  <si>
+    <t>.BR1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.BR2</t>
+  </si>
+  <si>
+    <t>.BR3</t>
+  </si>
+  <si>
+    <t>.BR4</t>
+  </si>
+  <si>
+    <t>.R0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.R1</t>
+  </si>
+  <si>
+    <t>.R2</t>
+  </si>
+  <si>
+    <t>.R3</t>
+  </si>
+  <si>
+    <t>.R4</t>
+  </si>
+  <si>
+    <t>.R5</t>
+  </si>
+  <si>
+    <t>.R6</t>
+  </si>
+  <si>
+    <t>.R7</t>
+  </si>
+  <si>
+    <t>.R8</t>
+  </si>
+  <si>
+    <t>.R9</t>
+  </si>
+  <si>
+    <t>.R10</t>
+  </si>
+  <si>
+    <t>.R11</t>
+  </si>
+  <si>
+    <t>.R12</t>
+  </si>
+  <si>
+    <t>.R13</t>
+  </si>
+  <si>
+    <t>.R14</t>
+  </si>
+  <si>
+    <t>.R15</t>
+  </si>
+  <si>
+    <t>.R16</t>
+  </si>
+  <si>
+    <t>.R17</t>
+  </si>
+  <si>
+    <t>.R18</t>
+  </si>
+  <si>
+    <t>.R19</t>
+  </si>
+  <si>
+    <t>.R20</t>
+  </si>
+  <si>
+    <t>.R21</t>
+  </si>
+  <si>
+    <t>.R22</t>
+  </si>
+  <si>
+    <t>.R23</t>
+  </si>
+  <si>
+    <t>.R24</t>
+  </si>
+  <si>
+    <t>.R25</t>
+  </si>
+  <si>
+    <t>.R26</t>
+  </si>
+  <si>
+    <t>.R27</t>
+  </si>
+  <si>
+    <t>.R28</t>
+  </si>
+  <si>
+    <t>.R29</t>
+  </si>
+  <si>
+    <t>.R30</t>
+  </si>
+  <si>
+    <t>.R31</t>
+  </si>
+  <si>
+    <t>.R32</t>
+  </si>
+  <si>
+    <t>.R33</t>
+  </si>
+  <si>
+    <t>.R34</t>
+  </si>
+  <si>
+    <t>.C0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.C1</t>
+  </si>
+  <si>
+    <t>.C2</t>
+  </si>
+  <si>
+    <t>.C3</t>
+  </si>
+  <si>
+    <t>.C4</t>
+  </si>
+  <si>
+    <t>.C5</t>
+  </si>
+  <si>
+    <t>.C6</t>
+  </si>
+  <si>
+    <t>.C7</t>
+  </si>
+  <si>
+    <t>.C8</t>
+  </si>
+  <si>
+    <t>.C9</t>
+  </si>
+  <si>
+    <t>.C10</t>
+  </si>
+  <si>
+    <t>.C11</t>
+  </si>
+  <si>
+    <t>.C12</t>
+  </si>
+  <si>
+    <t>.C13</t>
+  </si>
+  <si>
+    <t>.C14</t>
+  </si>
+  <si>
+    <t>.C15</t>
+  </si>
+  <si>
+    <t>.C16</t>
+  </si>
+  <si>
+    <t>.C17</t>
+  </si>
+  <si>
+    <t>.C18</t>
+  </si>
+  <si>
+    <t>.C19</t>
+  </si>
+  <si>
+    <t>left: 18.9rem;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*body*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width: 4rem;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*width*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>height: 5rem;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*height*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>align-items: flex-start;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*align*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>font-weight: bold;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*font*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>border-top: 1px dotted #5F6F7E;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*border*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>top: 2rem;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*cell top*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*cell left*/</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1892,111 +2862,19 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2053,6 +2931,42 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="25" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2088,6 +3002,62 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2399,7 +3369,7 @@
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2570,7 +3540,7 @@
         <v>61</v>
       </c>
       <c r="AE4" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AN4" s="23"/>
     </row>
@@ -2599,16 +3569,16 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="Y5" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB5" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC5" s="11" t="s">
         <v>56</v>
@@ -2649,16 +3619,16 @@
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
       <c r="Y6" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AA6" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB6" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
@@ -2703,7 +3673,7 @@
         <v>24</v>
       </c>
       <c r="AA7" s="28" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AB7" s="25"/>
       <c r="AC7" s="11"/>
@@ -2746,7 +3716,7 @@
         <v>26</v>
       </c>
       <c r="AA8" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB8" s="25"/>
       <c r="AC8" s="11"/>
@@ -2788,7 +3758,7 @@
         <v>27</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB9" s="25"/>
       <c r="AC9" s="11"/>
@@ -2833,7 +3803,7 @@
         <v>28</v>
       </c>
       <c r="AA10" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB10" s="25"/>
       <c r="AC10" s="11"/>
@@ -2878,13 +3848,13 @@
         <v>32</v>
       </c>
       <c r="AB11" s="25" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AC11" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AD11" s="11" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="AE11" s="11"/>
       <c r="AF11" s="23"/>
@@ -2929,13 +3899,13 @@
         <v>32</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AC12" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="AE12" s="11"/>
     </row>
@@ -2973,13 +3943,13 @@
         <v>32</v>
       </c>
       <c r="AB13" s="25" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AC13" s="11" t="s">
         <v>59</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="AE13" s="11"/>
     </row>
@@ -3020,13 +3990,13 @@
         <v>32</v>
       </c>
       <c r="AB14" s="25" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AC14" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AE14" s="11"/>
     </row>
@@ -3471,7 +4441,7 @@
       <c r="D32" s="73"/>
       <c r="E32" s="20"/>
       <c r="F32" s="67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" s="67"/>
       <c r="H32" s="67"/>
@@ -3541,7 +4511,7 @@
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="71"/>
       <c r="C35" s="71"/>
@@ -4017,7 +4987,7 @@
   <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+      <selection activeCell="AQ18" sqref="AQ18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4036,28 +5006,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
       <c r="U1" s="48"/>
       <c r="V1" s="48"/>
       <c r="W1" s="48"/>
@@ -4073,41 +5043,41 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="78" t="str">
+      <c r="B2" s="120"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="126" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="74" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="103" t="str">
+      <c r="I2" s="120"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="77" t="str">
         <f>Y17</f>
         <v>in11</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="119" t="str">
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="92"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="103" t="str">
         <f>Y21</f>
         <v>in15</v>
       </c>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="121"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="105"/>
       <c r="U2" s="49"/>
       <c r="V2" s="49"/>
       <c r="W2" s="49"/>
@@ -4122,36 +5092,36 @@
       <c r="AC2" s="26"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="81" t="str">
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="128" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="87" t="s">
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="104" t="str">
+      <c r="I3" s="98"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="79" t="str">
         <f>Y18</f>
         <v>in12</v>
       </c>
-      <c r="L3" s="105"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="124"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="108"/>
       <c r="U3" s="49"/>
       <c r="V3" s="49"/>
       <c r="W3" s="49"/>
@@ -4166,36 +5136,36 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="81" t="str">
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="128" t="str">
         <f>Y14</f>
         <v>in8</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="87" t="s">
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="125" t="str">
+      <c r="O4" s="98"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="109" t="str">
         <f>Y22</f>
         <v>in16</v>
       </c>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="127"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="111"/>
       <c r="U4" s="49"/>
       <c r="V4" s="49"/>
       <c r="W4" s="49"/>
@@ -4218,40 +5188,40 @@
         <v>61</v>
       </c>
       <c r="AE4" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="81" t="str">
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="128" t="str">
         <f>Y15</f>
         <v>in9</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="93" t="s">
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="110" t="str">
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="85" t="str">
         <f>Y19</f>
         <v>in13</v>
       </c>
-      <c r="L5" s="111"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="124"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="108"/>
       <c r="U5" s="49"/>
       <c r="V5" s="49"/>
       <c r="W5" s="49"/>
@@ -4274,41 +5244,41 @@
       <c r="AE5" s="11"/>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="99" t="str">
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="122" t="str">
         <f>Y16</f>
         <v>in10</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="84" t="s">
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="113" t="str">
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="88" t="str">
         <f>Y20</f>
         <v>in14</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="128" t="str">
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="101"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="112" t="str">
         <f>Y23</f>
         <v>in17</v>
       </c>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="130"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="114"/>
       <c r="U6" s="50"/>
       <c r="V6" s="50"/>
       <c r="W6" s="50"/>
@@ -4329,9 +5299,9 @@
       <c r="AE6" s="11"/>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -4449,19 +5419,19 @@
       <c r="B10" s="6"/>
       <c r="C10" s="57"/>
       <c r="D10" s="57"/>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="98" t="s">
+      <c r="F10" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="G10" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="98" t="s">
+      <c r="H10" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="118" t="s">
         <v>42</v>
       </c>
       <c r="J10" s="57"/>
@@ -4488,13 +5458,13 @@
         <v>32</v>
       </c>
       <c r="AB10" s="25" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AC10" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AD10" s="11" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="AE10" s="11"/>
     </row>
@@ -4503,11 +5473,11 @@
       <c r="B11" s="6"/>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
       <c r="J11" s="57"/>
       <c r="K11" s="58"/>
       <c r="L11" s="6"/>
@@ -4532,13 +5502,13 @@
         <v>32</v>
       </c>
       <c r="AB11" s="25" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AC11" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AD11" s="11" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AE11" s="11"/>
     </row>
@@ -4547,11 +5517,11 @@
       <c r="B12" s="6"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="L12" s="6"/>
@@ -4573,17 +5543,17 @@
         <v>52</v>
       </c>
       <c r="AA12" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC12" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AD12" s="11"/>
       <c r="AE12" s="11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4591,11 +5561,11 @@
       <c r="B13" s="6"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="6"/>
@@ -4617,17 +5587,17 @@
         <v>53</v>
       </c>
       <c r="AA13" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB13" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC13" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AD13" s="11"/>
       <c r="AE13" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4661,17 +5631,17 @@
         <v>54</v>
       </c>
       <c r="AA14" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB14" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC14" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AD14" s="11"/>
       <c r="AE14" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4693,37 +5663,37 @@
         <v>55</v>
       </c>
       <c r="AA15" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB15" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC15" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AD15" s="11"/>
       <c r="AE15" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="96" t="str">
+      <c r="C16" s="74" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -4734,43 +5704,43 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="Y16" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z16" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA16" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB16" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC16" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AD16" s="11"/>
       <c r="AE16" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="96" t="str">
+      <c r="C17" s="74" t="str">
         <f>Y10</f>
         <v>in4</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="75"/>
+      <c r="K17" s="75"/>
+      <c r="L17" s="75"/>
+      <c r="M17" s="75"/>
+      <c r="N17" s="75"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -4781,23 +5751,23 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="Y17" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Z17" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA17" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB17" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC17" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="AB17" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC17" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="AD17" s="11"/>
       <c r="AE17" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4825,23 +5795,23 @@
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="Y18" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z18" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AA18" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB18" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC18" s="11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AD18" s="11"/>
       <c r="AE18" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4869,23 +5839,23 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="Y19" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z19" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA19" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB19" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC19" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="AB19" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC19" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="AD19" s="11"/>
       <c r="AE19" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4913,23 +5883,23 @@
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="Y20" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z20" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA20" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB20" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC20" s="11" t="s">
         <v>99</v>
-      </c>
-      <c r="AB20" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC20" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="AD20" s="11"/>
       <c r="AE20" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4957,23 +5927,23 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="Y21" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Z21" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA21" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB21" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC21" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AD21" s="11"/>
       <c r="AE21" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5001,23 +5971,23 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="Y22" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Z22" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AA22" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB22" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC22" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AD22" s="11"/>
       <c r="AE22" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5045,23 +6015,23 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="Y23" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z23" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA23" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB23" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC23" s="11" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AD23" s="11"/>
       <c r="AE23" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5089,21 +6059,21 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="Y24" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z24" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA24" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB24" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
       <c r="AE24" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5131,21 +6101,21 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="Y25" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z25" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AA25" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB25" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC25" s="11"/>
       <c r="AD25" s="11"/>
       <c r="AE25" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5173,21 +6143,21 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="Y26" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z26" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="Z26" s="25" t="s">
-        <v>87</v>
-      </c>
       <c r="AA26" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB26" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC26" s="11"/>
       <c r="AD26" s="11"/>
       <c r="AE26" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5215,21 +6185,21 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="Y27" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z27" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA27" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB27" s="25" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AC27" s="11"/>
       <c r="AD27" s="11"/>
       <c r="AE27" s="11" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5406,7 +6376,7 @@
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="71"/>
       <c r="C35" s="71"/>
@@ -5840,6 +6810,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="A35:T35"/>
     <mergeCell ref="A1:T1"/>
@@ -5856,24 +6844,6 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="I10:I13"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -5905,7 +6875,7 @@
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+      <selection activeCell="AA22" sqref="AA22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6076,7 +7046,7 @@
         <v>61</v>
       </c>
       <c r="AE4" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AN4" s="23"/>
     </row>
@@ -6105,16 +7075,16 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="Y5" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB5" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC5" s="11" t="s">
         <v>56</v>
@@ -6155,16 +7125,16 @@
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
       <c r="Y6" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AA6" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB6" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
@@ -6209,7 +7179,7 @@
         <v>24</v>
       </c>
       <c r="AA7" s="28" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AB7" s="25"/>
       <c r="AC7" s="11"/>
@@ -6252,7 +7222,7 @@
         <v>26</v>
       </c>
       <c r="AA8" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB8" s="25"/>
       <c r="AC8" s="11"/>
@@ -6294,7 +7264,7 @@
         <v>27</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB9" s="25"/>
       <c r="AC9" s="11"/>
@@ -6339,7 +7309,7 @@
         <v>28</v>
       </c>
       <c r="AA10" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB10" s="25"/>
       <c r="AC10" s="11"/>
@@ -6384,13 +7354,13 @@
         <v>32</v>
       </c>
       <c r="AB11" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC11" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AD11" s="11" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AE11" s="11"/>
       <c r="AF11" s="23"/>
@@ -6435,13 +7405,13 @@
         <v>32</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC12" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AE12" s="11"/>
     </row>
@@ -6479,13 +7449,13 @@
         <v>32</v>
       </c>
       <c r="AB13" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC13" s="11" t="s">
         <v>59</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AE13" s="11"/>
     </row>
@@ -6526,13 +7496,13 @@
         <v>32</v>
       </c>
       <c r="AB14" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC14" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AE14" s="11"/>
     </row>
@@ -6570,13 +7540,13 @@
         <v>32</v>
       </c>
       <c r="AB15" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC15" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AD15" s="11" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AE15" s="11"/>
     </row>
@@ -6992,7 +7962,7 @@
       <c r="D32" s="73"/>
       <c r="E32" s="20"/>
       <c r="F32" s="67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" s="67"/>
       <c r="H32" s="67"/>
@@ -7062,7 +8032,7 @@
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="71"/>
       <c r="C35" s="71"/>
@@ -7537,8 +8507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7557,28 +8527,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
-      <c r="O1" s="102"/>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="102"/>
-      <c r="S1" s="102"/>
-      <c r="T1" s="102"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
       <c r="U1" s="48"/>
       <c r="V1" s="48"/>
       <c r="W1" s="48"/>
@@ -7594,41 +8564,41 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="78" t="str">
+      <c r="B2" s="120"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="126" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="74" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="103" t="str">
+      <c r="I2" s="120"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="77" t="str">
         <f>Y17</f>
         <v>in11</v>
       </c>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="116" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="117"/>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="119" t="str">
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="92"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="103" t="str">
         <f>Y21</f>
         <v>in15</v>
       </c>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
-      <c r="T2" s="121"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="105"/>
       <c r="U2" s="49"/>
       <c r="V2" s="49"/>
       <c r="W2" s="49"/>
@@ -7643,36 +8613,36 @@
       <c r="AC2" s="26"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="94"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="81" t="str">
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="128" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="87" t="s">
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="88"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="104" t="str">
+      <c r="I3" s="98"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="79" t="str">
         <f>Y18</f>
         <v>in12</v>
       </c>
-      <c r="L3" s="105"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="91"/>
-      <c r="P3" s="92"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="124"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="94"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="106"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="108"/>
       <c r="U3" s="49"/>
       <c r="V3" s="49"/>
       <c r="W3" s="49"/>
@@ -7687,36 +8657,36 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="115" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="81" t="str">
+      <c r="B4" s="116"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="128" t="str">
         <f>Y14</f>
         <v>in8</v>
       </c>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="92"/>
-      <c r="K4" s="107"/>
-      <c r="L4" s="108"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="87" t="s">
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="88"/>
-      <c r="P4" s="89"/>
-      <c r="Q4" s="125" t="str">
+      <c r="O4" s="98"/>
+      <c r="P4" s="99"/>
+      <c r="Q4" s="109" t="str">
         <f>Y22</f>
         <v>in16</v>
       </c>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="127"/>
+      <c r="R4" s="110"/>
+      <c r="S4" s="110"/>
+      <c r="T4" s="111"/>
       <c r="U4" s="49"/>
       <c r="V4" s="49"/>
       <c r="W4" s="49"/>
@@ -7739,40 +8709,40 @@
         <v>61</v>
       </c>
       <c r="AE4" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="81" t="str">
+      <c r="B5" s="116"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="128" t="str">
         <f>Y15</f>
         <v>in9</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="93" t="s">
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="130"/>
+      <c r="H5" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="94"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="110" t="str">
+      <c r="I5" s="116"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="85" t="str">
         <f>Y19</f>
         <v>in13</v>
       </c>
-      <c r="L5" s="111"/>
-      <c r="M5" s="112"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="122"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="124"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="106"/>
+      <c r="R5" s="107"/>
+      <c r="S5" s="107"/>
+      <c r="T5" s="108"/>
       <c r="U5" s="49"/>
       <c r="V5" s="49"/>
       <c r="W5" s="49"/>
@@ -7795,41 +8765,41 @@
       <c r="AE5" s="11"/>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="99" t="str">
+      <c r="B6" s="101"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="122" t="str">
         <f>Y16</f>
         <v>in10</v>
       </c>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="84" t="s">
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="113" t="str">
+      <c r="I6" s="101"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="88" t="str">
         <f>Y20</f>
         <v>in14</v>
       </c>
-      <c r="L6" s="114"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="128" t="str">
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="100" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="101"/>
+      <c r="P6" s="102"/>
+      <c r="Q6" s="112" t="str">
         <f>Y23</f>
         <v>in17</v>
       </c>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="130"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="114"/>
       <c r="U6" s="50"/>
       <c r="V6" s="50"/>
       <c r="W6" s="50"/>
@@ -7850,9 +8820,9 @@
       <c r="AE6" s="11"/>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -7970,19 +8940,19 @@
       <c r="B10" s="6"/>
       <c r="C10" s="57"/>
       <c r="D10" s="57"/>
-      <c r="E10" s="98" t="s">
+      <c r="E10" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="98" t="s">
+      <c r="F10" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="98" t="s">
+      <c r="G10" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="98" t="s">
+      <c r="H10" s="118" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="118" t="s">
         <v>42</v>
       </c>
       <c r="J10" s="57"/>
@@ -8018,11 +8988,11 @@
       <c r="B11" s="6"/>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
       <c r="J11" s="57"/>
       <c r="K11" s="58"/>
       <c r="L11" s="6"/>
@@ -8053,7 +9023,7 @@
         <v>60</v>
       </c>
       <c r="AD11" s="11" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="AE11" s="11"/>
     </row>
@@ -8062,11 +9032,11 @@
       <c r="B12" s="6"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="118"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="L12" s="6"/>
@@ -8088,7 +9058,7 @@
         <v>52</v>
       </c>
       <c r="AA12" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB12" s="25" t="s">
         <v>51</v>
@@ -8102,11 +9072,11 @@
       <c r="B13" s="6"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="6"/>
@@ -8128,7 +9098,7 @@
         <v>53</v>
       </c>
       <c r="AA13" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB13" s="25" t="s">
         <v>51</v>
@@ -8168,7 +9138,7 @@
         <v>54</v>
       </c>
       <c r="AA14" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB14" s="25" t="s">
         <v>51</v>
@@ -8196,7 +9166,7 @@
         <v>55</v>
       </c>
       <c r="AA15" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB15" s="25" t="s">
         <v>51</v>
@@ -8208,21 +9178,21 @@
     <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="96" t="str">
+      <c r="C16" s="74" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
-      <c r="M16" s="97"/>
-      <c r="N16" s="97"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+      <c r="K16" s="75"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -8233,13 +9203,13 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
       <c r="Y16" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Z16" s="25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AA16" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB16" s="25" t="s">
         <v>51</v>
@@ -8273,13 +9243,13 @@
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
       <c r="Y17" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Z17" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA17" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB17" s="25" t="s">
         <v>51</v>
@@ -8313,13 +9283,13 @@
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
       <c r="Y18" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Z18" s="25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AA18" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB18" s="25" t="s">
         <v>51</v>
@@ -8353,13 +9323,13 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
       <c r="Y19" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Z19" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AA19" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB19" s="25" t="s">
         <v>51</v>
@@ -8393,13 +9363,13 @@
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
       <c r="Y20" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Z20" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA20" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB20" s="25" t="s">
         <v>51</v>
@@ -8433,13 +9403,13 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
       <c r="Y21" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Z21" s="25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA21" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB21" s="25" t="s">
         <v>51</v>
@@ -8473,13 +9443,13 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
       <c r="Y22" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Z22" s="25" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="AA22" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB22" s="25" t="s">
         <v>51</v>
@@ -8513,13 +9483,13 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
       <c r="Y23" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z23" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AA23" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB23" s="25" t="s">
         <v>51</v>
@@ -8553,13 +9523,13 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
       <c r="Y24" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z24" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AA24" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB24" s="25" t="s">
         <v>51</v>
@@ -8593,13 +9563,13 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
       <c r="Y25" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="Z25" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AA25" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB25" s="25" t="s">
         <v>51</v>
@@ -8633,13 +9603,13 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
       <c r="Y26" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z26" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="Z26" s="25" t="s">
-        <v>87</v>
-      </c>
       <c r="AA26" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB26" s="25" t="s">
         <v>51</v>
@@ -8673,13 +9643,13 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
       <c r="Y27" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z27" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AA27" s="28" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AB27" s="25" t="s">
         <v>51</v>
@@ -8862,7 +9832,7 @@
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B35" s="71"/>
       <c r="C35" s="71"/>
@@ -9296,14 +10266,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A35:T35"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P3"/>
+    <mergeCell ref="Q2:T3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:J4"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="K3:M4"/>
     <mergeCell ref="A4:C4"/>
@@ -9319,16 +10291,14 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P3"/>
-    <mergeCell ref="Q2:T3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="A35:T35"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -9357,7 +10327,7 @@
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9528,7 +10498,7 @@
         <v>61</v>
       </c>
       <c r="AE4" s="29" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AN4" s="23"/>
     </row>
@@ -9557,16 +10527,16 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
       <c r="Y5" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Z5" s="25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AA5" s="24" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB5" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC5" s="11" t="s">
         <v>56</v>
@@ -9607,16 +10577,16 @@
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
       <c r="Y6" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Z6" s="25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AA6" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB6" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
@@ -9661,7 +10631,7 @@
         <v>24</v>
       </c>
       <c r="AA7" s="28" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AB7" s="25"/>
       <c r="AC7" s="11"/>
@@ -9704,7 +10674,7 @@
         <v>26</v>
       </c>
       <c r="AA8" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB8" s="25"/>
       <c r="AC8" s="11"/>
@@ -9746,7 +10716,7 @@
         <v>27</v>
       </c>
       <c r="AA9" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB9" s="25"/>
       <c r="AC9" s="11"/>
@@ -9791,7 +10761,7 @@
         <v>28</v>
       </c>
       <c r="AA10" s="28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB10" s="25"/>
       <c r="AC10" s="11"/>
@@ -9836,13 +10806,13 @@
         <v>32</v>
       </c>
       <c r="AB11" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC11" s="11" t="s">
         <v>57</v>
       </c>
       <c r="AD11" s="11" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AE11" s="11"/>
       <c r="AF11" s="23"/>
@@ -9887,13 +10857,13 @@
         <v>32</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC12" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AD12" s="11" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AE12" s="11"/>
     </row>
@@ -9931,13 +10901,13 @@
         <v>32</v>
       </c>
       <c r="AB13" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC13" s="11" t="s">
         <v>59</v>
       </c>
       <c r="AD13" s="11" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AE13" s="11"/>
     </row>
@@ -9978,13 +10948,13 @@
         <v>32</v>
       </c>
       <c r="AB14" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AC14" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AD14" s="11" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="AE14" s="11"/>
     </row>
@@ -10429,7 +11399,7 @@
       <c r="D32" s="73"/>
       <c r="E32" s="20"/>
       <c r="F32" s="67" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" s="67"/>
       <c r="H32" s="67"/>
@@ -10499,7 +11469,7 @@
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="71"/>
       <c r="C35" s="71"/>
@@ -10975,7 +11945,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11002,7 +11972,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="61" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
@@ -11037,6 +12007,1288 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="61"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E151"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.125" customWidth="1"/>
+    <col min="3" max="3" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>246</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>251</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>253</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>255</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>263</v>
+      </c>
+      <c r="B26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>264</v>
+      </c>
+      <c r="B27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>266</v>
+      </c>
+      <c r="B29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>270</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B38" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>277</v>
+      </c>
+      <c r="B41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>278</v>
+      </c>
+      <c r="B42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>279</v>
+      </c>
+      <c r="B43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>280</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>282</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>283</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>284</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>285</v>
+      </c>
+      <c r="B49" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>287</v>
+      </c>
+      <c r="B50" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>289</v>
+      </c>
+      <c r="B51" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>291</v>
+      </c>
+      <c r="B52" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>293</v>
+      </c>
+      <c r="B53" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>295</v>
+      </c>
+      <c r="B54" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>297</v>
+      </c>
+      <c r="B55" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>299</v>
+      </c>
+      <c r="B56" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>301</v>
+      </c>
+      <c r="B57" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>303</v>
+      </c>
+      <c r="B58" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>305</v>
+      </c>
+      <c r="B59" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>307</v>
+      </c>
+      <c r="B60" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>309</v>
+      </c>
+      <c r="B61" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>311</v>
+      </c>
+      <c r="B62" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>313</v>
+      </c>
+      <c r="B63" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>315</v>
+      </c>
+      <c r="B64" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>317</v>
+      </c>
+      <c r="B65" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>319</v>
+      </c>
+      <c r="B66" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>321</v>
+      </c>
+      <c r="B67" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>323</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69" t="s">
+        <v>149</v>
+      </c>
+      <c r="D69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>324</v>
+      </c>
+      <c r="B70" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>325</v>
+      </c>
+      <c r="B71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" t="s">
+        <v>151</v>
+      </c>
+      <c r="D71" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>326</v>
+      </c>
+      <c r="B72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" t="s">
+        <v>156</v>
+      </c>
+      <c r="E72" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>327</v>
+      </c>
+      <c r="B73" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73" t="s">
+        <v>157</v>
+      </c>
+      <c r="E73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>328</v>
+      </c>
+      <c r="B74" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" t="s">
+        <v>151</v>
+      </c>
+      <c r="D74" t="s">
+        <v>159</v>
+      </c>
+      <c r="E74" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>329</v>
+      </c>
+      <c r="B76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>330</v>
+      </c>
+      <c r="B77" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>331</v>
+      </c>
+      <c r="B79" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>332</v>
+      </c>
+      <c r="B80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>333</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>335</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>336</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>337</v>
+      </c>
+      <c r="B85" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>338</v>
+      </c>
+      <c r="B86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>339</v>
+      </c>
+      <c r="B87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>340</v>
+      </c>
+      <c r="B88" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>341</v>
+      </c>
+      <c r="B89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>342</v>
+      </c>
+      <c r="B90" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>343</v>
+      </c>
+      <c r="B91" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>344</v>
+      </c>
+      <c r="B92" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>345</v>
+      </c>
+      <c r="B93" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>346</v>
+      </c>
+      <c r="B94" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>347</v>
+      </c>
+      <c r="B96" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>348</v>
+      </c>
+      <c r="B97" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>349</v>
+      </c>
+      <c r="B98" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>350</v>
+      </c>
+      <c r="B99" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>351</v>
+      </c>
+      <c r="B100" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>352</v>
+      </c>
+      <c r="B101" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>353</v>
+      </c>
+      <c r="B102" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>354</v>
+      </c>
+      <c r="B103" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>355</v>
+      </c>
+      <c r="B104" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>356</v>
+      </c>
+      <c r="B105" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>357</v>
+      </c>
+      <c r="B106" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>358</v>
+      </c>
+      <c r="B107" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>359</v>
+      </c>
+      <c r="B108" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>360</v>
+      </c>
+      <c r="B109" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>361</v>
+      </c>
+      <c r="B110" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>362</v>
+      </c>
+      <c r="B111" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>363</v>
+      </c>
+      <c r="B112" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>364</v>
+      </c>
+      <c r="B113" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>365</v>
+      </c>
+      <c r="B114" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>366</v>
+      </c>
+      <c r="B115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>367</v>
+      </c>
+      <c r="B116" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>368</v>
+      </c>
+      <c r="B117" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>369</v>
+      </c>
+      <c r="B118" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>370</v>
+      </c>
+      <c r="B119" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>371</v>
+      </c>
+      <c r="B120" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>372</v>
+      </c>
+      <c r="B121" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>373</v>
+      </c>
+      <c r="B122" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>374</v>
+      </c>
+      <c r="B123" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>375</v>
+      </c>
+      <c r="B124" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>376</v>
+      </c>
+      <c r="B125" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>377</v>
+      </c>
+      <c r="B126" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>378</v>
+      </c>
+      <c r="B127" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>379</v>
+      </c>
+      <c r="B128" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>380</v>
+      </c>
+      <c r="B129" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>381</v>
+      </c>
+      <c r="B130" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>382</v>
+      </c>
+      <c r="B132" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>383</v>
+      </c>
+      <c r="B133" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>384</v>
+      </c>
+      <c r="B134" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>385</v>
+      </c>
+      <c r="B135" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>386</v>
+      </c>
+      <c r="B136" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>387</v>
+      </c>
+      <c r="B137" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>388</v>
+      </c>
+      <c r="B138" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>389</v>
+      </c>
+      <c r="B139" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>390</v>
+      </c>
+      <c r="B140" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>391</v>
+      </c>
+      <c r="B141" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>392</v>
+      </c>
+      <c r="B142" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>393</v>
+      </c>
+      <c r="B143" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>394</v>
+      </c>
+      <c r="B144" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>395</v>
+      </c>
+      <c r="B145" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>396</v>
+      </c>
+      <c r="B146" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>397</v>
+      </c>
+      <c r="B147" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>398</v>
+      </c>
+      <c r="B148" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>399</v>
+      </c>
+      <c r="B149" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>400</v>
+      </c>
+      <c r="B150" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>401</v>
+      </c>
+      <c r="B151" t="s">
+        <v>402</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825"/>
   </bookViews>
   <sheets>
     <sheet name="home" sheetId="22" r:id="rId1"/>
@@ -43,8 +43,97 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t xml:space="preserve">#628DB6
-</t>
+          <t>VLINE</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>W3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>W16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>W13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>W13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>W13</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>W13</t>
         </r>
       </text>
     </comment>
@@ -59,7 +148,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>#ffffdd;#aaa</t>
+          <t>CP</t>
         </r>
       </text>
     </comment>
@@ -73,208 +162,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>#d7e4bc</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>#d7e4bc</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>#d7e4bc</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>#d7e4bc</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>#d7e4bc</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>#d7e4bc</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>#d7e4bc</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>#d7e4bc</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>#d7e4bc</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>#d7e4bc</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>#d7e4bc</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>#d7e4bc</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A35" authorId="0" shapeId="0">
       <text>
         <r>
@@ -286,7 +173,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>#ffffdd;#aaa</t>
+          <t>CP</t>
         </r>
       </text>
     </comment>
@@ -327,7 +214,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>#ffffdd;#aaa</t>
+          <t>CP</t>
         </r>
       </text>
     </comment>
@@ -554,7 +441,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>#ffffdd;#aaa</t>
+          <t>CP</t>
         </r>
       </text>
     </comment>
@@ -595,7 +482,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>#ffffdd;#aaa</t>
+          <t>CP</t>
         </r>
       </text>
     </comment>
@@ -604,7 +491,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="480">
   <si>
     <t>action</t>
     <phoneticPr fontId="5"/>
@@ -1772,9 +1659,6 @@
     <t>.BR2</t>
   </si>
   <si>
-    <t>.BR3</t>
-  </si>
-  <si>
     <t>.BR4</t>
   </si>
   <si>
@@ -2002,6 +1886,214 @@
   </si>
   <si>
     <t>/*cell left*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>background-color:#628DB6;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.CP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color:#aaa;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>font-size: 11px;</t>
+  </si>
+  <si>
+    <t>font-size: 11px;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*copyright*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/*font size*/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.F1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.F2</t>
+  </si>
+  <si>
+    <t>.F3</t>
+  </si>
+  <si>
+    <t>.F4</t>
+  </si>
+  <si>
+    <t>.F5</t>
+  </si>
+  <si>
+    <t>.F6</t>
+  </si>
+  <si>
+    <t>.F7</t>
+  </si>
+  <si>
+    <t>.F8</t>
+  </si>
+  <si>
+    <t>.F9</t>
+  </si>
+  <si>
+    <t>.F10</t>
+  </si>
+  <si>
+    <t>.F11</t>
+  </si>
+  <si>
+    <t>.F12</t>
+  </si>
+  <si>
+    <t>.F13</t>
+  </si>
+  <si>
+    <t>.F14</t>
+  </si>
+  <si>
+    <t>.F15</t>
+  </si>
+  <si>
+    <t>.F16</t>
+  </si>
+  <si>
+    <t>.F17</t>
+  </si>
+  <si>
+    <t>.F18</t>
+  </si>
+  <si>
+    <t>.F19</t>
+  </si>
+  <si>
+    <t>.F20</t>
+  </si>
+  <si>
+    <t>.F21</t>
+  </si>
+  <si>
+    <t>.F22</t>
+  </si>
+  <si>
+    <t>.F23</t>
+  </si>
+  <si>
+    <t>.F24</t>
+  </si>
+  <si>
+    <t>.F25</t>
+  </si>
+  <si>
+    <t>font-size: 1px;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>font-size: 2px;</t>
+  </si>
+  <si>
+    <t>font-size: 3px;</t>
+  </si>
+  <si>
+    <t>font-size: 4px;</t>
+  </si>
+  <si>
+    <t>font-size: 5px;</t>
+  </si>
+  <si>
+    <t>font-size: 6px;</t>
+  </si>
+  <si>
+    <t>font-size: 7px;</t>
+  </si>
+  <si>
+    <t>font-size: 8px;</t>
+  </si>
+  <si>
+    <t>font-size: 9px;</t>
+  </si>
+  <si>
+    <t>font-size: 10px;</t>
+  </si>
+  <si>
+    <t>font-size: 12px;</t>
+  </si>
+  <si>
+    <t>font-size: 13px;</t>
+  </si>
+  <si>
+    <t>font-size: 14px;</t>
+  </si>
+  <si>
+    <t>font-size: 15px;</t>
+  </si>
+  <si>
+    <t>font-size: 16px;</t>
+  </si>
+  <si>
+    <t>font-size: 17px;</t>
+  </si>
+  <si>
+    <t>font-size: 18px;</t>
+  </si>
+  <si>
+    <t>font-size: 19px;</t>
+  </si>
+  <si>
+    <t>font-size: 20px;</t>
+  </si>
+  <si>
+    <t>font-size: 21px;</t>
+  </si>
+  <si>
+    <t>font-size: 22px;</t>
+  </si>
+  <si>
+    <t>font-size: 23px;</t>
+  </si>
+  <si>
+    <t>font-size: 24px;</t>
+  </si>
+  <si>
+    <t>font-size: 25px;</t>
+  </si>
+  <si>
+    <t>フリガナ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>.CLBL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.VLINE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>background-color:#ffffdd;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.CINP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>background-color:#d7e4bc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>background-color:#d7e4bc;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>.BR3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2308,7 +2400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -2647,6 +2739,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2658,7 +2779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2862,19 +2983,111 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2931,42 +3144,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="25" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3003,60 +3180,43 @@
     <xf numFmtId="0" fontId="27" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3368,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3728,26 +3888,26 @@
       <c r="AI8" s="23"/>
     </row>
     <row r="9" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
       <c r="D9" s="73"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
+      <c r="E9" s="133"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="133"/>
+      <c r="K9" s="133"/>
+      <c r="L9" s="133"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="133"/>
+      <c r="O9" s="133"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="133"/>
+      <c r="R9" s="133"/>
+      <c r="S9" s="133"/>
+      <c r="T9" s="133"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -3776,22 +3936,19 @@
       <c r="D10" s="73"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="72" t="str">
-        <f>Y11</f>
-        <v>in5</v>
-      </c>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="136"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -3869,22 +4026,19 @@
       <c r="D12" s="73"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="72" t="str">
-        <f>Y12</f>
-        <v>in6</v>
-      </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="137"/>
+      <c r="R12" s="137"/>
+      <c r="S12" s="137"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -3960,22 +4114,19 @@
       <c r="D14" s="73"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="72" t="str">
-        <f>Y13</f>
-        <v>in7</v>
-      </c>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="138"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="138"/>
+      <c r="S14" s="138"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -4007,19 +4158,19 @@
       <c r="D15" s="73"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="140"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -4039,22 +4190,19 @@
       <c r="D16" s="73"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="72" t="str">
-        <f>Y14</f>
-        <v>in8</v>
-      </c>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="139"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="141"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -4948,7 +5096,7 @@
     <protectedRange sqref="F6" name="タイトル1"/>
     <protectedRange sqref="F32" name="会社名"/>
   </protectedRanges>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="F6:S6"/>
     <mergeCell ref="F32:S32"/>
     <mergeCell ref="F7:M7"/>
@@ -4956,8 +5104,10 @@
     <mergeCell ref="G10:S10"/>
     <mergeCell ref="G12:S12"/>
     <mergeCell ref="G14:S14"/>
-    <mergeCell ref="G16:S16"/>
     <mergeCell ref="D1:D34"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="E9:T9"/>
+    <mergeCell ref="G15:S16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -4987,7 +5137,7 @@
   <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AQ18" sqref="AQ18"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5006,28 +5156,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
       <c r="U1" s="48"/>
       <c r="V1" s="48"/>
       <c r="W1" s="48"/>
@@ -5043,41 +5193,41 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="119" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="126" t="str">
+      <c r="A2" s="77" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="99" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="119" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="120"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="77" t="str">
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="103" t="str">
         <f>Y17</f>
         <v>in11</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="91" t="s">
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="103" t="str">
+      <c r="O2" s="117"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="119" t="str">
         <f>Y21</f>
         <v>in15</v>
       </c>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="105"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="121"/>
       <c r="U2" s="49"/>
       <c r="V2" s="49"/>
       <c r="W2" s="49"/>
@@ -5092,36 +5242,36 @@
       <c r="AC2" s="26"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="128" t="str">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="74" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="97" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="79" t="str">
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="104" t="str">
         <f>Y18</f>
         <v>in12</v>
       </c>
-      <c r="L3" s="80"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="108"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="124"/>
       <c r="U3" s="49"/>
       <c r="V3" s="49"/>
       <c r="W3" s="49"/>
@@ -5136,36 +5286,36 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="128" t="str">
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="74" t="str">
         <f>Y14</f>
         <v>in8</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="97" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="98"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="109" t="str">
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="125" t="str">
         <f>Y22</f>
         <v>in16</v>
       </c>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="111"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="127"/>
       <c r="U4" s="49"/>
       <c r="V4" s="49"/>
       <c r="W4" s="49"/>
@@ -5192,36 +5342,36 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="128" t="str">
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="74" t="str">
         <f>Y15</f>
         <v>in9</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="115" t="s">
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="85" t="str">
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="110" t="str">
         <f>Y19</f>
         <v>in13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="108"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="124"/>
       <c r="U5" s="49"/>
       <c r="V5" s="49"/>
       <c r="W5" s="49"/>
@@ -5244,41 +5394,41 @@
       <c r="AE5" s="11"/>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="122" t="str">
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="95" t="str">
         <f>Y16</f>
         <v>in10</v>
       </c>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="100" t="s">
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="88" t="str">
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="113" t="str">
         <f>Y20</f>
         <v>in14</v>
       </c>
-      <c r="L6" s="89"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="100" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="101"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="112" t="str">
+      <c r="O6" s="90"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="128" t="str">
         <f>Y23</f>
         <v>in17</v>
       </c>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="114"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="130"/>
       <c r="U6" s="50"/>
       <c r="V6" s="50"/>
       <c r="W6" s="50"/>
@@ -5299,9 +5449,9 @@
       <c r="AE6" s="11"/>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="125"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5419,19 +5569,19 @@
       <c r="B10" s="6"/>
       <c r="C10" s="57"/>
       <c r="D10" s="57"/>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="118" t="s">
+      <c r="H10" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="94" t="s">
         <v>42</v>
       </c>
       <c r="J10" s="57"/>
@@ -5473,11 +5623,11 @@
       <c r="B11" s="6"/>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
       <c r="J11" s="57"/>
       <c r="K11" s="58"/>
       <c r="L11" s="6"/>
@@ -5517,11 +5667,11 @@
       <c r="B12" s="6"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="L12" s="6"/>
@@ -5561,11 +5711,11 @@
       <c r="B13" s="6"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="6"/>
@@ -5679,21 +5829,21 @@
     <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="74" t="str">
+      <c r="C16" s="92" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -5726,21 +5876,21 @@
     <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="74" t="str">
+      <c r="C17" s="92" t="str">
         <f>Y10</f>
         <v>in4</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -6810,24 +6960,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A6:C6"/>
     <mergeCell ref="C17:N17"/>
     <mergeCell ref="A35:T35"/>
     <mergeCell ref="A1:T1"/>
@@ -6844,6 +6976,24 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="I10:I13"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
@@ -6874,8 +7024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AA22" sqref="AA22"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8032,7 +8182,7 @@
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="71"/>
       <c r="C35" s="71"/>
@@ -8507,8 +8657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8527,28 +8677,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
+      <c r="O1" s="102"/>
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="102"/>
+      <c r="S1" s="102"/>
+      <c r="T1" s="102"/>
       <c r="U1" s="48"/>
       <c r="V1" s="48"/>
       <c r="W1" s="48"/>
@@ -8564,41 +8714,41 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="120"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="126" t="str">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="99" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="119" t="s">
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="120"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="77" t="str">
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="103" t="str">
         <f>Y17</f>
         <v>in11</v>
       </c>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="91" t="s">
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="92"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="103" t="str">
+      <c r="O2" s="117"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="119" t="str">
         <f>Y21</f>
         <v>in15</v>
       </c>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="105"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="121"/>
       <c r="U2" s="49"/>
       <c r="V2" s="49"/>
       <c r="W2" s="49"/>
@@ -8613,36 +8763,36 @@
       <c r="AC2" s="26"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="128" t="str">
+      <c r="B3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="74" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="97" t="s">
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="79" t="str">
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="104" t="str">
         <f>Y18</f>
         <v>in12</v>
       </c>
-      <c r="L3" s="80"/>
-      <c r="M3" s="81"/>
-      <c r="N3" s="94"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="108"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="106"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="123"/>
+      <c r="S3" s="123"/>
+      <c r="T3" s="124"/>
       <c r="U3" s="49"/>
       <c r="V3" s="49"/>
       <c r="W3" s="49"/>
@@ -8657,36 +8807,36 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="128" t="str">
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="74" t="str">
         <f>Y14</f>
         <v>in8</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="97" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="108"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="98"/>
-      <c r="P4" s="99"/>
-      <c r="Q4" s="109" t="str">
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="125" t="str">
         <f>Y22</f>
         <v>in16</v>
       </c>
-      <c r="R4" s="110"/>
-      <c r="S4" s="110"/>
-      <c r="T4" s="111"/>
+      <c r="R4" s="126"/>
+      <c r="S4" s="126"/>
+      <c r="T4" s="127"/>
       <c r="U4" s="49"/>
       <c r="V4" s="49"/>
       <c r="W4" s="49"/>
@@ -8713,36 +8863,36 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="115" t="s">
+      <c r="A5" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="116"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="128" t="str">
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="74" t="str">
         <f>Y15</f>
         <v>in9</v>
       </c>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="115" t="s">
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="I5" s="116"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="85" t="str">
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="110" t="str">
         <f>Y19</f>
         <v>in13</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="107"/>
-      <c r="S5" s="107"/>
-      <c r="T5" s="108"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
+      <c r="T5" s="124"/>
       <c r="U5" s="49"/>
       <c r="V5" s="49"/>
       <c r="W5" s="49"/>
@@ -8765,41 +8915,41 @@
       <c r="AE5" s="11"/>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="122" t="str">
+      <c r="B6" s="90"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="95" t="str">
         <f>Y16</f>
         <v>in10</v>
       </c>
-      <c r="E6" s="123"/>
-      <c r="F6" s="123"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="100" t="s">
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="101"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="88" t="str">
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="113" t="str">
         <f>Y20</f>
         <v>in14</v>
       </c>
-      <c r="L6" s="89"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="100" t="s">
+      <c r="L6" s="114"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="101"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="112" t="str">
+      <c r="O6" s="90"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="128" t="str">
         <f>Y23</f>
         <v>in17</v>
       </c>
-      <c r="R6" s="113"/>
-      <c r="S6" s="113"/>
-      <c r="T6" s="114"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
+      <c r="T6" s="130"/>
       <c r="U6" s="50"/>
       <c r="V6" s="50"/>
       <c r="W6" s="50"/>
@@ -8820,9 +8970,9 @@
       <c r="AE6" s="11"/>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="125"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -8940,19 +9090,19 @@
       <c r="B10" s="6"/>
       <c r="C10" s="57"/>
       <c r="D10" s="57"/>
-      <c r="E10" s="118" t="s">
+      <c r="E10" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="118" t="s">
+      <c r="G10" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="118" t="s">
+      <c r="H10" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="118" t="s">
+      <c r="I10" s="94" t="s">
         <v>42</v>
       </c>
       <c r="J10" s="57"/>
@@ -8988,11 +9138,11 @@
       <c r="B11" s="6"/>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="118"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
       <c r="J11" s="57"/>
       <c r="K11" s="58"/>
       <c r="L11" s="6"/>
@@ -9032,11 +9182,11 @@
       <c r="B12" s="6"/>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
       <c r="J12" s="57"/>
       <c r="K12" s="57"/>
       <c r="L12" s="6"/>
@@ -9072,11 +9222,11 @@
       <c r="B13" s="6"/>
       <c r="C13" s="57"/>
       <c r="D13" s="57"/>
-      <c r="E13" s="118"/>
-      <c r="F13" s="118"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="118"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
       <c r="J13" s="57"/>
       <c r="K13" s="57"/>
       <c r="L13" s="6"/>
@@ -9178,21 +9328,21 @@
     <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="74" t="str">
+      <c r="C16" s="92" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
+      <c r="N16" s="93"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -10266,16 +10416,14 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P3"/>
-    <mergeCell ref="Q2:T3"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="A35:T35"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="K3:M4"/>
     <mergeCell ref="A4:C4"/>
@@ -10291,14 +10439,16 @@
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="N6:P6"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A35:T35"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P3"/>
+    <mergeCell ref="Q2:T3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:J4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -10326,8 +10476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:T35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11469,7 +11619,7 @@
     </row>
     <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="71"/>
       <c r="C35" s="71"/>
@@ -11945,7 +12095,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12016,10 +12166,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12038,7 +12188,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -12115,7 +12265,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -12147,7 +12297,7 @@
         <v>250</v>
       </c>
       <c r="B13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -12304,7 +12454,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -12344,7 +12494,7 @@
         <v>274</v>
       </c>
       <c r="B38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -12581,7 +12731,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
@@ -12646,7 +12796,7 @@
         <v>156</v>
       </c>
       <c r="E72" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
@@ -12685,7 +12835,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
@@ -12704,12 +12854,12 @@
         <v>330</v>
       </c>
       <c r="B77" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
@@ -12717,7 +12867,7 @@
         <v>331</v>
       </c>
       <c r="B79" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
@@ -12826,7 +12976,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>345</v>
+        <v>479</v>
       </c>
       <c r="B93" t="s">
         <v>175</v>
@@ -12834,7 +12984,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B94" t="s">
         <v>176</v>
@@ -12842,12 +12992,12 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B96" t="s">
         <v>177</v>
@@ -12855,7 +13005,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B97" t="s">
         <v>178</v>
@@ -12863,15 +13013,15 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B98" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B99" t="s">
         <v>179</v>
@@ -12879,7 +13029,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B100" t="s">
         <v>180</v>
@@ -12887,7 +13037,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B101" t="s">
         <v>181</v>
@@ -12895,7 +13045,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B102" t="s">
         <v>182</v>
@@ -12903,7 +13053,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B103" t="s">
         <v>183</v>
@@ -12911,7 +13061,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B104" t="s">
         <v>184</v>
@@ -12919,7 +13069,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B105" t="s">
         <v>185</v>
@@ -12927,7 +13077,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B106" t="s">
         <v>186</v>
@@ -12935,7 +13085,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B107" t="s">
         <v>187</v>
@@ -12943,7 +13093,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B108" t="s">
         <v>188</v>
@@ -12951,7 +13101,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B109" t="s">
         <v>189</v>
@@ -12959,7 +13109,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B110" t="s">
         <v>190</v>
@@ -12967,7 +13117,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B111" t="s">
         <v>191</v>
@@ -12975,7 +13125,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B112" t="s">
         <v>192</v>
@@ -12983,7 +13133,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B113" t="s">
         <v>193</v>
@@ -12991,7 +13141,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B114" t="s">
         <v>194</v>
@@ -12999,7 +13149,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B115" t="s">
         <v>195</v>
@@ -13007,7 +13157,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B116" t="s">
         <v>196</v>
@@ -13015,7 +13165,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B117" t="s">
         <v>197</v>
@@ -13023,7 +13173,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B118" t="s">
         <v>198</v>
@@ -13031,7 +13181,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B119" t="s">
         <v>199</v>
@@ -13039,7 +13189,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B120" t="s">
         <v>200</v>
@@ -13047,7 +13197,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B121" t="s">
         <v>201</v>
@@ -13055,7 +13205,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B122" t="s">
         <v>202</v>
@@ -13063,7 +13213,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B123" t="s">
         <v>203</v>
@@ -13071,7 +13221,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B124" t="s">
         <v>204</v>
@@ -13079,7 +13229,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B125" t="s">
         <v>205</v>
@@ -13087,7 +13237,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B126" t="s">
         <v>206</v>
@@ -13095,7 +13245,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B127" t="s">
         <v>207</v>
@@ -13103,7 +13253,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B128" t="s">
         <v>208</v>
@@ -13111,7 +13261,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B129" t="s">
         <v>209</v>
@@ -13119,7 +13269,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B130" t="s">
         <v>210</v>
@@ -13127,12 +13277,12 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B132" t="s">
         <v>211</v>
@@ -13140,7 +13290,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B133" t="s">
         <v>212</v>
@@ -13148,7 +13298,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B134" t="s">
         <v>213</v>
@@ -13156,7 +13306,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B135" t="s">
         <v>214</v>
@@ -13164,7 +13314,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B136" t="s">
         <v>215</v>
@@ -13172,7 +13322,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B137" t="s">
         <v>216</v>
@@ -13180,7 +13330,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B138" t="s">
         <v>217</v>
@@ -13188,7 +13338,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B139" t="s">
         <v>218</v>
@@ -13196,7 +13346,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B140" t="s">
         <v>219</v>
@@ -13204,7 +13354,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B141" t="s">
         <v>220</v>
@@ -13212,7 +13362,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B142" t="s">
         <v>221</v>
@@ -13220,7 +13370,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B143" t="s">
         <v>222</v>
@@ -13228,7 +13378,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B144" t="s">
         <v>223</v>
@@ -13236,7 +13386,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B145" t="s">
         <v>224</v>
@@ -13244,7 +13394,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B146" t="s">
         <v>225</v>
@@ -13252,7 +13402,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B147" t="s">
         <v>226</v>
@@ -13260,7 +13410,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B148" t="s">
         <v>227</v>
@@ -13268,7 +13418,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B149" t="s">
         <v>228</v>
@@ -13276,7 +13426,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B150" t="s">
         <v>229</v>
@@ -13284,14 +13434,263 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
+        <v>400</v>
+      </c>
+      <c r="B151" t="s">
         <v>401</v>
       </c>
-      <c r="B151" t="s">
-        <v>402</v>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>423</v>
+      </c>
+      <c r="B153" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
+        <v>424</v>
+      </c>
+      <c r="B154" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>425</v>
+      </c>
+      <c r="B155" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>426</v>
+      </c>
+      <c r="B156" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>427</v>
+      </c>
+      <c r="B157" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>428</v>
+      </c>
+      <c r="B158" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>429</v>
+      </c>
+      <c r="B159" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>430</v>
+      </c>
+      <c r="B160" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>431</v>
+      </c>
+      <c r="B161" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A162" t="s">
+        <v>432</v>
+      </c>
+      <c r="B162" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>433</v>
+      </c>
+      <c r="B163" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>434</v>
+      </c>
+      <c r="B164" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>435</v>
+      </c>
+      <c r="B165" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>436</v>
+      </c>
+      <c r="B166" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>437</v>
+      </c>
+      <c r="B167" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>438</v>
+      </c>
+      <c r="B168" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>439</v>
+      </c>
+      <c r="B169" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>440</v>
+      </c>
+      <c r="B170" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>441</v>
+      </c>
+      <c r="B171" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>442</v>
+      </c>
+      <c r="B172" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>443</v>
+      </c>
+      <c r="B173" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>444</v>
+      </c>
+      <c r="B174" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>445</v>
+      </c>
+      <c r="B175" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>446</v>
+      </c>
+      <c r="B176" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>447</v>
+      </c>
+      <c r="B177" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>417</v>
+      </c>
+      <c r="B179" t="s">
+        <v>475</v>
+      </c>
+      <c r="C179" t="s">
+        <v>418</v>
+      </c>
+      <c r="D179" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>473</v>
+      </c>
+      <c r="B180" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>474</v>
+      </c>
+      <c r="B181" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>476</v>
+      </c>
+      <c r="B182" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template.xlsx
+++ b/template.xlsx
@@ -2101,7 +2101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3529,10 +3529,10 @@
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:S16"/>
+      <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="2.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="2.625" style="45" customWidth="1"/>
@@ -3550,7 +3550,7 @@
     <col min="32" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" ht="15" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="AN1" s="23"/>
     </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" ht="15" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -3621,7 +3621,7 @@
       <c r="AD2" s="63"/>
       <c r="AN2" s="23"/>
     </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -3657,7 +3657,7 @@
       <c r="AD3" s="64"/>
       <c r="AN3" s="23"/>
     </row>
-    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="13"/>
       <c r="C4" s="6"/>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="AN4" s="23"/>
     </row>
-    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" ht="15" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="15"/>
       <c r="C5" s="6"/>
@@ -3751,7 +3751,7 @@
       <c r="AI5" s="23"/>
       <c r="AN5" s="23"/>
     </row>
-    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" ht="15" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="15"/>
       <c r="C6" s="6"/>
@@ -3799,7 +3799,7 @@
       <c r="AI6" s="23"/>
       <c r="AN6" s="23"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="16"/>
       <c r="C7" s="6"/>
@@ -3845,7 +3845,7 @@
       <c r="AI7" s="23"/>
       <c r="AN7" s="23"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="53"/>
       <c r="B8" s="40"/>
       <c r="C8" s="41"/>
@@ -3887,7 +3887,7 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A9" s="131"/>
       <c r="B9" s="131"/>
       <c r="C9" s="131"/>
@@ -3929,7 +3929,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="23"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3971,7 +3971,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="23"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -4019,7 +4019,7 @@
       <c r="AH11" s="23"/>
       <c r="AI11" s="23"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="AE12" s="11"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4107,7 +4107,7 @@
       </c>
       <c r="AE13" s="11"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="AE14" s="11"/>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="15"/>
       <c r="C15" s="9"/>
@@ -4183,7 +4183,7 @@
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -4208,7 +4208,7 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
     </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -4233,7 +4233,7 @@
       <c r="V17" s="6"/>
       <c r="W17" s="7"/>
     </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="15" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -4258,7 +4258,7 @@
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
     </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="15" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -4283,7 +4283,7 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
     </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="15" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -4308,7 +4308,7 @@
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="15" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -4333,7 +4333,7 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
     </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="15" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -4358,7 +4358,7 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="15" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -4383,7 +4383,7 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="15" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -4408,7 +4408,7 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="15" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -4433,7 +4433,7 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
     </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="15" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -4458,7 +4458,7 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -4483,7 +4483,7 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="15" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -4508,7 +4508,7 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="15" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -4533,7 +4533,7 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="15" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -4558,7 +4558,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="15" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -4582,7 +4582,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="15" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="19"/>
       <c r="C32" s="2"/>
@@ -4608,7 +4608,7 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="15" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="19"/>
       <c r="C33" s="2"/>
@@ -4632,7 +4632,7 @@
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
-    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="15" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="19"/>
       <c r="C34" s="2"/>
@@ -4657,7 +4657,7 @@
       <c r="V34" s="6"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="15" customHeight="1">
       <c r="A35" s="70" t="s">
         <v>67</v>
       </c>
@@ -4684,7 +4684,7 @@
       <c r="V35" s="51"/>
       <c r="W35" s="51"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -4708,7 +4708,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -4731,7 +4731,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -4755,7 +4755,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -4779,7 +4779,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -4803,7 +4803,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -4827,7 +4827,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -4851,7 +4851,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -4875,7 +4875,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -4899,7 +4899,7 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -4923,7 +4923,7 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -4947,7 +4947,7 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -4971,7 +4971,7 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -4995,7 +4995,7 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -5019,7 +5019,7 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -5043,7 +5043,7 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -5067,7 +5067,7 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -5140,7 +5140,7 @@
       <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="22" width="2.625" style="3" customWidth="1"/>
     <col min="23" max="23" width="2.625" style="4" customWidth="1"/>
@@ -5155,7 +5155,7 @@
     <col min="32" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" ht="15" customHeight="1">
       <c r="A1" s="102" t="s">
         <v>37</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" ht="15" customHeight="1">
       <c r="A2" s="77" t="s">
         <v>472</v>
       </c>
@@ -5241,7 +5241,7 @@
       <c r="AB2" s="27"/>
       <c r="AC2" s="26"/>
     </row>
-    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" ht="15" customHeight="1">
       <c r="A3" s="86" t="s">
         <v>39</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="AB3" s="32"/>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31" ht="15" customHeight="1">
       <c r="A4" s="86" t="s">
         <v>41</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31" ht="15" customHeight="1">
       <c r="A5" s="86" t="s">
         <v>40</v>
       </c>
@@ -5393,7 +5393,7 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
     </row>
-    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:31" ht="15" customHeight="1">
       <c r="A6" s="89" t="s">
         <v>45</v>
       </c>
@@ -5448,7 +5448,7 @@
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
     </row>
-    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:31" ht="15" customHeight="1">
       <c r="A7" s="98"/>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -5488,7 +5488,7 @@
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
     </row>
-    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:31" ht="15" customHeight="1">
       <c r="A8" s="54"/>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
@@ -5526,7 +5526,7 @@
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
     </row>
-    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:31" ht="15" customHeight="1">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56"/>
@@ -5564,7 +5564,7 @@
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:31" ht="15" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="57"/>
@@ -5618,7 +5618,7 @@
       </c>
       <c r="AE10" s="11"/>
     </row>
-    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31" ht="15" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="57"/>
@@ -5662,7 +5662,7 @@
       </c>
       <c r="AE11" s="11"/>
     </row>
-    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:31" ht="15" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="57"/>
@@ -5706,7 +5706,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:31" ht="15" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="57"/>
@@ -5750,7 +5750,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:31" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="57"/>
@@ -5794,7 +5794,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:31" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="15"/>
       <c r="C15" s="9"/>
@@ -5826,7 +5826,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:31" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="92" t="str">
@@ -5873,7 +5873,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:31" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="92" t="str">
@@ -5920,7 +5920,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:31" ht="15" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -5964,7 +5964,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:31" ht="15" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -6008,7 +6008,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:31" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -6052,7 +6052,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:31" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -6096,7 +6096,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:31" ht="15" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -6140,7 +6140,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:31" ht="15" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -6184,7 +6184,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:31" ht="15" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -6226,7 +6226,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:31" ht="15" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -6268,7 +6268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:31" ht="15" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -6310,7 +6310,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:31" ht="15" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -6352,7 +6352,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:31" ht="15" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -6377,7 +6377,7 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
     </row>
-    <row r="29" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:31" ht="15" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6402,7 +6402,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:31" ht="15" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -6426,7 +6426,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
     </row>
-    <row r="31" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:31" ht="15" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
@@ -6450,7 +6450,7 @@
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
     </row>
-    <row r="32" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:31" ht="15" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
@@ -6474,7 +6474,7 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="15" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
@@ -6499,7 +6499,7 @@
       <c r="V33" s="6"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="15" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -6524,7 +6524,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="15" customHeight="1">
       <c r="A35" s="70" t="s">
         <v>66</v>
       </c>
@@ -6551,7 +6551,7 @@
       <c r="V35" s="51"/>
       <c r="W35" s="51"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -6575,7 +6575,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -6598,7 +6598,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -6622,7 +6622,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -6646,7 +6646,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -6670,7 +6670,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -6694,7 +6694,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -6718,7 +6718,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -6742,7 +6742,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -6766,7 +6766,7 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -6790,7 +6790,7 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -6814,7 +6814,7 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -6838,7 +6838,7 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -6862,7 +6862,7 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -6886,7 +6886,7 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -6910,7 +6910,7 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -6934,7 +6934,7 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -7028,7 +7028,7 @@
       <selection activeCell="A35" sqref="A35:T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="2.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="2.625" style="45" customWidth="1"/>
@@ -7046,7 +7046,7 @@
     <col min="32" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" ht="15" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="AN1" s="23"/>
     </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" ht="15" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -7117,7 +7117,7 @@
       <c r="AD2" s="63"/>
       <c r="AN2" s="23"/>
     </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -7153,7 +7153,7 @@
       <c r="AD3" s="64"/>
       <c r="AN3" s="23"/>
     </row>
-    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="13"/>
       <c r="C4" s="6"/>
@@ -7200,7 +7200,7 @@
       </c>
       <c r="AN4" s="23"/>
     </row>
-    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" ht="15" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="15"/>
       <c r="C5" s="6"/>
@@ -7247,7 +7247,7 @@
       <c r="AI5" s="23"/>
       <c r="AN5" s="23"/>
     </row>
-    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" ht="15" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="15"/>
       <c r="C6" s="6"/>
@@ -7295,7 +7295,7 @@
       <c r="AI6" s="23"/>
       <c r="AN6" s="23"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="16"/>
       <c r="C7" s="6"/>
@@ -7341,7 +7341,7 @@
       <c r="AI7" s="23"/>
       <c r="AN7" s="23"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="53"/>
       <c r="B8" s="40"/>
       <c r="C8" s="41"/>
@@ -7383,7 +7383,7 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7425,7 +7425,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="23"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7470,7 +7470,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="23"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7518,7 +7518,7 @@
       <c r="AH11" s="23"/>
       <c r="AI11" s="23"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="AE12" s="11"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="AE13" s="11"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7656,7 +7656,7 @@
       </c>
       <c r="AE14" s="11"/>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="15"/>
       <c r="C15" s="9"/>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="AE15" s="11"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7728,7 +7728,7 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
     </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7753,7 +7753,7 @@
       <c r="V17" s="6"/>
       <c r="W17" s="7"/>
     </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="15" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7781,7 +7781,7 @@
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
     </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="15" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -7806,7 +7806,7 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
     </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="15" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -7831,7 +7831,7 @@
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="15" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -7856,7 +7856,7 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
     </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="15" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -7881,7 +7881,7 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="15" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -7906,7 +7906,7 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="15" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -7931,7 +7931,7 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="15" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -7956,7 +7956,7 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
     </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="15" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -7981,7 +7981,7 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -8006,7 +8006,7 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="15" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -8031,7 +8031,7 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="15" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -8056,7 +8056,7 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="15" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8081,7 +8081,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="15" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -8105,7 +8105,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="15" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="19"/>
       <c r="C32" s="2"/>
@@ -8131,7 +8131,7 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="15" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="19"/>
       <c r="C33" s="2"/>
@@ -8155,7 +8155,7 @@
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
-    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="15" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="19"/>
       <c r="C34" s="2"/>
@@ -8180,7 +8180,7 @@
       <c r="V34" s="6"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="15" customHeight="1">
       <c r="A35" s="70" t="s">
         <v>66</v>
       </c>
@@ -8207,7 +8207,7 @@
       <c r="V35" s="51"/>
       <c r="W35" s="51"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -8231,7 +8231,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -8254,7 +8254,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -8278,7 +8278,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -8302,7 +8302,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -8326,7 +8326,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -8350,7 +8350,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -8374,7 +8374,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -8398,7 +8398,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -8422,7 +8422,7 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -8446,7 +8446,7 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -8470,7 +8470,7 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -8494,7 +8494,7 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -8518,7 +8518,7 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -8542,7 +8542,7 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -8566,7 +8566,7 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -8590,7 +8590,7 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -8661,7 +8661,7 @@
       <selection activeCell="A35" sqref="A35:T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="22" width="2.625" style="3" customWidth="1"/>
     <col min="23" max="23" width="2.625" style="4" customWidth="1"/>
@@ -8676,7 +8676,7 @@
     <col min="32" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" ht="15" customHeight="1">
       <c r="A1" s="102" t="s">
         <v>37</v>
       </c>
@@ -8713,7 +8713,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" ht="15" customHeight="1">
       <c r="A2" s="77" t="s">
         <v>38</v>
       </c>
@@ -8762,7 +8762,7 @@
       <c r="AB2" s="27"/>
       <c r="AC2" s="26"/>
     </row>
-    <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" ht="15" customHeight="1">
       <c r="A3" s="86" t="s">
         <v>39</v>
       </c>
@@ -8806,7 +8806,7 @@
       <c r="AB3" s="32"/>
       <c r="AC3" s="8"/>
     </row>
-    <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:31" ht="15" customHeight="1">
       <c r="A4" s="86" t="s">
         <v>41</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:31" ht="15" customHeight="1">
       <c r="A5" s="86" t="s">
         <v>40</v>
       </c>
@@ -8914,7 +8914,7 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
     </row>
-    <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:31" ht="15" customHeight="1">
       <c r="A6" s="89" t="s">
         <v>45</v>
       </c>
@@ -8969,7 +8969,7 @@
       <c r="AD6" s="11"/>
       <c r="AE6" s="11"/>
     </row>
-    <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:31" ht="15" customHeight="1">
       <c r="A7" s="98"/>
       <c r="B7" s="98"/>
       <c r="C7" s="98"/>
@@ -9009,7 +9009,7 @@
       <c r="AD7" s="11"/>
       <c r="AE7" s="11"/>
     </row>
-    <row r="8" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:31" ht="15" customHeight="1">
       <c r="A8" s="54"/>
       <c r="B8" s="55"/>
       <c r="C8" s="55"/>
@@ -9047,7 +9047,7 @@
       <c r="AD8" s="11"/>
       <c r="AE8" s="11"/>
     </row>
-    <row r="9" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:31" ht="15" customHeight="1">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="56"/>
@@ -9085,7 +9085,7 @@
       <c r="AD9" s="11"/>
       <c r="AE9" s="11"/>
     </row>
-    <row r="10" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:31" ht="15" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="57"/>
@@ -9133,7 +9133,7 @@
       <c r="AD10" s="11"/>
       <c r="AE10" s="11"/>
     </row>
-    <row r="11" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:31" ht="15" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="57"/>
@@ -9177,7 +9177,7 @@
       </c>
       <c r="AE11" s="11"/>
     </row>
-    <row r="12" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:31" ht="15" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="57"/>
@@ -9217,7 +9217,7 @@
       <c r="AD12" s="11"/>
       <c r="AE12" s="11"/>
     </row>
-    <row r="13" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:31" ht="15" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="57"/>
@@ -9257,7 +9257,7 @@
       <c r="AD13" s="11"/>
       <c r="AE13" s="11"/>
     </row>
-    <row r="14" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:31" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="57"/>
@@ -9297,7 +9297,7 @@
       <c r="AD14" s="11"/>
       <c r="AE14" s="11"/>
     </row>
-    <row r="15" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:31" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="15"/>
       <c r="C15" s="9"/>
@@ -9325,7 +9325,7 @@
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
     </row>
-    <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:31" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="92" t="str">
@@ -9368,7 +9368,7 @@
       <c r="AD16" s="11"/>
       <c r="AE16" s="11"/>
     </row>
-    <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:31" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -9408,7 +9408,7 @@
       <c r="AD17" s="11"/>
       <c r="AE17" s="11"/>
     </row>
-    <row r="18" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:31" ht="15" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -9448,7 +9448,7 @@
       <c r="AD18" s="11"/>
       <c r="AE18" s="11"/>
     </row>
-    <row r="19" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:31" ht="15" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -9488,7 +9488,7 @@
       <c r="AD19" s="11"/>
       <c r="AE19" s="11"/>
     </row>
-    <row r="20" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:31" ht="15" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -9528,7 +9528,7 @@
       <c r="AD20" s="11"/>
       <c r="AE20" s="11"/>
     </row>
-    <row r="21" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:31" ht="15" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -9568,7 +9568,7 @@
       <c r="AD21" s="11"/>
       <c r="AE21" s="11"/>
     </row>
-    <row r="22" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:31" ht="15" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -9608,7 +9608,7 @@
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
     </row>
-    <row r="23" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:31" ht="15" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -9648,7 +9648,7 @@
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
     </row>
-    <row r="24" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:31" ht="15" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -9688,7 +9688,7 @@
       <c r="AD24" s="11"/>
       <c r="AE24" s="11"/>
     </row>
-    <row r="25" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:31" ht="15" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -9728,7 +9728,7 @@
       <c r="AD25" s="11"/>
       <c r="AE25" s="11"/>
     </row>
-    <row r="26" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:31" ht="15" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -9768,7 +9768,7 @@
       <c r="AD26" s="11"/>
       <c r="AE26" s="11"/>
     </row>
-    <row r="27" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:31" ht="15" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -9808,7 +9808,7 @@
       <c r="AD27" s="11"/>
       <c r="AE27" s="11"/>
     </row>
-    <row r="28" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:31" ht="15" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -9833,7 +9833,7 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
     </row>
-    <row r="29" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:31" ht="15" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -9858,7 +9858,7 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:31" ht="15" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -9882,7 +9882,7 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
     </row>
-    <row r="31" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:31" ht="15" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
@@ -9906,7 +9906,7 @@
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
     </row>
-    <row r="32" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:31" ht="15" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
@@ -9930,7 +9930,7 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="15" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
@@ -9955,7 +9955,7 @@
       <c r="V33" s="6"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="15" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -9980,7 +9980,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="15" customHeight="1">
       <c r="A35" s="70" t="s">
         <v>66</v>
       </c>
@@ -10007,7 +10007,7 @@
       <c r="V35" s="51"/>
       <c r="W35" s="51"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -10031,7 +10031,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -10054,7 +10054,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -10078,7 +10078,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -10102,7 +10102,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -10126,7 +10126,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -10150,7 +10150,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -10174,7 +10174,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -10198,7 +10198,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -10222,7 +10222,7 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -10246,7 +10246,7 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -10270,7 +10270,7 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -10294,7 +10294,7 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -10318,7 +10318,7 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -10342,7 +10342,7 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -10366,7 +10366,7 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -10390,7 +10390,7 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -10480,7 +10480,7 @@
       <selection activeCell="A35" sqref="A35:T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="3" width="2.625" style="3" customWidth="1"/>
     <col min="4" max="4" width="2.625" style="45" customWidth="1"/>
@@ -10498,7 +10498,7 @@
     <col min="32" max="16384" width="2.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:40" ht="15" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="AN1" s="23"/>
     </row>
-    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:40" ht="15" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -10569,7 +10569,7 @@
       <c r="AD2" s="63"/>
       <c r="AN2" s="23"/>
     </row>
-    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:40" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -10605,7 +10605,7 @@
       <c r="AD3" s="64"/>
       <c r="AN3" s="23"/>
     </row>
-    <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="13"/>
       <c r="C4" s="6"/>
@@ -10652,7 +10652,7 @@
       </c>
       <c r="AN4" s="23"/>
     </row>
-    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" ht="15" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="15"/>
       <c r="C5" s="6"/>
@@ -10699,7 +10699,7 @@
       <c r="AI5" s="23"/>
       <c r="AN5" s="23"/>
     </row>
-    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" ht="15" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="15"/>
       <c r="C6" s="6"/>
@@ -10747,7 +10747,7 @@
       <c r="AI6" s="23"/>
       <c r="AN6" s="23"/>
     </row>
-    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="16"/>
       <c r="C7" s="6"/>
@@ -10793,7 +10793,7 @@
       <c r="AI7" s="23"/>
       <c r="AN7" s="23"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" ht="15" customHeight="1" thickBot="1">
       <c r="A8" s="53"/>
       <c r="B8" s="40"/>
       <c r="C8" s="41"/>
@@ -10835,7 +10835,7 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="15" customHeight="1" thickTop="1">
       <c r="A9" s="1"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -10877,7 +10877,7 @@
       <c r="AH9" s="23"/>
       <c r="AI9" s="23"/>
     </row>
-    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" ht="15" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -10922,7 +10922,7 @@
       <c r="AH10" s="23"/>
       <c r="AI10" s="23"/>
     </row>
-    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="15" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -10970,7 +10970,7 @@
       <c r="AH11" s="23"/>
       <c r="AI11" s="23"/>
     </row>
-    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="15" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="AE12" s="11"/>
     </row>
-    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="15" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="AE13" s="11"/>
     </row>
-    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="15" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="AE14" s="11"/>
     </row>
-    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="15" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="15"/>
       <c r="C15" s="9"/>
@@ -11140,7 +11140,7 @@
       <c r="AD15" s="11"/>
       <c r="AE15" s="11"/>
     </row>
-    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" ht="15" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -11168,7 +11168,7 @@
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
     </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="15" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -11193,7 +11193,7 @@
       <c r="V17" s="6"/>
       <c r="W17" s="7"/>
     </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="15" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -11218,7 +11218,7 @@
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
     </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="15" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -11243,7 +11243,7 @@
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
     </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="15" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -11268,7 +11268,7 @@
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="15" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -11293,7 +11293,7 @@
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
     </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="15" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -11318,7 +11318,7 @@
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="15" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -11343,7 +11343,7 @@
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="15" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -11368,7 +11368,7 @@
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="15" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -11393,7 +11393,7 @@
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
     </row>
-    <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="15" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -11418,7 +11418,7 @@
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="15" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -11443,7 +11443,7 @@
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
     </row>
-    <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="15" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -11468,7 +11468,7 @@
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
     </row>
-    <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="15" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -11493,7 +11493,7 @@
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
     </row>
-    <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="15" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -11518,7 +11518,7 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="15" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -11542,7 +11542,7 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
     </row>
-    <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="15" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="19"/>
       <c r="C32" s="2"/>
@@ -11568,7 +11568,7 @@
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
-    <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:23" ht="15" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="19"/>
       <c r="C33" s="2"/>
@@ -11592,7 +11592,7 @@
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
-    <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:23" ht="15" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="19"/>
       <c r="C34" s="2"/>
@@ -11617,7 +11617,7 @@
       <c r="V34" s="6"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:23" ht="15" customHeight="1">
       <c r="A35" s="70" t="s">
         <v>66</v>
       </c>
@@ -11644,7 +11644,7 @@
       <c r="V35" s="51"/>
       <c r="W35" s="51"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:23">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -11668,7 +11668,7 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:23">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -11691,7 +11691,7 @@
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:23">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -11715,7 +11715,7 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:23">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -11739,7 +11739,7 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:23">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -11763,7 +11763,7 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:23">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -11787,7 +11787,7 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:23">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -11811,7 +11811,7 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:23">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -11835,7 +11835,7 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:23">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -11859,7 +11859,7 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:23">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -11883,7 +11883,7 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:23">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -11907,7 +11907,7 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:23">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -11931,7 +11931,7 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:23">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -11955,7 +11955,7 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:22">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -11979,7 +11979,7 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:22">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -12003,7 +12003,7 @@
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:22">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -12027,7 +12027,7 @@
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:22">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -12098,64 +12098,64 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" s="24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="61" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="24" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1">
       <c r="A12" s="61"/>
     </row>
   </sheetData>
@@ -12172,7 +12172,7 @@
       <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.125" customWidth="1"/>
@@ -12181,17 +12181,17 @@
     <col min="5" max="5" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>232</v>
       </c>
@@ -12205,7 +12205,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>233</v>
       </c>
@@ -12216,7 +12216,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>235</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>237</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>241</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>243</v>
       </c>
@@ -12263,12 +12263,12 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>246</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>248</v>
       </c>
@@ -12284,7 +12284,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>249</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>252</v>
       </c>
@@ -12316,7 +12316,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>253</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>254</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>255</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>256</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>257</v>
       </c>
@@ -12356,7 +12356,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>258</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>259</v>
       </c>
@@ -12372,7 +12372,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>260</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>261</v>
       </c>
@@ -12388,7 +12388,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>262</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>263</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>264</v>
       </c>
@@ -12412,7 +12412,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>265</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>266</v>
       </c>
@@ -12428,7 +12428,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>267</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>268</v>
       </c>
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>269</v>
       </c>
@@ -12452,12 +12452,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>270</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>271</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>272</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>273</v>
       </c>
@@ -12489,7 +12489,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>274</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>275</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>276</v>
       </c>
@@ -12513,7 +12513,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>277</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>278</v>
       </c>
@@ -12529,7 +12529,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>279</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>280</v>
       </c>
@@ -12545,7 +12545,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>281</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>282</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>283</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>284</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>285</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>287</v>
       </c>
@@ -12593,7 +12593,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>289</v>
       </c>
@@ -12601,7 +12601,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>291</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>293</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>295</v>
       </c>
@@ -12625,7 +12625,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>297</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>299</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>301</v>
       </c>
@@ -12649,7 +12649,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>303</v>
       </c>
@@ -12657,7 +12657,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>305</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>307</v>
       </c>
@@ -12673,7 +12673,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>309</v>
       </c>
@@ -12681,7 +12681,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>311</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>313</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>315</v>
       </c>
@@ -12705,7 +12705,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5">
       <c r="A65" t="s">
         <v>317</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5">
       <c r="A66" t="s">
         <v>319</v>
       </c>
@@ -12721,7 +12721,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>321</v>
       </c>
@@ -12729,12 +12729,12 @@
         <v>322</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5">
       <c r="A68" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5">
       <c r="A69" t="s">
         <v>323</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5">
       <c r="A70" t="s">
         <v>324</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>325</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>326</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:5">
       <c r="A73" t="s">
         <v>327</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5">
       <c r="A74" t="s">
         <v>328</v>
       </c>
@@ -12833,12 +12833,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5">
       <c r="A75" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5">
       <c r="A76" t="s">
         <v>329</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:5">
       <c r="A77" t="s">
         <v>330</v>
       </c>
@@ -12857,12 +12857,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5">
       <c r="A78" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5">
       <c r="A79" t="s">
         <v>331</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5">
       <c r="A80" t="s">
         <v>332</v>
       </c>
@@ -12878,7 +12878,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>333</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>334</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>335</v>
       </c>
@@ -12902,7 +12902,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>336</v>
       </c>
@@ -12910,7 +12910,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>337</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>338</v>
       </c>
@@ -12926,7 +12926,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>339</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>340</v>
       </c>
@@ -12942,7 +12942,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>341</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>342</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>343</v>
       </c>
@@ -12966,7 +12966,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>344</v>
       </c>
@@ -12974,7 +12974,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>479</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>345</v>
       </c>
@@ -12990,12 +12990,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>346</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>347</v>
       </c>
@@ -13011,7 +13011,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>348</v>
       </c>
@@ -13019,7 +13019,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>349</v>
       </c>
@@ -13027,7 +13027,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>350</v>
       </c>
@@ -13035,7 +13035,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>351</v>
       </c>
@@ -13043,7 +13043,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>352</v>
       </c>
@@ -13051,7 +13051,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>353</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>354</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>355</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>356</v>
       </c>
@@ -13083,7 +13083,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>357</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>358</v>
       </c>
@@ -13099,7 +13099,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>359</v>
       </c>
@@ -13107,7 +13107,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>360</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>361</v>
       </c>
@@ -13123,7 +13123,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>362</v>
       </c>
@@ -13131,7 +13131,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>363</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>364</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>365</v>
       </c>
@@ -13155,7 +13155,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>366</v>
       </c>
@@ -13163,7 +13163,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>367</v>
       </c>
@@ -13171,7 +13171,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>368</v>
       </c>
@@ -13179,7 +13179,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>369</v>
       </c>
@@ -13187,7 +13187,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>370</v>
       </c>
@@ -13195,7 +13195,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>371</v>
       </c>
@@ -13203,7 +13203,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>372</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>373</v>
       </c>
@@ -13219,7 +13219,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>374</v>
       </c>
@@ -13227,7 +13227,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>375</v>
       </c>
@@ -13235,7 +13235,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>376</v>
       </c>
@@ -13243,7 +13243,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>377</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>378</v>
       </c>
@@ -13259,7 +13259,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>379</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>380</v>
       </c>
@@ -13275,12 +13275,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>381</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>382</v>
       </c>
@@ -13296,7 +13296,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>383</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>384</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>385</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>386</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>387</v>
       </c>
@@ -13336,7 +13336,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>388</v>
       </c>
@@ -13344,7 +13344,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>389</v>
       </c>
@@ -13352,7 +13352,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>390</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>391</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>392</v>
       </c>
@@ -13376,7 +13376,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>393</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>394</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>395</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>396</v>
       </c>
@@ -13408,7 +13408,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>397</v>
       </c>
@@ -13416,7 +13416,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>398</v>
       </c>
@@ -13424,7 +13424,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>399</v>
       </c>
@@ -13432,7 +13432,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>400</v>
       </c>
@@ -13440,12 +13440,12 @@
         <v>401</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>423</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>424</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>425</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>426</v>
       </c>
@@ -13477,7 +13477,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>427</v>
       </c>
@@ -13485,7 +13485,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>428</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>429</v>
       </c>
@@ -13501,7 +13501,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>430</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>431</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>432</v>
       </c>
@@ -13525,7 +13525,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>433</v>
       </c>
@@ -13533,7 +13533,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>434</v>
       </c>
@@ -13541,7 +13541,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>435</v>
       </c>
@@ -13549,7 +13549,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>436</v>
       </c>
@@ -13557,7 +13557,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>437</v>
       </c>
@@ -13565,7 +13565,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>438</v>
       </c>
@@ -13573,7 +13573,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>439</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>440</v>
       </c>
@@ -13589,7 +13589,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>441</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>442</v>
       </c>
@@ -13605,7 +13605,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>443</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>444</v>
       </c>
@@ -13621,7 +13621,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>445</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>446</v>
       </c>
@@ -13637,7 +13637,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>447</v>
       </c>
@@ -13645,12 +13645,12 @@
         <v>471</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>417</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>473</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>474</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>476</v>
       </c>

--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="29" r:id="rId1"/>
@@ -100,37 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>W13</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>W13</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,111 +140,6 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>VLINE</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>W3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>W16</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G10" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>W13</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>W13</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G14" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>W13</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G15" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>W13</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A35" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1019,7 +884,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="487">
   <si>
     <t>action</t>
     <phoneticPr fontId="5"/>
@@ -2625,11 +2490,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Users</t>
+    <t>{redirect('user')}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>{redirect('user')}</t>
+    <t>便利なLine管理</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー{ opts.userCount }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応答{ opts.replyCount }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メーセージ{ opts.messageCount }</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W10 H2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ようこそ、{ opts.name }様</t>
+    <rPh sb="18" eb="19">
+      <t>サマ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3315,7 +3203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3761,6 +3649,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3775,6 +3666,89 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4085,8 +4059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AB6" sqref="AB6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4294,9 +4268,7 @@
       <c r="AA5" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="AB5" s="25" t="s">
-        <v>72</v>
-      </c>
+      <c r="AB5" s="25"/>
       <c r="AC5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4314,9 +4286,8 @@
       <c r="C6" s="6"/>
       <c r="D6" s="79"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="67" t="str">
-        <f>Y5</f>
-        <v>title</v>
+      <c r="F6" s="67" t="s">
+        <v>481</v>
       </c>
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
@@ -4345,7 +4316,7 @@
         <v>94</v>
       </c>
       <c r="AB6" s="25" t="s">
-        <v>73</v>
+        <v>486</v>
       </c>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
@@ -4493,19 +4464,22 @@
       <c r="D10" s="79"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="76"/>
+      <c r="G10" s="152" t="str">
+        <f>Y11</f>
+        <v>in5</v>
+      </c>
+      <c r="H10" s="153"/>
+      <c r="I10" s="153"/>
+      <c r="J10" s="153"/>
+      <c r="K10" s="153"/>
+      <c r="L10" s="153"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="153"/>
+      <c r="O10" s="153"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="154"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -4535,19 +4509,19 @@
       <c r="D11" s="79"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="147"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="147"/>
+      <c r="N11" s="147"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="148"/>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -4562,13 +4536,13 @@
         <v>32</v>
       </c>
       <c r="AB11" s="25" t="s">
+        <v>482</v>
+      </c>
+      <c r="AC11" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="AD11" s="11" t="s">
         <v>480</v>
-      </c>
-      <c r="AC11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>481</v>
       </c>
       <c r="AE11" s="11"/>
       <c r="AF11" s="23"/>
@@ -4583,19 +4557,19 @@
       <c r="D12" s="79"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="150"/>
+      <c r="O12" s="150"/>
+      <c r="P12" s="150"/>
+      <c r="Q12" s="150"/>
+      <c r="R12" s="150"/>
+      <c r="S12" s="151"/>
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
@@ -4610,10 +4584,10 @@
         <v>32</v>
       </c>
       <c r="AB12" s="25" t="s">
-        <v>86</v>
+        <v>484</v>
       </c>
       <c r="AC12" s="11" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="AD12" s="11" t="s">
         <v>107</v>
@@ -4654,10 +4628,10 @@
         <v>32</v>
       </c>
       <c r="AB13" s="25" t="s">
-        <v>88</v>
+        <v>483</v>
       </c>
       <c r="AC13" s="11" t="s">
-        <v>57</v>
+        <v>485</v>
       </c>
       <c r="AD13" s="11" t="s">
         <v>108</v>
@@ -4671,19 +4645,22 @@
       <c r="D14" s="79"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
+      <c r="G14" s="152" t="str">
+        <f>Y12</f>
+        <v>in6</v>
+      </c>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="153"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="154"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
@@ -4715,22 +4692,19 @@
       <c r="D15" s="79"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="82" t="str">
-        <f>Y11</f>
-        <v>in5</v>
-      </c>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="146"/>
-      <c r="N15" s="146"/>
-      <c r="O15" s="146"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="146"/>
-      <c r="S15" s="147"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="148"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -4750,19 +4724,19 @@
       <c r="D16" s="79"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="149"/>
-      <c r="I16" s="149"/>
-      <c r="J16" s="149"/>
-      <c r="K16" s="149"/>
-      <c r="L16" s="149"/>
-      <c r="M16" s="149"/>
-      <c r="N16" s="149"/>
-      <c r="O16" s="149"/>
-      <c r="P16" s="149"/>
-      <c r="Q16" s="149"/>
-      <c r="R16" s="149"/>
-      <c r="S16" s="150"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="150"/>
+      <c r="L16" s="150"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="150"/>
+      <c r="O16" s="150"/>
+      <c r="P16" s="150"/>
+      <c r="Q16" s="150"/>
+      <c r="R16" s="150"/>
+      <c r="S16" s="151"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -4800,19 +4774,22 @@
       <c r="D18" s="79"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
+      <c r="G18" s="152" t="str">
+        <f>Y13</f>
+        <v>in7</v>
+      </c>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="153"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="154"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
@@ -4825,19 +4802,19 @@
       <c r="D19" s="79"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="147"/>
+      <c r="P19" s="147"/>
+      <c r="Q19" s="147"/>
+      <c r="R19" s="147"/>
+      <c r="S19" s="148"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
@@ -4850,19 +4827,19 @@
       <c r="D20" s="79"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="150"/>
+      <c r="L20" s="150"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="150"/>
+      <c r="Q20" s="150"/>
+      <c r="R20" s="150"/>
+      <c r="S20" s="151"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
@@ -5656,17 +5633,16 @@
     <protectedRange sqref="F6" name="タイトル1"/>
     <protectedRange sqref="F32" name="会社名"/>
   </protectedRanges>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="A35:T35"/>
+    <mergeCell ref="G14:S16"/>
+    <mergeCell ref="G10:S12"/>
+    <mergeCell ref="G18:S20"/>
     <mergeCell ref="D1:D34"/>
     <mergeCell ref="F6:S6"/>
     <mergeCell ref="F7:M7"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="E9:T9"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="G12:S12"/>
-    <mergeCell ref="G14:S14"/>
-    <mergeCell ref="G15:S16"/>
     <mergeCell ref="F32:S32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -7301,8 +7277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7327,7 +7303,7 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="79"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -7362,23 +7338,23 @@
       <c r="A2" s="1"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
-      <c r="D2" s="79"/>
+      <c r="D2" s="36"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="157"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="157"/>
+      <c r="M2" s="158"/>
+      <c r="N2" s="158"/>
+      <c r="O2" s="158"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="158"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
@@ -7398,7 +7374,7 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="79"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -7432,25 +7408,25 @@
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
       <c r="W4" s="14"/>
@@ -7479,25 +7455,25 @@
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="163"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="O5" s="163"/>
+      <c r="P5" s="161"/>
+      <c r="Q5" s="161"/>
+      <c r="R5" s="161"/>
+      <c r="S5" s="161"/>
+      <c r="T5" s="161"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14"/>
       <c r="W5" s="14"/>
@@ -7526,28 +7502,25 @@
     </row>
     <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="67" t="str">
-        <f>Y5</f>
-        <v>title</v>
-      </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="14"/>
+      <c r="B6" s="162"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="165"/>
+      <c r="H6" s="165"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="165"/>
+      <c r="K6" s="165"/>
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="165"/>
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="165"/>
+      <c r="T6" s="161"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14"/>
       <c r="W6" s="14"/>
@@ -7574,28 +7547,25 @@
     </row>
     <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="70" t="str">
-        <f>Y6</f>
-        <v>headline</v>
-      </c>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="52"/>
+      <c r="B7" s="166"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="168"/>
+      <c r="K7" s="168"/>
+      <c r="L7" s="168"/>
+      <c r="M7" s="168"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="167"/>
+      <c r="T7" s="167"/>
       <c r="U7" s="52"/>
       <c r="V7" s="14"/>
       <c r="W7" s="14"/>
@@ -7618,27 +7588,27 @@
       <c r="AI7" s="23"/>
       <c r="AN7" s="23"/>
     </row>
-    <row r="8" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
-      <c r="T8" s="41"/>
+    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="169"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="Q8" s="170"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="160"/>
+      <c r="T8" s="160"/>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="W8" s="6"/>
@@ -7660,27 +7630,27 @@
       <c r="AH8" s="23"/>
       <c r="AI8" s="23"/>
     </row>
-    <row r="9" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
-      <c r="O9" s="81"/>
-      <c r="P9" s="81"/>
-      <c r="Q9" s="81"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="81"/>
-      <c r="T9" s="81"/>
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="160"/>
+      <c r="M9" s="160"/>
+      <c r="N9" s="160"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="160"/>
+      <c r="R9" s="160"/>
+      <c r="S9" s="160"/>
+      <c r="T9" s="160"/>
       <c r="U9" s="6"/>
       <c r="V9" s="6"/>
       <c r="W9" s="6"/>
@@ -7704,25 +7674,25 @@
     </row>
     <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="6"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="160"/>
+      <c r="O10" s="160"/>
+      <c r="P10" s="160"/>
+      <c r="Q10" s="160"/>
+      <c r="R10" s="160"/>
+      <c r="S10" s="160"/>
+      <c r="T10" s="160"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
       <c r="W10" s="6"/>
@@ -7746,25 +7716,25 @@
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="Q11" s="170"/>
+      <c r="R11" s="160"/>
+      <c r="S11" s="160"/>
+      <c r="T11" s="160"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
@@ -7794,25 +7764,25 @@
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="6"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="160"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="160"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="160"/>
+      <c r="P12" s="160"/>
+      <c r="Q12" s="160"/>
+      <c r="R12" s="160"/>
+      <c r="S12" s="160"/>
+      <c r="T12" s="160"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
@@ -7838,25 +7808,25 @@
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="160"/>
+      <c r="R13" s="160"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="160"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
@@ -7882,25 +7852,25 @@
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="6"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="160"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="160"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="160"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
@@ -7926,24 +7896,24 @@
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="84"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="171"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="160"/>
+      <c r="M15" s="160"/>
+      <c r="N15" s="160"/>
+      <c r="O15" s="160"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="160"/>
+      <c r="R15" s="160"/>
+      <c r="S15" s="160"/>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -7958,24 +7928,24 @@
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="87"/>
+      <c r="B16" s="160"/>
+      <c r="C16" s="160"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="160"/>
+      <c r="R16" s="160"/>
+      <c r="S16" s="160"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
@@ -7983,449 +7953,447 @@
     </row>
     <row r="17" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
+      <c r="B17" s="160"/>
+      <c r="C17" s="160"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="160"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="160"/>
+      <c r="L17" s="160"/>
+      <c r="M17" s="160"/>
+      <c r="N17" s="160"/>
+      <c r="O17" s="160"/>
+      <c r="P17" s="160"/>
+      <c r="Q17" s="160"/>
+      <c r="R17" s="160"/>
+      <c r="S17" s="160"/>
+      <c r="T17" s="160"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
       <c r="W17" s="7"/>
     </row>
     <row r="18" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="160"/>
+      <c r="P18" s="160"/>
+      <c r="Q18" s="160"/>
+      <c r="R18" s="160"/>
+      <c r="S18" s="160"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
     </row>
     <row r="19" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="172"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="172"/>
+      <c r="Q19" s="172"/>
+      <c r="R19" s="172"/>
+      <c r="S19" s="172"/>
       <c r="T19" s="7"/>
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
       <c r="W19" s="7"/>
     </row>
     <row r="20" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="172"/>
+      <c r="Q20" s="172"/>
+      <c r="R20" s="172"/>
+      <c r="S20" s="172"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
     </row>
     <row r="21" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="172"/>
+      <c r="R21" s="172"/>
+      <c r="S21" s="172"/>
       <c r="T21" s="7"/>
       <c r="U21" s="7"/>
       <c r="V21" s="7"/>
       <c r="W21" s="7"/>
     </row>
     <row r="22" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="160"/>
+      <c r="C22" s="160"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="172"/>
+      <c r="M22" s="172"/>
+      <c r="N22" s="172"/>
+      <c r="O22" s="172"/>
+      <c r="P22" s="172"/>
+      <c r="Q22" s="172"/>
+      <c r="R22" s="172"/>
+      <c r="S22" s="172"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="172"/>
+      <c r="L23" s="172"/>
+      <c r="M23" s="172"/>
+      <c r="N23" s="172"/>
+      <c r="O23" s="172"/>
+      <c r="P23" s="172"/>
+      <c r="Q23" s="172"/>
+      <c r="R23" s="172"/>
+      <c r="S23" s="172"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
       <c r="W23" s="7"/>
     </row>
     <row r="24" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="160"/>
+      <c r="C24" s="160"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="160"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="172"/>
+      <c r="L24" s="172"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="172"/>
+      <c r="P24" s="172"/>
+      <c r="Q24" s="172"/>
+      <c r="R24" s="172"/>
+      <c r="S24" s="172"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
     </row>
     <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="160"/>
+      <c r="C25" s="160"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="172"/>
+      <c r="L25" s="172"/>
+      <c r="M25" s="172"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="172"/>
+      <c r="P25" s="172"/>
+      <c r="Q25" s="172"/>
+      <c r="R25" s="172"/>
+      <c r="S25" s="172"/>
       <c r="T25" s="7"/>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
       <c r="W25" s="7"/>
     </row>
     <row r="26" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="172"/>
+      <c r="L26" s="172"/>
+      <c r="M26" s="172"/>
+      <c r="N26" s="172"/>
+      <c r="O26" s="172"/>
+      <c r="P26" s="172"/>
+      <c r="Q26" s="172"/>
+      <c r="R26" s="172"/>
+      <c r="S26" s="172"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
     </row>
     <row r="27" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="2"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="160"/>
+      <c r="C27" s="160"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="172"/>
+      <c r="L27" s="172"/>
+      <c r="M27" s="172"/>
+      <c r="N27" s="172"/>
+      <c r="O27" s="172"/>
+      <c r="P27" s="172"/>
+      <c r="Q27" s="172"/>
+      <c r="R27" s="172"/>
+      <c r="S27" s="172"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
     </row>
     <row r="28" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="2"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="160"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="160"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="172"/>
+      <c r="L28" s="172"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="172"/>
+      <c r="O28" s="172"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="172"/>
+      <c r="R28" s="172"/>
+      <c r="S28" s="172"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
     </row>
     <row r="29" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="172"/>
+      <c r="N29" s="172"/>
+      <c r="O29" s="172"/>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="172"/>
+      <c r="R29" s="172"/>
+      <c r="S29" s="172"/>
       <c r="T29" s="7"/>
       <c r="U29" s="7"/>
       <c r="V29" s="7"/>
       <c r="W29" s="7"/>
     </row>
     <row r="30" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
     <row r="31" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="2"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="156"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
     </row>
     <row r="32" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="2"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="69"/>
-      <c r="N32" s="69"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="6"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="173"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="160"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
     </row>
     <row r="33" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="2"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="173"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="160"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="160"/>
+      <c r="M33" s="160"/>
+      <c r="N33" s="160"/>
+      <c r="O33" s="160"/>
+      <c r="P33" s="160"/>
+      <c r="Q33" s="160"/>
+      <c r="R33" s="160"/>
+      <c r="S33" s="160"/>
+      <c r="T33" s="160"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
     </row>
     <row r="34" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="2"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="65"/>
+      <c r="A34" s="176"/>
+      <c r="B34" s="177"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="155"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="179"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="179"/>
+      <c r="K34" s="179"/>
+      <c r="L34" s="179"/>
+      <c r="M34" s="179"/>
+      <c r="N34" s="179"/>
+      <c r="O34" s="179"/>
+      <c r="P34" s="179"/>
+      <c r="Q34" s="179"/>
+      <c r="R34" s="179"/>
+      <c r="S34" s="179"/>
+      <c r="T34" s="180"/>
       <c r="U34" s="4"/>
       <c r="V34" s="6"/>
       <c r="W34" s="2"/>
@@ -8869,18 +8837,8 @@
     <protectedRange sqref="F6" name="タイトル1"/>
     <protectedRange sqref="F32" name="会社名"/>
   </protectedRanges>
-  <mergeCells count="11">
+  <mergeCells count="1">
     <mergeCell ref="A35:T35"/>
-    <mergeCell ref="D1:D34"/>
-    <mergeCell ref="F6:S6"/>
-    <mergeCell ref="F7:M7"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:T9"/>
-    <mergeCell ref="G10:S10"/>
-    <mergeCell ref="G12:S12"/>
-    <mergeCell ref="G14:S14"/>
-    <mergeCell ref="G15:S16"/>
-    <mergeCell ref="F32:S32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -13731,7 +13689,7 @@
   <dimension ref="A1:AE52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -440,7 +440,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="505">
   <si>
     <t>action</t>
     <phoneticPr fontId="5"/>
@@ -2130,6 +2130,22 @@
   </si>
   <si>
     <t>loop</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hahahahaha</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6856,7 +6872,7 @@
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7614,7 +7630,9 @@
       <c r="A20" s="156"/>
       <c r="B20" s="151"/>
       <c r="C20" s="151"/>
-      <c r="D20" s="157"/>
+      <c r="D20" s="157" t="s">
+        <v>502</v>
+      </c>
       <c r="E20" s="151"/>
       <c r="F20" s="151"/>
       <c r="G20" s="160"/>
@@ -7639,7 +7657,9 @@
       <c r="A21" s="156"/>
       <c r="B21" s="151"/>
       <c r="C21" s="151"/>
-      <c r="D21" s="157"/>
+      <c r="D21" s="157" t="s">
+        <v>503</v>
+      </c>
       <c r="E21" s="151"/>
       <c r="F21" s="151"/>
       <c r="G21" s="160"/>
@@ -7664,7 +7684,9 @@
       <c r="A22" s="156"/>
       <c r="B22" s="151"/>
       <c r="C22" s="151"/>
-      <c r="D22" s="157"/>
+      <c r="D22" s="157" t="s">
+        <v>501</v>
+      </c>
       <c r="E22" s="151"/>
       <c r="F22" s="151"/>
       <c r="G22" s="160"/>
@@ -7689,7 +7711,9 @@
       <c r="A23" s="156"/>
       <c r="B23" s="151"/>
       <c r="C23" s="151"/>
-      <c r="D23" s="157"/>
+      <c r="D23" s="157" t="s">
+        <v>501</v>
+      </c>
       <c r="E23" s="151"/>
       <c r="F23" s="151"/>
       <c r="G23" s="160"/>
@@ -7714,7 +7738,9 @@
       <c r="A24" s="156"/>
       <c r="B24" s="151"/>
       <c r="C24" s="151"/>
-      <c r="D24" s="157"/>
+      <c r="D24" s="157" t="s">
+        <v>503</v>
+      </c>
       <c r="E24" s="151"/>
       <c r="F24" s="151"/>
       <c r="G24" s="160"/>
@@ -7739,7 +7765,9 @@
       <c r="A25" s="156"/>
       <c r="B25" s="151"/>
       <c r="C25" s="151"/>
-      <c r="D25" s="157"/>
+      <c r="D25" s="157" t="s">
+        <v>503</v>
+      </c>
       <c r="E25" s="151"/>
       <c r="F25" s="151"/>
       <c r="G25" s="160"/>
@@ -7764,7 +7792,9 @@
       <c r="A26" s="156"/>
       <c r="B26" s="151"/>
       <c r="C26" s="151"/>
-      <c r="D26" s="157"/>
+      <c r="D26" s="157" t="s">
+        <v>504</v>
+      </c>
       <c r="E26" s="151"/>
       <c r="F26" s="151"/>
       <c r="G26" s="160"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="825"/>
   </bookViews>
   <sheets>
     <sheet name="admin" sheetId="29" r:id="rId1"/>
@@ -82,6 +82,51 @@
             <charset val="128"/>
           </rPr>
           <t>W16</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>W4 H2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>W4 H2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>W5 H2</t>
         </r>
       </text>
     </comment>
@@ -2735,7 +2780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3013,42 +3058,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3060,6 +3069,19 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3079,45 +3101,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3174,6 +3164,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="23" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3209,6 +3223,70 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3519,8 +3597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:S20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26:S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4362,19 +4440,19 @@
       <c r="D23" s="92"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="N23" s="158"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="157"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="157"/>
+      <c r="S23" s="158"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -4387,19 +4465,19 @@
       <c r="D24" s="92"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="159"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="159"/>
+      <c r="P24" s="160"/>
+      <c r="Q24" s="160"/>
+      <c r="R24" s="160"/>
+      <c r="S24" s="161"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
@@ -4437,19 +4515,19 @@
       <c r="D26" s="92"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
-      <c r="S26" s="61"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="163"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="163"/>
+      <c r="M26" s="163"/>
+      <c r="N26" s="164"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="163"/>
+      <c r="Q26" s="163"/>
+      <c r="R26" s="163"/>
+      <c r="S26" s="164"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
@@ -4462,19 +4540,19 @@
       <c r="D27" s="92"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="167"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="167"/>
+      <c r="O27" s="165"/>
+      <c r="P27" s="166"/>
+      <c r="Q27" s="166"/>
+      <c r="R27" s="166"/>
+      <c r="S27" s="167"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -5093,7 +5171,7 @@
     <protectedRange sqref="F6" name="タイトル1"/>
     <protectedRange sqref="F32" name="会社名"/>
   </protectedRanges>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A35:T35"/>
     <mergeCell ref="G14:S16"/>
     <mergeCell ref="G10:S12"/>
@@ -5104,6 +5182,9 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="E9:T9"/>
     <mergeCell ref="F32:S32"/>
+    <mergeCell ref="G23:J24"/>
+    <mergeCell ref="K23:N24"/>
+    <mergeCell ref="O23:S24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -11476,8 +11557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13116,28 +13197,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="128"/>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-      <c r="G1" s="128"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="128"/>
-      <c r="J1" s="128"/>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="128"/>
-      <c r="T1" s="128"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
       <c r="U1" s="45"/>
       <c r="V1" s="45"/>
       <c r="W1" s="45"/>
@@ -13153,41 +13234,41 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="148" t="s">
         <v>468</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="125" t="str">
+      <c r="B2" s="149"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="155" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="100" t="s">
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="148" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="129" t="str">
+      <c r="I2" s="149"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="113" t="str">
         <f>Y17</f>
         <v>in11</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="142" t="s">
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="143"/>
-      <c r="P2" s="144"/>
-      <c r="Q2" s="145" t="str">
+      <c r="O2" s="128"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="136" t="str">
         <f>Y21</f>
         <v>in15</v>
       </c>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
-      <c r="T2" s="147"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="137"/>
+      <c r="T2" s="138"/>
       <c r="U2" s="46"/>
       <c r="V2" s="46"/>
       <c r="W2" s="46"/>
@@ -13202,36 +13283,36 @@
       <c r="AC2" s="24"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="109" t="s">
+      <c r="A3" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="121" t="str">
+      <c r="B3" s="101"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="104" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="103" t="s">
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="133" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="104"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="130" t="str">
+      <c r="I3" s="134"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="115" t="str">
         <f>Y18</f>
         <v>in12</v>
       </c>
-      <c r="L3" s="131"/>
-      <c r="M3" s="132"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="148"/>
-      <c r="R3" s="149"/>
-      <c r="S3" s="149"/>
-      <c r="T3" s="150"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="141"/>
       <c r="U3" s="46"/>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
@@ -13246,36 +13327,36 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="121" t="str">
+      <c r="B4" s="101"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="104" t="str">
         <f>Y14</f>
         <v>in8</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="135"/>
-      <c r="N4" s="103" t="s">
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="104"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="151" t="str">
+      <c r="O4" s="134"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="142" t="str">
         <f>Y22</f>
         <v>in16</v>
       </c>
-      <c r="R4" s="152"/>
-      <c r="S4" s="152"/>
-      <c r="T4" s="153"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="144"/>
       <c r="U4" s="46"/>
       <c r="V4" s="46"/>
       <c r="W4" s="46"/>
@@ -13302,36 +13383,36 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="121" t="str">
+      <c r="B5" s="101"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="104" t="str">
         <f>Y15</f>
         <v>in9</v>
       </c>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="109" t="s">
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="110"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="136" t="str">
+      <c r="I5" s="101"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="121" t="str">
         <f>Y19</f>
         <v>in13</v>
       </c>
-      <c r="L5" s="137"/>
-      <c r="M5" s="138"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="148"/>
-      <c r="R5" s="149"/>
-      <c r="S5" s="149"/>
-      <c r="T5" s="150"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="132"/>
+      <c r="Q5" s="139"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="141"/>
       <c r="U5" s="46"/>
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
@@ -13354,41 +13435,41 @@
       <c r="AE5" s="10"/>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="113"/>
-      <c r="C6" s="114"/>
-      <c r="D6" s="118" t="str">
+      <c r="B6" s="108"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="151" t="str">
         <f>Y16</f>
         <v>in10</v>
       </c>
-      <c r="E6" s="119"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="112" t="s">
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="113"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="139" t="str">
+      <c r="I6" s="108"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="124" t="str">
         <f>Y20</f>
         <v>in14</v>
       </c>
-      <c r="L6" s="140"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="112" t="s">
+      <c r="L6" s="125"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="113"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="154" t="str">
+      <c r="O6" s="108"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="145" t="str">
         <f>Y23</f>
         <v>in17</v>
       </c>
-      <c r="R6" s="155"/>
-      <c r="S6" s="155"/>
-      <c r="T6" s="156"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="146"/>
+      <c r="T6" s="147"/>
       <c r="U6" s="47"/>
       <c r="V6" s="47"/>
       <c r="W6" s="47"/>
@@ -13409,9 +13490,9 @@
       <c r="AE6" s="10"/>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="124"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -13529,19 +13610,19 @@
       <c r="B10" s="6"/>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
-      <c r="E10" s="117" t="s">
+      <c r="E10" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="117" t="s">
+      <c r="F10" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="117" t="s">
+      <c r="G10" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="117" t="s">
+      <c r="H10" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="117" t="s">
+      <c r="I10" s="103" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="54"/>
@@ -13583,11 +13664,11 @@
       <c r="B11" s="6"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
       <c r="J11" s="54"/>
       <c r="K11" s="55"/>
       <c r="L11" s="6"/>
@@ -13627,11 +13708,11 @@
       <c r="B12" s="6"/>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
       <c r="J12" s="54"/>
       <c r="K12" s="54"/>
       <c r="L12" s="6"/>
@@ -13671,11 +13752,11 @@
       <c r="B13" s="6"/>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
       <c r="J13" s="54"/>
       <c r="K13" s="54"/>
       <c r="L13" s="6"/>
@@ -13789,21 +13870,21 @@
     <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="115" t="str">
+      <c r="C16" s="110" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -13836,21 +13917,21 @@
     <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="115" t="str">
+      <c r="C17" s="110" t="str">
         <f>Y10</f>
         <v>in4</v>
       </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
+      <c r="D17" s="111"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -14920,11 +15001,9 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D2:G2"/>
     <mergeCell ref="A35:T35"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="K2:M2"/>
@@ -14941,6 +15020,11 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J4"/>
     <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="C17:N17"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="C16:N16"/>
     <mergeCell ref="A3:C3"/>
@@ -14951,9 +15035,6 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>

--- a/template.xlsx
+++ b/template.xlsx
@@ -82,51 +82,6 @@
             <charset val="128"/>
           </rPr>
           <t>W16</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>W4 H2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>W4 H2</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O23" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>W5 H2</t>
         </r>
       </text>
     </comment>
@@ -395,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="503">
   <si>
     <t>action</t>
     <phoneticPr fontId="5"/>
@@ -2088,19 +2043,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>s</t>
+    <t>{redirect('message')}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>s</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hahahahaha</t>
+    <t>{redirect('reply')}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2780,7 +2727,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3058,56 +3005,35 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3188,6 +3114,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="23" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3224,17 +3162,36 @@
     <xf numFmtId="0" fontId="25" fillId="6" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3244,49 +3201,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3598,7 +3512,7 @@
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="O26" sqref="O26:S27"/>
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4128,7 +4042,7 @@
         <v>481</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>103</v>
+        <v>501</v>
       </c>
       <c r="AE12" s="10"/>
     </row>
@@ -4172,7 +4086,7 @@
         <v>481</v>
       </c>
       <c r="AD13" s="10" t="s">
-        <v>104</v>
+        <v>502</v>
       </c>
       <c r="AE13" s="10"/>
     </row>
@@ -4203,24 +4117,12 @@
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
-      <c r="Y14" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z14" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA14" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB14" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD14" s="10" t="s">
-        <v>105</v>
-      </c>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
       <c r="AE14" s="10"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4440,19 +4342,19 @@
       <c r="D23" s="92"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="158"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
-      <c r="N23" s="158"/>
-      <c r="O23" s="83"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="157"/>
-      <c r="S23" s="158"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
       <c r="T23" s="7"/>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
@@ -4465,19 +4367,19 @@
       <c r="D24" s="92"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="159"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="159"/>
-      <c r="P24" s="160"/>
-      <c r="Q24" s="160"/>
-      <c r="R24" s="160"/>
-      <c r="S24" s="161"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
@@ -4515,19 +4417,19 @@
       <c r="D26" s="92"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="163"/>
-      <c r="J26" s="164"/>
-      <c r="K26" s="162"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="164"/>
-      <c r="O26" s="162"/>
-      <c r="P26" s="163"/>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="163"/>
-      <c r="S26" s="164"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
@@ -4540,19 +4442,19 @@
       <c r="D27" s="92"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
-      <c r="G27" s="165"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="165"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="165"/>
-      <c r="P27" s="166"/>
-      <c r="Q27" s="166"/>
-      <c r="R27" s="166"/>
-      <c r="S27" s="167"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
       <c r="T27" s="7"/>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
@@ -5171,7 +5073,7 @@
     <protectedRange sqref="F6" name="タイトル1"/>
     <protectedRange sqref="F32" name="会社名"/>
   </protectedRanges>
-  <mergeCells count="13">
+  <mergeCells count="10">
     <mergeCell ref="A35:T35"/>
     <mergeCell ref="G14:S16"/>
     <mergeCell ref="G10:S12"/>
@@ -5182,9 +5084,6 @@
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="E9:T9"/>
     <mergeCell ref="F32:S32"/>
-    <mergeCell ref="G23:J24"/>
-    <mergeCell ref="K23:N24"/>
-    <mergeCell ref="O23:S24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -6827,7 +6726,7 @@
   <dimension ref="A1:AN52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+      <selection activeCell="D20" sqref="D20:M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7585,9 +7484,7 @@
       <c r="A20" s="68"/>
       <c r="B20" s="63"/>
       <c r="C20" s="63"/>
-      <c r="D20" s="69" t="s">
-        <v>502</v>
-      </c>
+      <c r="D20" s="69"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63"/>
       <c r="G20" s="72"/>
@@ -7612,9 +7509,7 @@
       <c r="A21" s="68"/>
       <c r="B21" s="63"/>
       <c r="C21" s="63"/>
-      <c r="D21" s="69" t="s">
-        <v>503</v>
-      </c>
+      <c r="D21" s="69"/>
       <c r="E21" s="63"/>
       <c r="F21" s="63"/>
       <c r="G21" s="72"/>
@@ -7639,9 +7534,7 @@
       <c r="A22" s="68"/>
       <c r="B22" s="63"/>
       <c r="C22" s="63"/>
-      <c r="D22" s="69" t="s">
-        <v>501</v>
-      </c>
+      <c r="D22" s="69"/>
       <c r="E22" s="63"/>
       <c r="F22" s="63"/>
       <c r="G22" s="72"/>
@@ -7666,9 +7559,7 @@
       <c r="A23" s="68"/>
       <c r="B23" s="63"/>
       <c r="C23" s="63"/>
-      <c r="D23" s="69" t="s">
-        <v>501</v>
-      </c>
+      <c r="D23" s="69"/>
       <c r="E23" s="63"/>
       <c r="F23" s="63"/>
       <c r="G23" s="72"/>
@@ -7693,9 +7584,7 @@
       <c r="A24" s="68"/>
       <c r="B24" s="63"/>
       <c r="C24" s="63"/>
-      <c r="D24" s="69" t="s">
-        <v>503</v>
-      </c>
+      <c r="D24" s="69"/>
       <c r="E24" s="63"/>
       <c r="F24" s="63"/>
       <c r="G24" s="72"/>
@@ -7720,9 +7609,7 @@
       <c r="A25" s="68"/>
       <c r="B25" s="63"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="69" t="s">
-        <v>503</v>
-      </c>
+      <c r="D25" s="69"/>
       <c r="E25" s="63"/>
       <c r="F25" s="63"/>
       <c r="G25" s="72"/>
@@ -7747,9 +7634,7 @@
       <c r="A26" s="68"/>
       <c r="B26" s="63"/>
       <c r="C26" s="63"/>
-      <c r="D26" s="69" t="s">
-        <v>504</v>
-      </c>
+      <c r="D26" s="69"/>
       <c r="E26" s="63"/>
       <c r="F26" s="63"/>
       <c r="G26" s="72"/>
@@ -13197,28 +13082,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="107"/>
+      <c r="P1" s="107"/>
+      <c r="Q1" s="107"/>
+      <c r="R1" s="107"/>
+      <c r="S1" s="107"/>
+      <c r="T1" s="107"/>
       <c r="U1" s="45"/>
       <c r="V1" s="45"/>
       <c r="W1" s="45"/>
@@ -13234,41 +13119,41 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="100" t="s">
         <v>468</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="155" t="str">
+      <c r="B2" s="101"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="104" t="str">
         <f>Y12</f>
         <v>in6</v>
       </c>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="148" t="s">
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="149"/>
-      <c r="J2" s="150"/>
-      <c r="K2" s="113" t="str">
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="108" t="str">
         <f>Y17</f>
         <v>in11</v>
       </c>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="127" t="s">
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="128"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="136" t="str">
+      <c r="O2" s="122"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="133" t="str">
         <f>Y21</f>
         <v>in15</v>
       </c>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="138"/>
+      <c r="R2" s="134"/>
+      <c r="S2" s="134"/>
+      <c r="T2" s="135"/>
       <c r="U2" s="46"/>
       <c r="V2" s="46"/>
       <c r="W2" s="46"/>
@@ -13283,36 +13168,36 @@
       <c r="AC2" s="24"/>
     </row>
     <row r="3" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="145" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="104" t="str">
+      <c r="B3" s="146"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="149" t="str">
         <f>Y13</f>
         <v>in7</v>
       </c>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="133" t="s">
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="134"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="115" t="str">
+      <c r="I3" s="128"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="109" t="str">
         <f>Y18</f>
         <v>in12</v>
       </c>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="130"/>
-      <c r="O3" s="131"/>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="140"/>
-      <c r="T3" s="141"/>
+      <c r="L3" s="110"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="124"/>
+      <c r="O3" s="125"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="136"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="138"/>
       <c r="U3" s="46"/>
       <c r="V3" s="46"/>
       <c r="W3" s="46"/>
@@ -13327,36 +13212,36 @@
       <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="145" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="104" t="str">
+      <c r="B4" s="146"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="149" t="str">
         <f>Y14</f>
         <v>in8</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="133" t="s">
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="114"/>
+      <c r="N4" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="O4" s="134"/>
-      <c r="P4" s="135"/>
-      <c r="Q4" s="142" t="str">
+      <c r="O4" s="128"/>
+      <c r="P4" s="129"/>
+      <c r="Q4" s="139" t="str">
         <f>Y22</f>
         <v>in16</v>
       </c>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="144"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="141"/>
       <c r="U4" s="46"/>
       <c r="V4" s="46"/>
       <c r="W4" s="46"/>
@@ -13383,36 +13268,36 @@
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="145" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="104" t="str">
+      <c r="B5" s="146"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="149" t="str">
         <f>Y15</f>
         <v>in9</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="100" t="s">
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="121" t="str">
+      <c r="I5" s="146"/>
+      <c r="J5" s="147"/>
+      <c r="K5" s="115" t="str">
         <f>Y19</f>
         <v>in13</v>
       </c>
-      <c r="L5" s="122"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="131"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="139"/>
-      <c r="R5" s="140"/>
-      <c r="S5" s="140"/>
-      <c r="T5" s="141"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="126"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
+      <c r="T5" s="138"/>
       <c r="U5" s="46"/>
       <c r="V5" s="46"/>
       <c r="W5" s="46"/>
@@ -13435,41 +13320,41 @@
       <c r="AE5" s="10"/>
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="151" t="str">
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="154" t="str">
         <f>Y16</f>
         <v>in10</v>
       </c>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="107" t="s">
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="108"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="124" t="str">
+      <c r="I6" s="131"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="118" t="str">
         <f>Y20</f>
         <v>in14</v>
       </c>
-      <c r="L6" s="125"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="107" t="s">
+      <c r="L6" s="119"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="O6" s="108"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="145" t="str">
+      <c r="O6" s="131"/>
+      <c r="P6" s="132"/>
+      <c r="Q6" s="142" t="str">
         <f>Y23</f>
         <v>in17</v>
       </c>
-      <c r="R6" s="146"/>
-      <c r="S6" s="146"/>
-      <c r="T6" s="147"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="144"/>
       <c r="U6" s="47"/>
       <c r="V6" s="47"/>
       <c r="W6" s="47"/>
@@ -13490,9 +13375,9 @@
       <c r="AE6" s="10"/>
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="154"/>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
+      <c r="A7" s="103"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -13610,19 +13495,19 @@
       <c r="B10" s="6"/>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
-      <c r="E10" s="103" t="s">
+      <c r="E10" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="103" t="s">
+      <c r="F10" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="103" t="s">
+      <c r="H10" s="148" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="103" t="s">
+      <c r="I10" s="148" t="s">
         <v>40</v>
       </c>
       <c r="J10" s="54"/>
@@ -13664,11 +13549,11 @@
       <c r="B11" s="6"/>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
       <c r="J11" s="54"/>
       <c r="K11" s="55"/>
       <c r="L11" s="6"/>
@@ -13708,11 +13593,11 @@
       <c r="B12" s="6"/>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
       <c r="J12" s="54"/>
       <c r="K12" s="54"/>
       <c r="L12" s="6"/>
@@ -13752,11 +13637,11 @@
       <c r="B13" s="6"/>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
       <c r="J13" s="54"/>
       <c r="K13" s="54"/>
       <c r="L13" s="6"/>
@@ -13870,21 +13755,21 @@
     <row r="16" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="110" t="str">
+      <c r="C16" s="152" t="str">
         <f>Y11</f>
         <v>in5</v>
       </c>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="111"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="153"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="153"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
@@ -13917,21 +13802,21 @@
     <row r="17" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="110" t="str">
+      <c r="C17" s="152" t="str">
         <f>Y10</f>
         <v>in4</v>
       </c>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
+      <c r="K17" s="153"/>
+      <c r="L17" s="153"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="153"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -15001,6 +14886,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C17:N17"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C16:N16"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="D2:G2"/>
@@ -15017,24 +14920,6 @@
     <mergeCell ref="Q4:T5"/>
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C16:N16"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:G5"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <hyperlinks>
